--- a/3.1 Optimizacija (N).xlsx
+++ b/3.1 Optimizacija (N).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{1E1083B7-BC65-4FD0-A883-A14D05A96948}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{17A3C65C-A9A1-49BF-A395-C59AA1EF7D47}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5BC1E1-E975-4051-AC78-20364649A821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12600" tabRatio="807" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="807" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sadrzaj" sheetId="29" r:id="rId1"/>
@@ -782,6 +782,17 @@
     <definedName name="troskovi_prijevoza">'[1]PT1 (R)'!$C$17:$G$19</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -881,8 +892,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="320">
   <si>
     <t>Građevinska poduzeća</t>
   </si>
@@ -1912,21 +1945,30 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;kn&quot;_-;\-* #,##0.00\ &quot;kn&quot;_-;_-* &quot;-&quot;??\ &quot;kn&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_n_-;\-* #,##0.00\ _k_n_-;_-* &quot;-&quot;??\ _k_n_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;kn&quot;_-;\-* #,##0\ &quot;kn&quot;_-;_-* &quot;-&quot;??\ &quot;kn&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$$-1009]#,##0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ [$kn-41A]_-;\-* #,##0\ [$kn-41A]_-;_-* &quot;-&quot;??\ [$kn-41A]_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00\ [$€-407]"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$kn-41A]_-;\-* #,##0.00\ [$kn-41A]_-;_-* &quot;-&quot;??\ [$kn-41A]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_n_-;\-* #,##0.00\ _k_n_-;_-* &quot;-&quot;??\ _k_n_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;kn&quot;_-;\-* #,##0\ &quot;kn&quot;_-;_-* &quot;-&quot;??\ &quot;kn&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="[$$-1009]#,##0"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00\ [$€-407]"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ [$kn-41A]_-;\-* #,##0.00\ [$kn-41A]_-;_-* &quot;-&quot;??\ [$kn-41A]_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2288,7 +2330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -3179,31 +3221,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF009900"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF009900"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF009900"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF009900"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF009900"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF009900"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="275">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3211,7 +3294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3223,7 +3306,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3238,64 +3321,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="38" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3304,10 +3387,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3325,56 +3408,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="42" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="42" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="43" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="43" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="45" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="45" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3389,31 +3472,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3422,16 +3499,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3449,173 +3526,173 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="14" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="14" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="14" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="14" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="14" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="14" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="14" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="42" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="43" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="44" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="45" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="46" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="47" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="46" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="47" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="46" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="47" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="49" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="50" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="16" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="16"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="33" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="33" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="42" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="43" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="44" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="45" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="46" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="47" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="46" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="47" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="46" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="47" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="49" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="50" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="31" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="16" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="16" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="16"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="37" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="16" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3627,145 +3704,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="32" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="32" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="16" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="38" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3774,7 +3851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3786,22 +3863,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3813,58 +3890,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="16" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="31" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="16" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="16" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="16" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="31" xfId="16" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="32" xfId="16" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="31" xfId="16" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -3879,56 +3953,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="14" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3940,43 +4014,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="32" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="34" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="32" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="32" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="34" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="34" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="33" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3988,20 +4062,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4024,17 +4122,7 @@
     <cellStyle name="Normal 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4203,8 +4291,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF009900"/>
       <color rgb="FFCCFF99"/>
-      <color rgb="FF009900"/>
       <color rgb="FF99FF66"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFFFFFCC"/>
@@ -5806,8 +5894,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4951203" y="422335"/>
-          <a:ext cx="4467226" cy="1797170"/>
+          <a:off x="4736501" y="419460"/>
+          <a:ext cx="4582964" cy="1672206"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8170,15 +8258,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:F25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:F25" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A4:F25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Vrsta zadatka" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Oznaka" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Zahtjevnost" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Opis" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Porijeklo" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Vrsta zadatka" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Oznaka" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Zahtjevnost" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Opis" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Porijeklo" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8514,984 +8602,984 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21" defaultRowHeight="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" style="178"/>
-    <col min="2" max="2" width="11.7109375" style="178" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="178" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="178" customWidth="1"/>
-    <col min="5" max="5" width="45.42578125" style="178" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="178" customWidth="1"/>
-    <col min="7" max="16384" width="21" style="178"/>
+    <col min="1" max="1" width="21" style="176"/>
+    <col min="2" max="2" width="11.6640625" style="176" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="176" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="176" customWidth="1"/>
+    <col min="5" max="5" width="45.44140625" style="176" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="176" customWidth="1"/>
+    <col min="7" max="16384" width="21" style="176"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="244" t="s">
+    <row r="1" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="241" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="181"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="181"/>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="181"/>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="181" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="179"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="179"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="179" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="181" t="s">
+      <c r="B4" s="179" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="181" t="s">
+      <c r="C4" s="179" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="181" t="s">
+      <c r="D4" s="179" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="181" t="s">
+      <c r="E4" s="179" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="181" t="s">
+      <c r="F4" s="179" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="182" t="s">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="180" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="183" t="s">
+      <c r="B5" s="181" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="181">
+      <c r="C5" s="179">
         <v>2</v>
       </c>
-      <c r="D5" s="185" t="s">
+      <c r="D5" s="183" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="184" t="s">
+      <c r="E5" s="182" t="s">
         <v>198</v>
       </c>
-      <c r="F5" s="181" t="s">
+      <c r="F5" s="179" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="182" t="s">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="180" t="s">
         <v>197</v>
       </c>
-      <c r="B6" s="183" t="s">
+      <c r="B6" s="181" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="181">
+      <c r="C6" s="179">
         <v>2</v>
       </c>
-      <c r="D6" s="186" t="s">
+      <c r="D6" s="184" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="184" t="s">
+      <c r="E6" s="182" t="s">
         <v>199</v>
       </c>
-      <c r="F6" s="181" t="s">
+      <c r="F6" s="179" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="182" t="s">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="180" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="183" t="s">
+      <c r="B7" s="181" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="181">
+      <c r="C7" s="179">
         <v>3</v>
       </c>
-      <c r="D7" s="186" t="s">
+      <c r="D7" s="184" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="184" t="s">
+      <c r="E7" s="182" t="s">
         <v>200</v>
       </c>
-      <c r="F7" s="181" t="s">
+      <c r="F7" s="179" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="182" t="s">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="180" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="183" t="s">
+      <c r="B8" s="181" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="181">
+      <c r="C8" s="179">
         <v>4</v>
       </c>
-      <c r="D8" s="186" t="s">
+      <c r="D8" s="184" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="184" t="s">
+      <c r="E8" s="182" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="181"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="182" t="s">
+      <c r="F8" s="179"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="180" t="s">
         <v>202</v>
       </c>
-      <c r="B9" s="183" t="s">
+      <c r="B9" s="181" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="181">
+      <c r="C9" s="179">
         <v>2</v>
       </c>
-      <c r="D9" s="186" t="s">
+      <c r="D9" s="184" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="184" t="s">
+      <c r="E9" s="182" t="s">
         <v>220</v>
       </c>
-      <c r="F9" s="181" t="s">
+      <c r="F9" s="179" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="182" t="s">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="180" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="183" t="s">
+      <c r="B10" s="181" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="181">
+      <c r="C10" s="179">
         <v>2</v>
       </c>
-      <c r="D10" s="186" t="s">
+      <c r="D10" s="184" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="184" t="s">
+      <c r="E10" s="182" t="s">
         <v>229</v>
       </c>
-      <c r="F10" s="181" t="s">
+      <c r="F10" s="179" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="182" t="s">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="180" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="181" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="181">
+      <c r="C11" s="179">
         <v>3</v>
       </c>
-      <c r="D11" s="186" t="s">
+      <c r="D11" s="184" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="184" t="s">
+      <c r="E11" s="182" t="s">
         <v>206</v>
       </c>
-      <c r="F11" s="181"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182" t="s">
+      <c r="F11" s="179"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="180" t="s">
         <v>208</v>
       </c>
-      <c r="B12" s="183" t="s">
+      <c r="B12" s="181" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="181">
+      <c r="C12" s="179">
         <v>4</v>
       </c>
-      <c r="D12" s="186" t="s">
+      <c r="D12" s="184" t="s">
         <v>174</v>
       </c>
-      <c r="E12" s="184" t="s">
+      <c r="E12" s="182" t="s">
         <v>207</v>
       </c>
-      <c r="F12" s="181" t="s">
+      <c r="F12" s="179" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="182" t="s">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="180" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="183" t="s">
+      <c r="B13" s="181" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="181">
+      <c r="C13" s="179">
         <v>4</v>
       </c>
-      <c r="D13" s="186" t="s">
+      <c r="D13" s="184" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="184" t="s">
+      <c r="E13" s="182" t="s">
         <v>209</v>
       </c>
-      <c r="F13" s="181" t="s">
+      <c r="F13" s="179" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="182" t="s">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="180" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="183" t="s">
+      <c r="B14" s="181" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="181">
+      <c r="C14" s="179">
         <v>4</v>
       </c>
-      <c r="D14" s="186" t="s">
+      <c r="D14" s="184" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="184" t="s">
+      <c r="E14" s="182" t="s">
         <v>210</v>
       </c>
-      <c r="F14" s="181" t="s">
+      <c r="F14" s="179" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="182" t="s">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="180" t="s">
         <v>211</v>
       </c>
-      <c r="B15" s="183" t="s">
+      <c r="B15" s="181" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="181">
+      <c r="C15" s="179">
         <v>4</v>
       </c>
-      <c r="D15" s="186" t="s">
+      <c r="D15" s="184" t="s">
         <v>177</v>
       </c>
-      <c r="E15" s="184" t="s">
+      <c r="E15" s="182" t="s">
         <v>224</v>
       </c>
-      <c r="F15" s="181" t="s">
+      <c r="F15" s="179" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182" t="s">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="180" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="183" t="s">
+      <c r="B16" s="181" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="181">
+      <c r="C16" s="179">
         <v>5</v>
       </c>
-      <c r="D16" s="186" t="s">
+      <c r="D16" s="184" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="184" t="s">
+      <c r="E16" s="182" t="s">
         <v>212</v>
       </c>
-      <c r="F16" s="181" t="s">
+      <c r="F16" s="179" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="182" t="s">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="180" t="s">
         <v>211</v>
       </c>
-      <c r="B17" s="183" t="s">
+      <c r="B17" s="181" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="181">
+      <c r="C17" s="179">
         <v>4</v>
       </c>
-      <c r="D17" s="186" t="s">
+      <c r="D17" s="184" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="184" t="s">
+      <c r="E17" s="182" t="s">
         <v>213</v>
       </c>
-      <c r="F17" s="181" t="s">
+      <c r="F17" s="179" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="182" t="s">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="180" t="s">
         <v>211</v>
       </c>
-      <c r="B18" s="183" t="s">
+      <c r="B18" s="181" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="181">
+      <c r="C18" s="179">
         <v>5</v>
       </c>
-      <c r="D18" s="186" t="s">
+      <c r="D18" s="184" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="184" t="s">
+      <c r="E18" s="182" t="s">
         <v>214</v>
       </c>
-      <c r="F18" s="181" t="s">
+      <c r="F18" s="179" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="182" t="s">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="180" t="s">
         <v>202</v>
       </c>
-      <c r="B19" s="183" t="s">
+      <c r="B19" s="181" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="181">
+      <c r="C19" s="179">
         <v>2</v>
       </c>
-      <c r="D19" s="186" t="s">
+      <c r="D19" s="184" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="184" t="s">
+      <c r="E19" s="182" t="s">
         <v>215</v>
       </c>
-      <c r="F19" s="181" t="s">
+      <c r="F19" s="179" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="181" t="s">
+    <row r="20" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="179" t="s">
         <v>202</v>
       </c>
-      <c r="B20" s="183" t="s">
+      <c r="B20" s="181" t="s">
         <v>233</v>
       </c>
-      <c r="C20" s="181">
+      <c r="C20" s="179">
         <v>3</v>
       </c>
-      <c r="D20" s="185" t="s">
+      <c r="D20" s="183" t="s">
         <v>234</v>
       </c>
-      <c r="E20" s="184" t="s">
+      <c r="E20" s="182" t="s">
         <v>235</v>
       </c>
-      <c r="F20" s="181" t="s">
+      <c r="F20" s="179" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="181" t="s">
+    <row r="21" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="179" t="s">
         <v>197</v>
       </c>
-      <c r="B21" s="183" t="s">
+      <c r="B21" s="181" t="s">
         <v>236</v>
       </c>
-      <c r="C21" s="181">
+      <c r="C21" s="179">
         <v>4</v>
       </c>
-      <c r="D21" s="185" t="s">
+      <c r="D21" s="183" t="s">
         <v>237</v>
       </c>
-      <c r="E21" s="184" t="s">
+      <c r="E21" s="182" t="s">
         <v>238</v>
       </c>
-      <c r="F21" s="181" t="s">
+      <c r="F21" s="179" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="181" t="s">
+    <row r="22" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="179" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="183" t="s">
+      <c r="B22" s="181" t="s">
         <v>239</v>
       </c>
-      <c r="C22" s="181">
+      <c r="C22" s="179">
         <v>3</v>
       </c>
-      <c r="D22" s="185" t="s">
+      <c r="D22" s="183" t="s">
         <v>240</v>
       </c>
-      <c r="E22" s="184" t="s">
+      <c r="E22" s="182" t="s">
         <v>241</v>
       </c>
-      <c r="F22" s="181" t="s">
+      <c r="F22" s="179" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="181" t="s">
+    <row r="23" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="179" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="183" t="s">
+      <c r="B23" s="181" t="s">
         <v>242</v>
       </c>
-      <c r="C23" s="181">
+      <c r="C23" s="179">
         <v>4</v>
       </c>
-      <c r="D23" s="185" t="s">
+      <c r="D23" s="183" t="s">
         <v>243</v>
       </c>
-      <c r="E23" s="184" t="s">
+      <c r="E23" s="182" t="s">
         <v>244</v>
       </c>
-      <c r="F23" s="181"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="181" t="s">
+      <c r="F23" s="179"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="179" t="s">
         <v>245</v>
       </c>
-      <c r="B24" s="183" t="s">
+      <c r="B24" s="181" t="s">
         <v>246</v>
       </c>
-      <c r="C24" s="181">
+      <c r="C24" s="179">
         <v>4</v>
       </c>
-      <c r="D24" s="185" t="s">
+      <c r="D24" s="183" t="s">
         <v>247</v>
       </c>
-      <c r="E24" s="184" t="s">
+      <c r="E24" s="182" t="s">
         <v>248</v>
       </c>
-      <c r="F24" s="181" t="s">
+      <c r="F24" s="179" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="199" t="s">
+    <row r="25" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="197" t="s">
         <v>197</v>
       </c>
-      <c r="B25" s="199" t="s">
+      <c r="B25" s="197" t="s">
         <v>263</v>
       </c>
-      <c r="C25" s="199">
+      <c r="C25" s="197">
         <v>3</v>
       </c>
-      <c r="D25" s="201" t="s">
+      <c r="D25" s="199" t="s">
         <v>264</v>
       </c>
-      <c r="E25" s="200" t="s">
+      <c r="E25" s="198" t="s">
         <v>265</v>
       </c>
-      <c r="F25" s="199" t="s">
+      <c r="F25" s="197" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="179"/>
-      <c r="D26" s="180"/>
-    </row>
-    <row r="27" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="179"/>
-      <c r="D27" s="180"/>
-    </row>
-    <row r="28" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="179"/>
-      <c r="D28" s="180"/>
-    </row>
-    <row r="29" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="179"/>
-      <c r="D29" s="180"/>
-    </row>
-    <row r="30" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="179"/>
-      <c r="D30" s="180"/>
-    </row>
-    <row r="31" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="179"/>
-      <c r="D31" s="180"/>
-    </row>
-    <row r="32" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="179"/>
-      <c r="D32" s="180"/>
-    </row>
-    <row r="33" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="179"/>
-      <c r="D33" s="180"/>
-    </row>
-    <row r="34" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="179"/>
-      <c r="D34" s="180"/>
-    </row>
-    <row r="35" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="179"/>
-      <c r="D35" s="180"/>
-    </row>
-    <row r="36" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="179"/>
-      <c r="D36" s="180"/>
-    </row>
-    <row r="37" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="179"/>
-      <c r="D37" s="180"/>
-    </row>
-    <row r="38" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="179"/>
-      <c r="D38" s="180"/>
-    </row>
-    <row r="39" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="179"/>
-      <c r="D39" s="180"/>
-    </row>
-    <row r="40" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="179"/>
-      <c r="D40" s="180"/>
-    </row>
-    <row r="41" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="179"/>
-      <c r="D41" s="180"/>
-    </row>
-    <row r="42" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="179"/>
-      <c r="D42" s="180"/>
-    </row>
-    <row r="43" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="179"/>
-      <c r="D43" s="180"/>
-    </row>
-    <row r="44" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="179"/>
-      <c r="D44" s="180"/>
-    </row>
-    <row r="45" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="179"/>
-      <c r="D45" s="180"/>
-    </row>
-    <row r="46" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="179"/>
-      <c r="D46" s="180"/>
-    </row>
-    <row r="47" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="179"/>
-      <c r="D47" s="180"/>
-    </row>
-    <row r="48" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="179"/>
-      <c r="D48" s="180"/>
-    </row>
-    <row r="49" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="179"/>
-      <c r="D49" s="180"/>
-    </row>
-    <row r="50" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="179"/>
-      <c r="D50" s="180"/>
-    </row>
-    <row r="51" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="179"/>
-      <c r="D51" s="180"/>
-    </row>
-    <row r="52" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="179"/>
-      <c r="D52" s="180"/>
-    </row>
-    <row r="53" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="179"/>
-      <c r="D53" s="180"/>
-    </row>
-    <row r="54" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="179"/>
-      <c r="D54" s="180"/>
-    </row>
-    <row r="55" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="179"/>
-      <c r="D55" s="180"/>
-    </row>
-    <row r="56" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="179"/>
-      <c r="D56" s="180"/>
-    </row>
-    <row r="57" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="179"/>
-      <c r="D57" s="180"/>
-    </row>
-    <row r="58" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="179"/>
-      <c r="D58" s="180"/>
-    </row>
-    <row r="59" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="179"/>
-      <c r="D59" s="180"/>
-    </row>
-    <row r="60" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="179"/>
-      <c r="D60" s="180"/>
-    </row>
-    <row r="61" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="179"/>
-      <c r="D61" s="180"/>
-    </row>
-    <row r="62" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="179"/>
-      <c r="D62" s="180"/>
-    </row>
-    <row r="63" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="179"/>
-      <c r="D63" s="180"/>
-    </row>
-    <row r="64" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="179"/>
-      <c r="D64" s="180"/>
-    </row>
-    <row r="65" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="179"/>
-      <c r="D65" s="180"/>
-    </row>
-    <row r="66" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="180"/>
-    </row>
-    <row r="67" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D67" s="180"/>
-    </row>
-    <row r="68" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D68" s="180"/>
-    </row>
-    <row r="69" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D69" s="180"/>
-    </row>
-    <row r="70" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D70" s="180"/>
-    </row>
-    <row r="71" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D71" s="180"/>
-    </row>
-    <row r="72" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D72" s="180"/>
-    </row>
-    <row r="73" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D73" s="180"/>
-    </row>
-    <row r="74" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D74" s="180"/>
-    </row>
-    <row r="75" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D75" s="180"/>
-    </row>
-    <row r="76" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D76" s="180"/>
-    </row>
-    <row r="77" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D77" s="180"/>
-    </row>
-    <row r="78" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D78" s="180"/>
-    </row>
-    <row r="79" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D79" s="180"/>
-    </row>
-    <row r="80" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D80" s="180"/>
-    </row>
-    <row r="81" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D81" s="180"/>
-    </row>
-    <row r="82" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D82" s="180"/>
-    </row>
-    <row r="83" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D83" s="180"/>
-    </row>
-    <row r="84" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D84" s="180"/>
-    </row>
-    <row r="85" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D85" s="180"/>
-    </row>
-    <row r="86" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D86" s="180"/>
-    </row>
-    <row r="87" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D87" s="180"/>
-    </row>
-    <row r="88" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D88" s="180"/>
-    </row>
-    <row r="89" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D89" s="180"/>
-    </row>
-    <row r="90" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D90" s="180"/>
-    </row>
-    <row r="91" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D91" s="180"/>
-    </row>
-    <row r="92" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D92" s="180"/>
-    </row>
-    <row r="93" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D93" s="180"/>
-    </row>
-    <row r="94" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D94" s="180"/>
-    </row>
-    <row r="95" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D95" s="180"/>
-    </row>
-    <row r="96" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D96" s="180"/>
-    </row>
-    <row r="97" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D97" s="180"/>
-    </row>
-    <row r="98" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D98" s="180"/>
-    </row>
-    <row r="99" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D99" s="180"/>
-    </row>
-    <row r="100" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D100" s="180"/>
-    </row>
-    <row r="101" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D101" s="180"/>
-    </row>
-    <row r="102" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D102" s="180"/>
-    </row>
-    <row r="103" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D103" s="180"/>
-    </row>
-    <row r="104" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D104" s="180"/>
-    </row>
-    <row r="105" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D105" s="180"/>
-    </row>
-    <row r="106" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D106" s="180"/>
-    </row>
-    <row r="107" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D107" s="180"/>
-    </row>
-    <row r="108" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D108" s="180"/>
-    </row>
-    <row r="109" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D109" s="180"/>
-    </row>
-    <row r="110" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D110" s="180"/>
-    </row>
-    <row r="111" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D111" s="180"/>
-    </row>
-    <row r="112" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D112" s="180"/>
-    </row>
-    <row r="113" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D113" s="180"/>
-    </row>
-    <row r="114" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D114" s="180"/>
-    </row>
-    <row r="115" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D115" s="180"/>
-    </row>
-    <row r="116" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D116" s="180"/>
-    </row>
-    <row r="117" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D117" s="180"/>
-    </row>
-    <row r="118" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D118" s="180"/>
-    </row>
-    <row r="119" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D119" s="180"/>
-    </row>
-    <row r="120" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D120" s="180"/>
-    </row>
-    <row r="121" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D121" s="180"/>
-    </row>
-    <row r="122" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D122" s="180"/>
-    </row>
-    <row r="123" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D123" s="180"/>
-    </row>
-    <row r="124" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D124" s="180"/>
-    </row>
-    <row r="125" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D125" s="180"/>
-    </row>
-    <row r="126" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D126" s="180"/>
-    </row>
-    <row r="127" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D127" s="180"/>
-    </row>
-    <row r="128" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D128" s="180"/>
-    </row>
-    <row r="129" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D129" s="180"/>
-    </row>
-    <row r="130" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D130" s="180"/>
-    </row>
-    <row r="131" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D131" s="180"/>
-    </row>
-    <row r="132" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D132" s="180"/>
-    </row>
-    <row r="133" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D133" s="180"/>
-    </row>
-    <row r="134" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D134" s="180"/>
-    </row>
-    <row r="135" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D135" s="180"/>
-    </row>
-    <row r="136" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D136" s="180"/>
-    </row>
-    <row r="137" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D137" s="180"/>
-    </row>
-    <row r="138" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D138" s="180"/>
-    </row>
-    <row r="139" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D139" s="180"/>
-    </row>
-    <row r="140" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D140" s="180"/>
-    </row>
-    <row r="141" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D141" s="180"/>
-    </row>
-    <row r="142" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D142" s="180"/>
-    </row>
-    <row r="143" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D143" s="180"/>
-    </row>
-    <row r="144" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D144" s="180"/>
-    </row>
-    <row r="145" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D145" s="180"/>
-    </row>
-    <row r="146" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D146" s="180"/>
-    </row>
-    <row r="147" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D147" s="180"/>
-    </row>
-    <row r="148" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D148" s="180"/>
-    </row>
-    <row r="149" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D149" s="180"/>
-    </row>
-    <row r="150" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D150" s="180"/>
-    </row>
-    <row r="151" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D151" s="180"/>
-    </row>
-    <row r="152" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D152" s="180"/>
-    </row>
-    <row r="153" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D153" s="180"/>
-    </row>
-    <row r="154" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D154" s="180"/>
-    </row>
-    <row r="155" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D155" s="180"/>
-    </row>
-    <row r="156" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D156" s="180"/>
-    </row>
-    <row r="157" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D157" s="180"/>
-    </row>
-    <row r="158" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D158" s="180"/>
-    </row>
-    <row r="159" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D159" s="180"/>
-    </row>
-    <row r="160" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D160" s="180"/>
-    </row>
-    <row r="161" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D161" s="180"/>
-    </row>
-    <row r="162" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D162" s="180"/>
-    </row>
-    <row r="163" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D163" s="180"/>
-    </row>
-    <row r="164" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D164" s="180"/>
-    </row>
-    <row r="165" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D165" s="180"/>
-    </row>
-    <row r="166" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D166" s="180"/>
-    </row>
-    <row r="167" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D167" s="180"/>
-    </row>
-    <row r="168" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D168" s="180"/>
-    </row>
-    <row r="169" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D169" s="180"/>
-    </row>
-    <row r="170" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D170" s="180"/>
-    </row>
-    <row r="171" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D171" s="180"/>
-    </row>
-    <row r="172" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D172" s="180"/>
-    </row>
-    <row r="173" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D173" s="180"/>
-    </row>
-    <row r="174" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D174" s="180"/>
-    </row>
-    <row r="175" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D175" s="180"/>
-    </row>
-    <row r="176" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D176" s="180"/>
-    </row>
-    <row r="177" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D177" s="180"/>
-    </row>
-    <row r="178" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D178" s="180"/>
-    </row>
-    <row r="179" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D179" s="180"/>
-    </row>
-    <row r="180" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D180" s="180"/>
-    </row>
-    <row r="181" spans="4:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D181" s="180"/>
+    <row r="26" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="177"/>
+      <c r="D26" s="178"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="177"/>
+      <c r="D27" s="178"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="177"/>
+      <c r="D28" s="178"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="177"/>
+      <c r="D29" s="178"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="177"/>
+      <c r="D30" s="178"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="177"/>
+      <c r="D31" s="178"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="177"/>
+      <c r="D32" s="178"/>
+    </row>
+    <row r="33" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="177"/>
+      <c r="D33" s="178"/>
+    </row>
+    <row r="34" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="177"/>
+      <c r="D34" s="178"/>
+    </row>
+    <row r="35" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="177"/>
+      <c r="D35" s="178"/>
+    </row>
+    <row r="36" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="177"/>
+      <c r="D36" s="178"/>
+    </row>
+    <row r="37" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="177"/>
+      <c r="D37" s="178"/>
+    </row>
+    <row r="38" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="177"/>
+      <c r="D38" s="178"/>
+    </row>
+    <row r="39" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="177"/>
+      <c r="D39" s="178"/>
+    </row>
+    <row r="40" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="177"/>
+      <c r="D40" s="178"/>
+    </row>
+    <row r="41" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="177"/>
+      <c r="D41" s="178"/>
+    </row>
+    <row r="42" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="177"/>
+      <c r="D42" s="178"/>
+    </row>
+    <row r="43" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="177"/>
+      <c r="D43" s="178"/>
+    </row>
+    <row r="44" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="177"/>
+      <c r="D44" s="178"/>
+    </row>
+    <row r="45" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="177"/>
+      <c r="D45" s="178"/>
+    </row>
+    <row r="46" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="177"/>
+      <c r="D46" s="178"/>
+    </row>
+    <row r="47" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="177"/>
+      <c r="D47" s="178"/>
+    </row>
+    <row r="48" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="177"/>
+      <c r="D48" s="178"/>
+    </row>
+    <row r="49" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="177"/>
+      <c r="D49" s="178"/>
+    </row>
+    <row r="50" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="177"/>
+      <c r="D50" s="178"/>
+    </row>
+    <row r="51" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="177"/>
+      <c r="D51" s="178"/>
+    </row>
+    <row r="52" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="177"/>
+      <c r="D52" s="178"/>
+    </row>
+    <row r="53" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="177"/>
+      <c r="D53" s="178"/>
+    </row>
+    <row r="54" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="177"/>
+      <c r="D54" s="178"/>
+    </row>
+    <row r="55" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="177"/>
+      <c r="D55" s="178"/>
+    </row>
+    <row r="56" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="177"/>
+      <c r="D56" s="178"/>
+    </row>
+    <row r="57" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="177"/>
+      <c r="D57" s="178"/>
+    </row>
+    <row r="58" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="177"/>
+      <c r="D58" s="178"/>
+    </row>
+    <row r="59" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="177"/>
+      <c r="D59" s="178"/>
+    </row>
+    <row r="60" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="177"/>
+      <c r="D60" s="178"/>
+    </row>
+    <row r="61" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="177"/>
+      <c r="D61" s="178"/>
+    </row>
+    <row r="62" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="177"/>
+      <c r="D62" s="178"/>
+    </row>
+    <row r="63" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="177"/>
+      <c r="D63" s="178"/>
+    </row>
+    <row r="64" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="177"/>
+      <c r="D64" s="178"/>
+    </row>
+    <row r="65" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="177"/>
+      <c r="D65" s="178"/>
+    </row>
+    <row r="66" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D66" s="178"/>
+    </row>
+    <row r="67" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D67" s="178"/>
+    </row>
+    <row r="68" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D68" s="178"/>
+    </row>
+    <row r="69" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D69" s="178"/>
+    </row>
+    <row r="70" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D70" s="178"/>
+    </row>
+    <row r="71" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D71" s="178"/>
+    </row>
+    <row r="72" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D72" s="178"/>
+    </row>
+    <row r="73" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="178"/>
+    </row>
+    <row r="74" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="178"/>
+    </row>
+    <row r="75" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D75" s="178"/>
+    </row>
+    <row r="76" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D76" s="178"/>
+    </row>
+    <row r="77" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D77" s="178"/>
+    </row>
+    <row r="78" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="178"/>
+    </row>
+    <row r="79" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D79" s="178"/>
+    </row>
+    <row r="80" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="178"/>
+    </row>
+    <row r="81" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D81" s="178"/>
+    </row>
+    <row r="82" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D82" s="178"/>
+    </row>
+    <row r="83" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D83" s="178"/>
+    </row>
+    <row r="84" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D84" s="178"/>
+    </row>
+    <row r="85" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D85" s="178"/>
+    </row>
+    <row r="86" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D86" s="178"/>
+    </row>
+    <row r="87" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D87" s="178"/>
+    </row>
+    <row r="88" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D88" s="178"/>
+    </row>
+    <row r="89" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D89" s="178"/>
+    </row>
+    <row r="90" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D90" s="178"/>
+    </row>
+    <row r="91" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D91" s="178"/>
+    </row>
+    <row r="92" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D92" s="178"/>
+    </row>
+    <row r="93" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D93" s="178"/>
+    </row>
+    <row r="94" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D94" s="178"/>
+    </row>
+    <row r="95" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D95" s="178"/>
+    </row>
+    <row r="96" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D96" s="178"/>
+    </row>
+    <row r="97" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D97" s="178"/>
+    </row>
+    <row r="98" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D98" s="178"/>
+    </row>
+    <row r="99" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D99" s="178"/>
+    </row>
+    <row r="100" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D100" s="178"/>
+    </row>
+    <row r="101" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D101" s="178"/>
+    </row>
+    <row r="102" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D102" s="178"/>
+    </row>
+    <row r="103" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D103" s="178"/>
+    </row>
+    <row r="104" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D104" s="178"/>
+    </row>
+    <row r="105" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D105" s="178"/>
+    </row>
+    <row r="106" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D106" s="178"/>
+    </row>
+    <row r="107" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D107" s="178"/>
+    </row>
+    <row r="108" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D108" s="178"/>
+    </row>
+    <row r="109" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D109" s="178"/>
+    </row>
+    <row r="110" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D110" s="178"/>
+    </row>
+    <row r="111" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D111" s="178"/>
+    </row>
+    <row r="112" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D112" s="178"/>
+    </row>
+    <row r="113" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D113" s="178"/>
+    </row>
+    <row r="114" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D114" s="178"/>
+    </row>
+    <row r="115" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D115" s="178"/>
+    </row>
+    <row r="116" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D116" s="178"/>
+    </row>
+    <row r="117" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D117" s="178"/>
+    </row>
+    <row r="118" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D118" s="178"/>
+    </row>
+    <row r="119" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D119" s="178"/>
+    </row>
+    <row r="120" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D120" s="178"/>
+    </row>
+    <row r="121" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D121" s="178"/>
+    </row>
+    <row r="122" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D122" s="178"/>
+    </row>
+    <row r="123" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D123" s="178"/>
+    </row>
+    <row r="124" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D124" s="178"/>
+    </row>
+    <row r="125" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D125" s="178"/>
+    </row>
+    <row r="126" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D126" s="178"/>
+    </row>
+    <row r="127" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D127" s="178"/>
+    </row>
+    <row r="128" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D128" s="178"/>
+    </row>
+    <row r="129" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D129" s="178"/>
+    </row>
+    <row r="130" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D130" s="178"/>
+    </row>
+    <row r="131" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D131" s="178"/>
+    </row>
+    <row r="132" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D132" s="178"/>
+    </row>
+    <row r="133" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D133" s="178"/>
+    </row>
+    <row r="134" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D134" s="178"/>
+    </row>
+    <row r="135" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D135" s="178"/>
+    </row>
+    <row r="136" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D136" s="178"/>
+    </row>
+    <row r="137" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D137" s="178"/>
+    </row>
+    <row r="138" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D138" s="178"/>
+    </row>
+    <row r="139" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D139" s="178"/>
+    </row>
+    <row r="140" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D140" s="178"/>
+    </row>
+    <row r="141" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D141" s="178"/>
+    </row>
+    <row r="142" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D142" s="178"/>
+    </row>
+    <row r="143" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D143" s="178"/>
+    </row>
+    <row r="144" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D144" s="178"/>
+    </row>
+    <row r="145" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D145" s="178"/>
+    </row>
+    <row r="146" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D146" s="178"/>
+    </row>
+    <row r="147" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D147" s="178"/>
+    </row>
+    <row r="148" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D148" s="178"/>
+    </row>
+    <row r="149" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D149" s="178"/>
+    </row>
+    <row r="150" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D150" s="178"/>
+    </row>
+    <row r="151" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D151" s="178"/>
+    </row>
+    <row r="152" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D152" s="178"/>
+    </row>
+    <row r="153" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D153" s="178"/>
+    </row>
+    <row r="154" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D154" s="178"/>
+    </row>
+    <row r="155" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D155" s="178"/>
+    </row>
+    <row r="156" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D156" s="178"/>
+    </row>
+    <row r="157" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D157" s="178"/>
+    </row>
+    <row r="158" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D158" s="178"/>
+    </row>
+    <row r="159" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D159" s="178"/>
+    </row>
+    <row r="160" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D160" s="178"/>
+    </row>
+    <row r="161" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D161" s="178"/>
+    </row>
+    <row r="162" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D162" s="178"/>
+    </row>
+    <row r="163" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D163" s="178"/>
+    </row>
+    <row r="164" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D164" s="178"/>
+    </row>
+    <row r="165" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D165" s="178"/>
+    </row>
+    <row r="166" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D166" s="178"/>
+    </row>
+    <row r="167" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D167" s="178"/>
+    </row>
+    <row r="168" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D168" s="178"/>
+    </row>
+    <row r="169" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D169" s="178"/>
+    </row>
+    <row r="170" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D170" s="178"/>
+    </row>
+    <row r="171" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D171" s="178"/>
+    </row>
+    <row r="172" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D172" s="178"/>
+    </row>
+    <row r="173" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D173" s="178"/>
+    </row>
+    <row r="174" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D174" s="178"/>
+    </row>
+    <row r="175" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D175" s="178"/>
+    </row>
+    <row r="176" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D176" s="178"/>
+    </row>
+    <row r="177" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D177" s="178"/>
+    </row>
+    <row r="178" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D178" s="178"/>
+    </row>
+    <row r="179" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D179" s="178"/>
+    </row>
+    <row r="180" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D180" s="178"/>
+    </row>
+    <row r="181" spans="4:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D181" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9594,23 +9682,23 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="22" customWidth="1"/>
-    <col min="3" max="6" width="15.5703125" style="86" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="86"/>
+    <col min="1" max="1" width="3.6640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="22" customWidth="1"/>
+    <col min="3" max="6" width="15.5546875" style="84" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="73" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="23"/>
     </row>
-    <row r="8" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
       <c r="C8" s="26"/>
@@ -9618,7 +9706,7 @@
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
     </row>
-    <row r="9" spans="1:8" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" s="45" t="s">
         <v>20</v>
@@ -9638,7 +9726,7 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" s="47" t="s">
         <v>137</v>
@@ -9652,13 +9740,13 @@
       <c r="E10" s="48">
         <v>20000</v>
       </c>
-      <c r="F10" s="187">
+      <c r="F10" s="185">
         <v>45.1</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="49" t="s">
         <v>138</v>
@@ -9672,13 +9760,13 @@
       <c r="E11" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="187">
+      <c r="F11" s="185">
         <v>32.4</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="44"/>
       <c r="C12" s="26"/>
@@ -9688,7 +9776,7 @@
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="51" t="s">
         <v>140</v>
@@ -9704,7 +9792,7 @@
       </c>
       <c r="F13" s="27"/>
     </row>
-    <row r="14" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="54" t="s">
         <v>144</v>
@@ -9720,7 +9808,7 @@
       </c>
       <c r="F14" s="27"/>
     </row>
-    <row r="15" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="54" t="s">
         <v>145</v>
@@ -9736,7 +9824,7 @@
       </c>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="44"/>
       <c r="C16" s="26"/>
@@ -9744,7 +9832,7 @@
       <c r="E16" s="26"/>
       <c r="F16" s="27"/>
     </row>
-    <row r="17" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -9754,7 +9842,7 @@
       <c r="G17"/>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -9763,7 +9851,7 @@
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -9772,7 +9860,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -9781,7 +9869,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -9790,7 +9878,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -9799,7 +9887,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -9808,7 +9896,7 @@
       <c r="G23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -9846,305 +9934,305 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="86" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="86" customWidth="1"/>
-    <col min="4" max="12" width="8" style="86" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="86" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="86"/>
+    <col min="1" max="1" width="2.88671875" style="84" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="84" customWidth="1"/>
+    <col min="4" max="12" width="8" style="84" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="84" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="2:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="73" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="260" t="s">
+      <c r="C2" s="257" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="260"/>
-      <c r="E2" s="261" t="s">
+      <c r="D2" s="257"/>
+      <c r="E2" s="258" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="261"/>
-      <c r="G2" s="262" t="s">
+      <c r="F2" s="258"/>
+      <c r="G2" s="259" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="263"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="261" t="s">
+      <c r="H2" s="260"/>
+      <c r="I2" s="261"/>
+      <c r="J2" s="258" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="261"/>
-      <c r="L2" s="261"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="258"/>
       <c r="M2" s="56"/>
     </row>
-    <row r="3" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="120" t="s">
+      <c r="G3" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="120" t="s">
+      <c r="H3" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="120" t="s">
+      <c r="I3" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="121" t="s">
+      <c r="J3" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="121" t="s">
+      <c r="K3" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="121" t="s">
+      <c r="L3" s="119" t="s">
         <v>48</v>
       </c>
       <c r="M3" s="56"/>
     </row>
-    <row r="4" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="120">
+      <c r="C4" s="118">
         <v>0.3</v>
       </c>
-      <c r="D4" s="120">
+      <c r="D4" s="118">
         <v>0.8</v>
       </c>
-      <c r="E4" s="121">
+      <c r="E4" s="119">
         <v>0</v>
       </c>
-      <c r="F4" s="121">
+      <c r="F4" s="119">
         <v>0.2</v>
       </c>
-      <c r="G4" s="120">
+      <c r="G4" s="118">
         <v>0.6</v>
       </c>
-      <c r="H4" s="120">
+      <c r="H4" s="118">
         <v>0.4</v>
       </c>
-      <c r="I4" s="120">
+      <c r="I4" s="118">
         <v>0.6</v>
       </c>
-      <c r="J4" s="121">
+      <c r="J4" s="119">
         <v>1.2</v>
       </c>
-      <c r="K4" s="121">
+      <c r="K4" s="119">
         <v>0.6</v>
       </c>
-      <c r="L4" s="121">
+      <c r="L4" s="119">
         <v>0.7</v>
       </c>
       <c r="M4" s="56"/>
     </row>
-    <row r="5" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="120">
+      <c r="C5" s="118">
         <v>0</v>
       </c>
-      <c r="D5" s="120">
+      <c r="D5" s="118">
         <v>0.3</v>
       </c>
-      <c r="E5" s="121">
+      <c r="E5" s="119">
         <v>0.4</v>
       </c>
-      <c r="F5" s="121">
+      <c r="F5" s="119">
         <v>0.4</v>
       </c>
-      <c r="G5" s="120">
+      <c r="G5" s="118">
         <v>0.8</v>
       </c>
-      <c r="H5" s="120">
+      <c r="H5" s="118">
         <v>0.7</v>
       </c>
-      <c r="I5" s="120">
+      <c r="I5" s="118">
         <v>0</v>
       </c>
-      <c r="J5" s="121">
+      <c r="J5" s="119">
         <v>0.4</v>
       </c>
-      <c r="K5" s="121">
+      <c r="K5" s="119">
         <v>1.4</v>
       </c>
-      <c r="L5" s="121">
+      <c r="L5" s="119">
         <v>0</v>
       </c>
       <c r="M5" s="56"/>
     </row>
-    <row r="6" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="120">
+      <c r="C6" s="118">
         <v>0.5</v>
       </c>
-      <c r="D6" s="120">
+      <c r="D6" s="118">
         <v>0.4</v>
       </c>
-      <c r="E6" s="121">
+      <c r="E6" s="119">
         <v>0.6</v>
       </c>
-      <c r="F6" s="121">
+      <c r="F6" s="119">
         <v>0.5</v>
       </c>
-      <c r="G6" s="120">
+      <c r="G6" s="118">
         <v>0.3</v>
       </c>
-      <c r="H6" s="120">
+      <c r="H6" s="118">
         <v>1.2</v>
       </c>
-      <c r="I6" s="120">
+      <c r="I6" s="118">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J6" s="121">
+      <c r="J6" s="119">
         <v>0.8</v>
       </c>
-      <c r="K6" s="121">
+      <c r="K6" s="119">
         <v>0</v>
       </c>
-      <c r="L6" s="121">
+      <c r="L6" s="119">
         <v>1.5</v>
       </c>
       <c r="M6" s="56"/>
     </row>
-    <row r="7" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="120">
+      <c r="C7" s="118">
         <v>0.4</v>
       </c>
-      <c r="D7" s="120">
+      <c r="D7" s="118">
         <v>0.2</v>
       </c>
-      <c r="E7" s="121">
+      <c r="E7" s="119">
         <v>0.3</v>
       </c>
-      <c r="F7" s="121">
+      <c r="F7" s="119">
         <v>0.4</v>
       </c>
-      <c r="G7" s="120">
+      <c r="G7" s="118">
         <v>0.4</v>
       </c>
-      <c r="H7" s="120">
+      <c r="H7" s="118">
         <v>0.3</v>
       </c>
-      <c r="I7" s="120">
+      <c r="I7" s="118">
         <v>0.6</v>
       </c>
-      <c r="J7" s="121">
+      <c r="J7" s="119">
         <v>0.3</v>
       </c>
-      <c r="K7" s="121">
+      <c r="K7" s="119">
         <v>0.5</v>
       </c>
-      <c r="L7" s="121">
+      <c r="L7" s="119">
         <v>0.4</v>
       </c>
       <c r="M7" s="56"/>
     </row>
-    <row r="8" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="254"/>
-      <c r="D8" s="255"/>
-      <c r="E8" s="256">
+      <c r="C8" s="251"/>
+      <c r="D8" s="252"/>
+      <c r="E8" s="253">
         <v>120</v>
       </c>
-      <c r="F8" s="257"/>
-      <c r="G8" s="254">
+      <c r="F8" s="254"/>
+      <c r="G8" s="251">
         <v>120</v>
       </c>
-      <c r="H8" s="258"/>
-      <c r="I8" s="255"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
+      <c r="H8" s="255"/>
+      <c r="I8" s="252"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
       <c r="M8" s="56"/>
     </row>
-    <row r="9" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="254">
+      <c r="C9" s="251">
         <v>15</v>
       </c>
-      <c r="D9" s="255"/>
-      <c r="E9" s="256">
+      <c r="D9" s="252"/>
+      <c r="E9" s="253">
         <v>25</v>
       </c>
-      <c r="F9" s="257"/>
-      <c r="G9" s="254">
+      <c r="F9" s="254"/>
+      <c r="G9" s="251">
         <v>35</v>
       </c>
-      <c r="H9" s="258"/>
-      <c r="I9" s="255"/>
-      <c r="J9" s="256">
+      <c r="H9" s="255"/>
+      <c r="I9" s="252"/>
+      <c r="J9" s="253">
         <v>20</v>
       </c>
-      <c r="K9" s="259"/>
-      <c r="L9" s="257"/>
+      <c r="K9" s="256"/>
+      <c r="L9" s="254"/>
       <c r="M9" s="56"/>
     </row>
-    <row r="10" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="86">
+      <c r="C10" s="84">
         <v>15</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="84">
         <v>15</v>
       </c>
-      <c r="E10" s="86">
+      <c r="E10" s="84">
         <v>25</v>
       </c>
-      <c r="F10" s="86">
+      <c r="F10" s="84">
         <v>25</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="84">
         <v>35</v>
       </c>
-      <c r="H10" s="86">
+      <c r="H10" s="84">
         <v>35</v>
       </c>
-      <c r="I10" s="86">
+      <c r="I10" s="84">
         <v>35</v>
       </c>
-      <c r="J10" s="86">
+      <c r="J10" s="84">
         <v>20</v>
       </c>
-      <c r="K10" s="86">
+      <c r="K10" s="84">
         <v>20</v>
       </c>
-      <c r="L10" s="86">
+      <c r="L10" s="84">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -10162,7 +10250,7 @@
       <c r="P12"/>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -10180,7 +10268,7 @@
       <c r="P13"/>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -10198,7 +10286,7 @@
       <c r="P14"/>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -10216,7 +10304,7 @@
       <c r="P15"/>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -10234,7 +10322,7 @@
       <c r="P16"/>
       <c r="Q16"/>
     </row>
-    <row r="17" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -10252,7 +10340,7 @@
       <c r="P17"/>
       <c r="Q17"/>
     </row>
-    <row r="18" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -10270,7 +10358,7 @@
       <c r="P18"/>
       <c r="Q18"/>
     </row>
-    <row r="19" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -10288,7 +10376,7 @@
       <c r="P19"/>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -10306,7 +10394,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -10324,7 +10412,7 @@
       <c r="P21"/>
       <c r="Q21"/>
     </row>
-    <row r="22" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -10342,7 +10430,7 @@
       <c r="P22"/>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -10360,7 +10448,7 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -10378,7 +10466,7 @@
       <c r="P24"/>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -10396,7 +10484,7 @@
       <c r="P25"/>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -10414,7 +10502,7 @@
       <c r="P26"/>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -10432,7 +10520,7 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -10450,7 +10538,7 @@
       <c r="P28"/>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -10468,7 +10556,7 @@
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="2:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -10516,26 +10604,28 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="123" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="122"/>
-    <col min="3" max="3" width="11.85546875" style="122" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="122"/>
-    <col min="6" max="6" width="12.5703125" style="122" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="122" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="122"/>
-    <col min="10" max="16384" width="9.140625" style="123"/>
+    <col min="1" max="1" width="12.33203125" style="121" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="120"/>
+    <col min="3" max="3" width="11.88671875" style="120" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" style="120"/>
+    <col min="6" max="6" width="12.5546875" style="120" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="120" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" style="120"/>
+    <col min="10" max="16384" width="9.109375" style="121"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -10546,7 +10636,7 @@
       <c r="H2"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -10557,7 +10647,7 @@
       <c r="H3"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4" t="s">
         <v>275</v>
@@ -10570,14 +10660,14 @@
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5"/>
-      <c r="C5" s="208"/>
-      <c r="D5" s="209" t="s">
+      <c r="C5" s="205"/>
+      <c r="D5" s="206" t="s">
         <v>272</v>
       </c>
-      <c r="E5" s="209" t="s">
+      <c r="E5" s="206" t="s">
         <v>273</v>
       </c>
       <c r="F5"/>
@@ -10585,16 +10675,16 @@
       <c r="H5"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6"/>
-      <c r="C6" s="219">
+      <c r="C6" s="216">
         <v>44095</v>
       </c>
-      <c r="D6" s="218">
+      <c r="D6" s="215">
         <v>17</v>
       </c>
-      <c r="E6" s="218">
+      <c r="E6" s="215">
         <v>18.5</v>
       </c>
       <c r="F6"/>
@@ -10602,17 +10692,17 @@
       <c r="H6"/>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7"/>
-      <c r="C7" s="219">
+      <c r="C7" s="216">
         <v>44099</v>
       </c>
-      <c r="D7" s="208">
+      <c r="D7" s="205">
         <f>$D$6+(C7-C$6)*0.25</f>
         <v>18</v>
       </c>
-      <c r="E7" s="208">
+      <c r="E7" s="205">
         <f>E$6+(C7-C$6)*0.25</f>
         <v>19.5</v>
       </c>
@@ -10621,17 +10711,17 @@
       <c r="H7"/>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8"/>
-      <c r="C8" s="219">
+      <c r="C8" s="216">
         <v>44101</v>
       </c>
-      <c r="D8" s="208">
+      <c r="D8" s="205">
         <f>$D$6+(C8-C$6)*0.25</f>
         <v>18.5</v>
       </c>
-      <c r="E8" s="208">
+      <c r="E8" s="205">
         <f>E$6+(C8-C$6)*0.25</f>
         <v>20</v>
       </c>
@@ -10640,7 +10730,7 @@
       <c r="H8"/>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -10651,7 +10741,7 @@
       <c r="H9"/>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>274</v>
@@ -10664,14 +10754,14 @@
       <c r="H10"/>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
-      <c r="C11" s="208"/>
-      <c r="D11" s="209" t="s">
+      <c r="C11" s="205"/>
+      <c r="D11" s="206" t="s">
         <v>272</v>
       </c>
-      <c r="E11" s="209" t="s">
+      <c r="E11" s="206" t="s">
         <v>273</v>
       </c>
       <c r="F11"/>
@@ -10679,17 +10769,17 @@
       <c r="H11"/>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>44095</v>
       </c>
-      <c r="D12" s="220">
+      <c r="D12" s="217">
         <f>0.42+D6*0.02</f>
         <v>0.76</v>
       </c>
-      <c r="E12" s="220">
+      <c r="E12" s="217">
         <f>0.4+E6*0.02</f>
         <v>0.77</v>
       </c>
@@ -10698,17 +10788,17 @@
       <c r="H12"/>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
-      <c r="C13" s="219">
+      <c r="C13" s="216">
         <v>44099</v>
       </c>
-      <c r="D13" s="220">
+      <c r="D13" s="217">
         <f t="shared" ref="D13:D14" si="0">0.42+D7*0.02</f>
         <v>0.78</v>
       </c>
-      <c r="E13" s="220">
+      <c r="E13" s="217">
         <f t="shared" ref="E13:E14" si="1">0.4+E7*0.02</f>
         <v>0.79</v>
       </c>
@@ -10717,17 +10807,17 @@
       <c r="H13"/>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>44101</v>
       </c>
-      <c r="D14" s="220">
+      <c r="D14" s="217">
         <f t="shared" si="0"/>
         <v>0.79</v>
       </c>
-      <c r="E14" s="220">
+      <c r="E14" s="217">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -10736,7 +10826,7 @@
       <c r="H14"/>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -10747,111 +10837,111 @@
       <c r="H15"/>
       <c r="I15"/>
     </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="207" t="s">
+    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="204" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="208"/>
-      <c r="D18" s="209" t="s">
+    <row r="18" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="205"/>
+      <c r="D18" s="206" t="s">
         <v>272</v>
       </c>
-      <c r="E18" s="209" t="s">
+      <c r="E18" s="206" t="s">
         <v>273</v>
       </c>
-      <c r="F18" s="222" t="s">
+      <c r="F18" s="219" t="s">
         <v>277</v>
       </c>
-      <c r="G18" s="222" t="s">
+      <c r="G18" s="219" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="219">
+    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="216">
         <v>44095</v>
       </c>
-      <c r="D19" s="210">
+      <c r="D19" s="207">
         <v>1100</v>
       </c>
-      <c r="E19" s="211">
+      <c r="E19" s="208">
         <v>0</v>
       </c>
-      <c r="F19" s="122">
+      <c r="F19" s="120">
         <f>SUM(D19:E19)</f>
         <v>1100</v>
       </c>
-      <c r="G19" s="122">
+      <c r="G19" s="120">
         <v>1500</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="219">
+    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="216">
         <v>44099</v>
       </c>
-      <c r="D20" s="212">
+      <c r="D20" s="209">
         <v>700</v>
       </c>
-      <c r="E20" s="213">
+      <c r="E20" s="210">
         <v>400</v>
       </c>
-      <c r="F20" s="122">
+      <c r="F20" s="120">
         <f t="shared" ref="F20:F21" si="2">SUM(D20:E20)</f>
         <v>1100</v>
       </c>
-      <c r="G20" s="122">
+      <c r="G20" s="120">
         <v>1100</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="219">
+    <row r="21" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="216">
         <v>44101</v>
       </c>
-      <c r="D21" s="214">
+      <c r="D21" s="211">
         <v>0</v>
       </c>
-      <c r="E21" s="215">
+      <c r="E21" s="212">
         <v>800</v>
       </c>
-      <c r="F21" s="122">
+      <c r="F21" s="120">
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="G21" s="122">
+      <c r="G21" s="120">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="221" t="s">
+    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="218" t="s">
         <v>276</v>
       </c>
-      <c r="D22" s="122">
+      <c r="D22" s="120">
         <f>SUM(D19:D21)</f>
         <v>1800</v>
       </c>
-      <c r="E22" s="122">
+      <c r="E22" s="120">
         <f>SUM(E19:E21)</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="221" t="s">
+    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="218" t="s">
         <v>255</v>
       </c>
-      <c r="D23" s="122">
+      <c r="D23" s="120">
         <v>1800</v>
       </c>
-      <c r="E23" s="122">
+      <c r="E23" s="120">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="216"/>
-      <c r="C25" s="216" t="s">
+    <row r="24" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="213"/>
+      <c r="C25" s="213" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="217">
+      <c r="D25" s="214">
         <f>SUMPRODUCT(D19:E21,D12:E14)</f>
         <v>2338</v>
       </c>
@@ -10881,32 +10971,32 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="7" width="8.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="2"/>
-    <col min="9" max="10" width="7.5703125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="12.7109375" style="2"/>
+    <col min="2" max="7" width="8.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="2"/>
+    <col min="9" max="10" width="7.5546875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="265" t="s">
+      <c r="B2" s="262" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="266"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="263"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -10929,99 +11019,99 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="77">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="77">
         <v>4.22</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="77">
         <v>4.2</v>
       </c>
-      <c r="E4" s="79">
+      <c r="E4" s="77">
         <v>3.95</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="77">
         <v>4.28</v>
       </c>
-      <c r="G4" s="80">
+      <c r="G4" s="78">
         <v>4.16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B5" s="79">
+      <c r="B5" s="77">
         <v>3.78</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="77">
         <v>3.71</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="77">
         <v>3.71</v>
       </c>
-      <c r="E5" s="79">
+      <c r="E5" s="77">
         <v>3.67</v>
       </c>
-      <c r="F5" s="79">
+      <c r="F5" s="77">
         <v>3.81</v>
       </c>
-      <c r="G5" s="80">
+      <c r="G5" s="78">
         <v>3.76</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B6" s="79">
+      <c r="B6" s="77">
         <v>3.94</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="77">
         <v>3.9</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="77">
         <v>3.95</v>
       </c>
-      <c r="E6" s="79">
+      <c r="E6" s="77">
         <v>3.87</v>
       </c>
-      <c r="F6" s="79">
+      <c r="F6" s="77">
         <v>4.01</v>
       </c>
-      <c r="G6" s="80">
+      <c r="G6" s="78">
         <v>3.92</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="188" t="s">
+    <row r="7" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="186" t="s">
         <v>228</v>
       </c>
-      <c r="B7" s="81">
+      <c r="B7" s="79">
         <v>4.03</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="79">
         <v>4.0599999999999996</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="79">
         <v>4.1399999999999997</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="79">
         <v>4</v>
       </c>
-      <c r="F7" s="81">
+      <c r="F7" s="79">
         <v>4.05</v>
       </c>
-      <c r="G7" s="82">
+      <c r="G7" s="80">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -11033,7 +11123,7 @@
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -11045,7 +11135,7 @@
       <c r="I10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -11057,7 +11147,7 @@
       <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -11069,7 +11159,7 @@
       <c r="I12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -11081,7 +11171,7 @@
       <c r="I13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -11093,7 +11183,7 @@
       <c r="I14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -11105,7 +11195,7 @@
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -11117,7 +11207,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -11129,7 +11219,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -11141,7 +11231,7 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -11153,7 +11243,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -11165,7 +11255,7 @@
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -11177,7 +11267,7 @@
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -11189,7 +11279,7 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -11225,429 +11315,429 @@
       <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="125" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="125" customWidth="1"/>
-    <col min="3" max="8" width="6.28515625" style="125" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="138" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="138" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="138"/>
-    <col min="12" max="16384" width="9.140625" style="125"/>
+    <col min="1" max="1" width="4.109375" style="123" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="123" customWidth="1"/>
+    <col min="3" max="8" width="6.33203125" style="123" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" style="136" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="136" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="136"/>
+    <col min="12" max="16384" width="9.109375" style="123"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="122"/>
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="120"/>
+      <c r="B1" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="122"/>
-      <c r="B2" s="124" t="s">
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="120"/>
+      <c r="B2" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
       <c r="I2"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="120"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
       <c r="I3"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="122"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="128" t="s">
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="120"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="128" t="s">
+      <c r="E4" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="128" t="s">
+      <c r="F4" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="128" t="s">
+      <c r="G4" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="128" t="s">
+      <c r="H4" s="126" t="s">
         <v>56</v>
       </c>
       <c r="I4"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="122"/>
-      <c r="B5" s="129" t="s">
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="120"/>
+      <c r="B5" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="130">
+      <c r="C5" s="128">
         <v>6</v>
       </c>
-      <c r="D5" s="130">
+      <c r="D5" s="128">
         <v>1</v>
       </c>
-      <c r="E5" s="130">
+      <c r="E5" s="128">
         <v>3</v>
       </c>
-      <c r="F5" s="130">
+      <c r="F5" s="128">
         <v>5</v>
       </c>
-      <c r="G5" s="130">
+      <c r="G5" s="128">
         <v>2</v>
       </c>
-      <c r="H5" s="130">
+      <c r="H5" s="128">
         <v>4</v>
       </c>
       <c r="I5"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
-      <c r="B6" s="131" t="s">
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="120"/>
+      <c r="B6" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="132">
+      <c r="C6" s="130">
         <v>3</v>
       </c>
-      <c r="D6" s="132">
+      <c r="D6" s="130">
         <v>5</v>
       </c>
-      <c r="E6" s="132">
+      <c r="E6" s="130">
         <v>2</v>
       </c>
-      <c r="F6" s="132">
+      <c r="F6" s="130">
         <v>1</v>
       </c>
-      <c r="G6" s="132">
+      <c r="G6" s="130">
         <v>6</v>
       </c>
-      <c r="H6" s="132">
+      <c r="H6" s="130">
         <v>4</v>
       </c>
       <c r="I6"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="133" t="s">
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="120"/>
+      <c r="B7" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="134">
+      <c r="C7" s="132">
         <v>2</v>
       </c>
-      <c r="D7" s="135">
+      <c r="D7" s="133">
         <v>1</v>
       </c>
-      <c r="E7" s="135">
+      <c r="E7" s="133">
         <v>5</v>
       </c>
-      <c r="F7" s="135">
+      <c r="F7" s="133">
         <v>3</v>
       </c>
-      <c r="G7" s="135">
+      <c r="G7" s="133">
         <v>4</v>
       </c>
-      <c r="H7" s="135">
+      <c r="H7" s="133">
         <v>6</v>
       </c>
       <c r="I7"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="122"/>
-      <c r="B8" s="131" t="s">
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="120"/>
+      <c r="B8" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="132">
+      <c r="C8" s="130">
         <v>6</v>
       </c>
-      <c r="D8" s="132">
+      <c r="D8" s="130">
         <v>3</v>
       </c>
-      <c r="E8" s="132">
+      <c r="E8" s="130">
         <v>1</v>
       </c>
-      <c r="F8" s="132">
+      <c r="F8" s="130">
         <v>4</v>
       </c>
-      <c r="G8" s="132">
+      <c r="G8" s="130">
         <v>5</v>
       </c>
-      <c r="H8" s="132">
+      <c r="H8" s="130">
         <v>2</v>
       </c>
       <c r="I8"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
-      <c r="B9" s="133" t="s">
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="120"/>
+      <c r="B9" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="134">
+      <c r="C9" s="132">
         <v>3</v>
       </c>
-      <c r="D9" s="135">
+      <c r="D9" s="133">
         <v>4</v>
       </c>
-      <c r="E9" s="135">
+      <c r="E9" s="133">
         <v>1</v>
       </c>
-      <c r="F9" s="135">
+      <c r="F9" s="133">
         <v>5</v>
       </c>
-      <c r="G9" s="135">
+      <c r="G9" s="133">
         <v>6</v>
       </c>
-      <c r="H9" s="135">
+      <c r="H9" s="133">
         <v>2</v>
       </c>
       <c r="I9"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="122"/>
-      <c r="B10" s="131" t="s">
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="120"/>
+      <c r="B10" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="132">
+      <c r="C10" s="130">
         <v>5</v>
       </c>
-      <c r="D10" s="132">
+      <c r="D10" s="130">
         <v>2</v>
       </c>
-      <c r="E10" s="132">
+      <c r="E10" s="130">
         <v>4</v>
       </c>
-      <c r="F10" s="132">
+      <c r="F10" s="130">
         <v>1</v>
       </c>
-      <c r="G10" s="132">
+      <c r="G10" s="130">
         <v>6</v>
       </c>
-      <c r="H10" s="132">
+      <c r="H10" s="130">
         <v>3</v>
       </c>
       <c r="I10"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
-      <c r="B11" s="133" t="s">
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="120"/>
+      <c r="B11" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="134">
+      <c r="C11" s="132">
         <v>6</v>
       </c>
-      <c r="D11" s="135">
+      <c r="D11" s="133">
         <v>3</v>
       </c>
-      <c r="E11" s="135">
+      <c r="E11" s="133">
         <v>1</v>
       </c>
-      <c r="F11" s="135">
+      <c r="F11" s="133">
         <v>5</v>
       </c>
-      <c r="G11" s="135">
+      <c r="G11" s="133">
         <v>2</v>
       </c>
-      <c r="H11" s="135">
+      <c r="H11" s="133">
         <v>4</v>
       </c>
       <c r="I11"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
-      <c r="B12" s="131" t="s">
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="120"/>
+      <c r="B12" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="132">
+      <c r="C12" s="130">
         <v>1</v>
       </c>
-      <c r="D12" s="132">
+      <c r="D12" s="130">
         <v>4</v>
       </c>
-      <c r="E12" s="132">
+      <c r="E12" s="130">
         <v>6</v>
       </c>
-      <c r="F12" s="132">
+      <c r="F12" s="130">
         <v>3</v>
       </c>
-      <c r="G12" s="132">
+      <c r="G12" s="130">
         <v>2</v>
       </c>
-      <c r="H12" s="132">
+      <c r="H12" s="130">
         <v>5</v>
       </c>
       <c r="I12"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="122"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
-      <c r="B13" s="133" t="s">
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="120"/>
+      <c r="B13" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="134">
+      <c r="C13" s="132">
         <v>4</v>
       </c>
-      <c r="D13" s="135">
+      <c r="D13" s="133">
         <v>6</v>
       </c>
-      <c r="E13" s="135">
+      <c r="E13" s="133">
         <v>1</v>
       </c>
-      <c r="F13" s="135">
+      <c r="F13" s="133">
         <v>3</v>
       </c>
-      <c r="G13" s="135">
+      <c r="G13" s="133">
         <v>5</v>
       </c>
-      <c r="H13" s="135">
+      <c r="H13" s="133">
         <v>2</v>
       </c>
       <c r="I13"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="122"/>
-      <c r="B14" s="131" t="s">
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="120"/>
+      <c r="B14" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="132">
+      <c r="C14" s="130">
         <v>5</v>
       </c>
-      <c r="D14" s="132">
+      <c r="D14" s="130">
         <v>3</v>
       </c>
-      <c r="E14" s="132">
+      <c r="E14" s="130">
         <v>6</v>
       </c>
-      <c r="F14" s="132">
+      <c r="F14" s="130">
         <v>2</v>
       </c>
-      <c r="G14" s="132">
+      <c r="G14" s="130">
         <v>1</v>
       </c>
-      <c r="H14" s="132">
+      <c r="H14" s="130">
         <v>4</v>
       </c>
       <c r="I14"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="122"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="122"/>
-      <c r="B15" s="133" t="s">
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="120"/>
+      <c r="B15" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="134">
+      <c r="C15" s="132">
         <v>6</v>
       </c>
-      <c r="D15" s="135">
+      <c r="D15" s="133">
         <v>2</v>
       </c>
-      <c r="E15" s="135">
+      <c r="E15" s="133">
         <v>1</v>
       </c>
-      <c r="F15" s="135">
+      <c r="F15" s="133">
         <v>5</v>
       </c>
-      <c r="G15" s="135">
+      <c r="G15" s="133">
         <v>3</v>
       </c>
-      <c r="H15" s="135">
+      <c r="H15" s="133">
         <v>4</v>
       </c>
       <c r="I15"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="122"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="122"/>
-      <c r="B16" s="136" t="s">
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="120"/>
+      <c r="B16" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="137">
+      <c r="C16" s="135">
         <v>5</v>
       </c>
-      <c r="D16" s="137">
+      <c r="D16" s="135">
         <v>6</v>
       </c>
-      <c r="E16" s="137">
+      <c r="E16" s="135">
         <v>3</v>
       </c>
-      <c r="F16" s="137">
+      <c r="F16" s="135">
         <v>2</v>
       </c>
-      <c r="G16" s="137">
+      <c r="G16" s="135">
         <v>4</v>
       </c>
-      <c r="H16" s="137">
+      <c r="H16" s="135">
         <v>1</v>
       </c>
       <c r="I16"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I17"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -11659,7 +11749,7 @@
       <c r="J18"/>
       <c r="K18"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -11671,7 +11761,7 @@
       <c r="J19"/>
       <c r="K19"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -11683,7 +11773,7 @@
       <c r="J20"/>
       <c r="K20"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -11695,7 +11785,7 @@
       <c r="J21"/>
       <c r="K21"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -11707,7 +11797,7 @@
       <c r="J22"/>
       <c r="K22"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -11719,7 +11809,7 @@
       <c r="J23"/>
       <c r="K23"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -11731,7 +11821,7 @@
       <c r="J24"/>
       <c r="K24"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -11743,7 +11833,7 @@
       <c r="J25"/>
       <c r="K25"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -11755,7 +11845,7 @@
       <c r="J26"/>
       <c r="K26"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -11767,7 +11857,7 @@
       <c r="J27"/>
       <c r="K27"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -11779,7 +11869,7 @@
       <c r="J28"/>
       <c r="K28"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -11791,7 +11881,7 @@
       <c r="J29"/>
       <c r="K29"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -11803,7 +11893,7 @@
       <c r="J30"/>
       <c r="K30"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -11815,7 +11905,7 @@
       <c r="J31"/>
       <c r="K31"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -11827,7 +11917,7 @@
       <c r="J32"/>
       <c r="K32"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -11839,7 +11929,7 @@
       <c r="J33"/>
       <c r="K33"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -11851,7 +11941,7 @@
       <c r="J34"/>
       <c r="K34"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
@@ -11863,7 +11953,7 @@
       <c r="J35"/>
       <c r="K35"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
@@ -11875,7 +11965,7 @@
       <c r="J36"/>
       <c r="K36"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -11905,41 +11995,41 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="8" customWidth="1"/>
-    <col min="2" max="4" width="14.42578125" style="8" customWidth="1"/>
-    <col min="5" max="13" width="13.7109375" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="13.109375" style="8" customWidth="1"/>
+    <col min="2" max="4" width="14.44140625" style="8" customWidth="1"/>
+    <col min="5" max="13" width="13.6640625" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="139" t="s">
+    <row r="1" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="137" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-    </row>
-    <row r="2" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="141" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+    </row>
+    <row r="2" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="139" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="139" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="139" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>92</v>
       </c>
@@ -11953,7 +12043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>93</v>
       </c>
@@ -11967,7 +12057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
         <v>94</v>
       </c>
@@ -11981,7 +12071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>95</v>
       </c>
@@ -11995,7 +12085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>96</v>
       </c>
@@ -12009,7 +12099,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>97</v>
       </c>
@@ -12023,7 +12113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>98</v>
       </c>
@@ -12037,7 +12127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>99</v>
       </c>
@@ -12051,33 +12141,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="142" t="s">
+    <row r="11" spans="1:5" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="142">
+      <c r="B11" s="140">
         <v>12</v>
       </c>
-      <c r="C11" s="142">
+      <c r="C11" s="140">
         <v>18</v>
       </c>
-      <c r="D11" s="142">
+      <c r="D11" s="140">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15"/>
       <c r="E15"/>
     </row>
@@ -12100,23 +12190,23 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
     <col min="3" max="6" width="12" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.28515625" style="2"/>
+    <col min="7" max="16384" width="10.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>88</v>
       </c>
@@ -12124,7 +12214,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
@@ -12132,7 +12222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>86</v>
       </c>
@@ -12140,7 +12230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
@@ -12148,7 +12238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>82</v>
       </c>
@@ -12156,7 +12246,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>85</v>
       </c>
@@ -12164,7 +12254,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>81</v>
       </c>
@@ -12172,7 +12262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -12184,7 +12274,7 @@
       <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -12196,7 +12286,7 @@
       <c r="I12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -12208,7 +12298,7 @@
       <c r="I13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -12220,7 +12310,7 @@
       <c r="I14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -12232,7 +12322,7 @@
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -12244,7 +12334,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -12256,7 +12346,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -12268,7 +12358,7 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -12280,7 +12370,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -12292,7 +12382,7 @@
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -12304,7 +12394,7 @@
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -12316,7 +12406,7 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -12328,7 +12418,7 @@
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -12340,7 +12430,7 @@
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -12352,7 +12442,7 @@
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -12364,7 +12454,7 @@
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -12376,7 +12466,7 @@
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -12388,7 +12478,7 @@
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -12400,7 +12490,7 @@
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -12433,39 +12523,39 @@
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="10" customWidth="1"/>
-    <col min="3" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="10" customWidth="1"/>
+    <col min="3" max="6" width="12.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="2:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="73" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
-      <c r="C2" s="267" t="s">
+      <c r="C2" s="264" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
-      <c r="G2" s="268"/>
-      <c r="H2" s="269"/>
+      <c r="D2" s="265"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="265"/>
+      <c r="H2" s="266"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="143" t="s">
+    <row r="3" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="143" t="s">
+      <c r="C3" s="141" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -12487,8 +12577,8 @@
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
+    <row r="4" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="75" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="14">
@@ -12513,8 +12603,8 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+    <row r="5" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="75" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="14">
@@ -12539,8 +12629,8 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
+    <row r="6" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="14">
@@ -12565,7 +12655,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
@@ -12585,7 +12675,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -12595,7 +12685,7 @@
       <c r="H9"/>
       <c r="I9"/>
     </row>
-    <row r="10" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -12605,7 +12695,7 @@
       <c r="H10"/>
       <c r="I10"/>
     </row>
-    <row r="11" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -12615,7 +12705,7 @@
       <c r="H11"/>
       <c r="I11"/>
     </row>
-    <row r="12" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -12625,7 +12715,7 @@
       <c r="H12"/>
       <c r="I12"/>
     </row>
-    <row r="13" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -12635,7 +12725,7 @@
       <c r="H13"/>
       <c r="I13"/>
     </row>
-    <row r="14" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -12645,7 +12735,7 @@
       <c r="H14"/>
       <c r="I14"/>
     </row>
-    <row r="15" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -12655,7 +12745,7 @@
       <c r="H15"/>
       <c r="I15"/>
     </row>
-    <row r="16" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -12665,7 +12755,7 @@
       <c r="H16"/>
       <c r="I16"/>
     </row>
-    <row r="17" spans="2:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -12675,7 +12765,7 @@
       <c r="H17"/>
       <c r="I17"/>
     </row>
-    <row r="18" spans="2:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -12685,7 +12775,7 @@
       <c r="H18"/>
       <c r="I18"/>
     </row>
-    <row r="19" spans="2:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -12719,32 +12809,32 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="10" customWidth="1"/>
-    <col min="3" max="4" width="18.28515625" style="2" customWidth="1"/>
-    <col min="5" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="2.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="10" customWidth="1"/>
+    <col min="3" max="4" width="18.33203125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="16.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="2:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="73" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="83"/>
-    </row>
-    <row r="4" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="143"/>
+      <c r="E3" s="81"/>
+    </row>
+    <row r="4" spans="2:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="29" t="s">
         <v>73</v>
       </c>
@@ -12754,7 +12844,7 @@
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
     </row>
-    <row r="5" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29" t="s">
         <v>74</v>
       </c>
@@ -12764,7 +12854,7 @@
       <c r="D5" s="31"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
         <v>75</v>
       </c>
@@ -12774,22 +12864,22 @@
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
     </row>
-    <row r="8" spans="2:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="146" t="s">
+      <c r="C8" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="146" t="s">
+      <c r="D8" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="146" t="s">
+      <c r="E8" s="144" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="146" t="s">
+    <row r="9" spans="2:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="144" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="34">
@@ -12802,8 +12892,8 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="146" t="s">
+    <row r="10" spans="2:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="144" t="s">
         <v>78</v>
       </c>
       <c r="C10" s="34">
@@ -12816,8 +12906,8 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="146" t="s">
+    <row r="11" spans="2:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="144" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="34">
@@ -12830,7 +12920,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -12838,7 +12928,7 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="2:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -12846,7 +12936,7 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -12854,7 +12944,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -12862,7 +12952,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -12870,7 +12960,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -12878,7 +12968,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -12886,7 +12976,7 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -12894,7 +12984,7 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -12902,7 +12992,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -12910,7 +13000,7 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -12918,7 +13008,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -12926,7 +13016,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -12934,7 +13024,7 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -12961,19 +13051,19 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="15.140625" style="8" customWidth="1"/>
-    <col min="5" max="16" width="13.7109375" style="8" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="4" width="15.109375" style="8" customWidth="1"/>
+    <col min="5" max="16" width="13.6640625" style="8" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -12981,7 +13071,7 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -12989,7 +13079,7 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -12997,7 +13087,7 @@
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -13005,82 +13095,82 @@
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:6" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:6" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
     </row>
-    <row r="17" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -13103,30 +13193,30 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.5546875" defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="59" customWidth="1"/>
-    <col min="2" max="3" width="13.140625" style="197" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="197" customWidth="1"/>
-    <col min="5" max="16384" width="13.5703125" style="197"/>
+    <col min="1" max="1" width="20.44140625" style="59" customWidth="1"/>
+    <col min="2" max="3" width="13.109375" style="195" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="195" customWidth="1"/>
+    <col min="5" max="16384" width="13.5546875" style="195"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="242" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="245"/>
-      <c r="F1" s="197">
+      <c r="C1" s="242"/>
+      <c r="F1" s="195">
         <v>640</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="67" t="s">
         <v>157</v>
       </c>
@@ -13140,7 +13230,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>156</v>
       </c>
@@ -13150,11 +13240,11 @@
       <c r="C3" s="64">
         <v>0</v>
       </c>
-      <c r="D3" s="197">
+      <c r="D3" s="195">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
         <v>155</v>
       </c>
@@ -13164,11 +13254,11 @@
       <c r="C4" s="64">
         <v>1</v>
       </c>
-      <c r="D4" s="197">
+      <c r="D4" s="195">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
         <v>154</v>
       </c>
@@ -13180,90 +13270,102 @@
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D5" s="85">
+      <c r="D5" s="83">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="87">
+      <c r="B6" s="85">
         <v>40</v>
       </c>
-      <c r="C6" s="87">
+      <c r="C6" s="85">
         <v>30</v>
       </c>
       <c r="D6" s="61"/>
     </row>
-    <row r="7" spans="1:6" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:6" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="202" t="s">
+    <row r="7" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="200" t="s">
         <v>267</v>
       </c>
-      <c r="B8" s="190"/>
-      <c r="C8" s="191"/>
+      <c r="B8" s="188">
+        <v>20</v>
+      </c>
+      <c r="C8" s="189">
+        <v>3</v>
+      </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
     </row>
-    <row r="9" spans="1:6" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="202"/>
+    <row r="9" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="200"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
     </row>
-    <row r="10" spans="1:6" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="204" t="s">
+    <row r="10" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="202" t="s">
         <v>268</v>
       </c>
-      <c r="B10" s="205"/>
+      <c r="B10" s="272">
+        <v>890</v>
+      </c>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
     </row>
-    <row r="11" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
     </row>
-    <row r="12" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="206" t="s">
+    <row r="12" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="203" t="s">
         <v>269</v>
       </c>
-      <c r="B12" s="206" t="s">
+      <c r="B12" s="203" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="206"/>
-      <c r="D12" s="206" t="s">
+      <c r="C12" s="203"/>
+      <c r="D12" s="203" t="s">
         <v>255</v>
       </c>
       <c r="E12" s="40"/>
     </row>
-    <row r="13" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
-      <c r="D13"/>
+      <c r="D13">
+        <v>8</v>
+      </c>
       <c r="E13" s="40"/>
     </row>
-    <row r="14" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
-      <c r="D14"/>
+      <c r="D14">
+        <v>8</v>
+      </c>
       <c r="E14" s="40"/>
     </row>
-    <row r="15" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
-      <c r="D15"/>
+      <c r="D15">
+        <v>8</v>
+      </c>
       <c r="E15" s="40"/>
     </row>
-    <row r="16" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -13302,228 +13404,228 @@
       <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="10" customWidth="1"/>
-    <col min="3" max="7" width="11.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="2.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="10" customWidth="1"/>
+    <col min="3" max="7" width="11.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="73" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="2:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="147" t="s">
+      <c r="D4" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="147" t="s">
+      <c r="F4" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="148" t="s">
+      <c r="G4" s="146" t="s">
         <v>25</v>
       </c>
       <c r="H4"/>
     </row>
-    <row r="5" spans="2:8" ht="16.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="149" t="s">
+    <row r="5" spans="2:8" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="150">
+      <c r="C5" s="148">
         <v>0.5</v>
       </c>
-      <c r="D5" s="150">
+      <c r="D5" s="148">
         <v>3</v>
       </c>
-      <c r="E5" s="150">
+      <c r="E5" s="148">
         <v>2</v>
       </c>
-      <c r="F5" s="150">
+      <c r="F5" s="148">
         <v>0.5</v>
       </c>
-      <c r="G5" s="151">
+      <c r="G5" s="149">
         <v>9</v>
       </c>
       <c r="H5"/>
     </row>
-    <row r="6" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="149" t="s">
+    <row r="6" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="152">
+      <c r="C6" s="150">
         <v>1.5</v>
       </c>
-      <c r="D6" s="152">
+      <c r="D6" s="150">
         <v>1</v>
       </c>
-      <c r="E6" s="152">
+      <c r="E6" s="150">
         <v>4</v>
       </c>
-      <c r="F6" s="152">
+      <c r="F6" s="150">
         <v>1</v>
       </c>
-      <c r="G6" s="153">
+      <c r="G6" s="151">
         <v>12</v>
       </c>
       <c r="H6"/>
     </row>
-    <row r="7" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="149" t="s">
+    <row r="7" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="152">
+      <c r="C7" s="150">
         <v>1.5</v>
       </c>
-      <c r="D7" s="152">
+      <c r="D7" s="150">
         <v>2</v>
       </c>
-      <c r="E7" s="152">
+      <c r="E7" s="150">
         <v>1</v>
       </c>
-      <c r="F7" s="152">
+      <c r="F7" s="150">
         <v>0.5</v>
       </c>
-      <c r="G7" s="153">
+      <c r="G7" s="151">
         <v>15</v>
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="149" t="s">
+    <row r="8" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="152">
+      <c r="C8" s="150">
         <v>1</v>
       </c>
-      <c r="D8" s="152">
+      <c r="D8" s="150">
         <v>3</v>
       </c>
-      <c r="E8" s="152">
+      <c r="E8" s="150">
         <v>2</v>
       </c>
-      <c r="F8" s="152">
+      <c r="F8" s="150">
         <v>0.5</v>
       </c>
-      <c r="G8" s="153">
+      <c r="G8" s="151">
         <v>11</v>
       </c>
       <c r="H8"/>
     </row>
-    <row r="9" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-    </row>
-    <row r="10" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+    </row>
+    <row r="10" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="2:8" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="155"/>
-      <c r="E11" s="156" t="s">
+      <c r="D11" s="153"/>
+      <c r="E11" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="270" t="s">
+      <c r="F11" s="267" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="271"/>
-    </row>
-    <row r="12" spans="2:8" ht="16.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="157" t="s">
+      <c r="G11" s="268"/>
+    </row>
+    <row r="12" spans="2:8" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="158">
+      <c r="C12" s="156">
         <v>15000</v>
       </c>
-      <c r="D12" s="159"/>
-      <c r="E12" s="160" t="s">
+      <c r="D12" s="157"/>
+      <c r="E12" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="161">
+      <c r="F12" s="159">
         <v>150</v>
       </c>
-      <c r="G12" s="162"/>
-    </row>
-    <row r="13" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="149" t="s">
+      <c r="G12" s="160"/>
+    </row>
+    <row r="13" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="163">
+      <c r="C13" s="161">
         <v>17000</v>
       </c>
-      <c r="D13" s="159"/>
-      <c r="E13" s="164" t="s">
+      <c r="D13" s="157"/>
+      <c r="E13" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="165">
+      <c r="F13" s="163">
         <v>100</v>
       </c>
-      <c r="G13" s="166"/>
-    </row>
-    <row r="14" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="149" t="s">
+      <c r="G13" s="164"/>
+    </row>
+    <row r="14" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="163">
+      <c r="C14" s="161">
         <v>26000</v>
       </c>
-      <c r="D14" s="159"/>
-      <c r="E14" s="164" t="s">
+      <c r="D14" s="157"/>
+      <c r="E14" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="165">
+      <c r="F14" s="163">
         <v>300</v>
       </c>
-      <c r="G14" s="166"/>
-    </row>
-    <row r="15" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="149" t="s">
+      <c r="G14" s="164"/>
+    </row>
+    <row r="15" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="163">
+      <c r="C15" s="161">
         <v>12000</v>
       </c>
-      <c r="D15" s="159"/>
-      <c r="E15" s="164" t="s">
+      <c r="D15" s="157"/>
+      <c r="E15" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="165">
+      <c r="F15" s="163">
         <v>400</v>
       </c>
-      <c r="G15" s="166"/>
-    </row>
-    <row r="16" spans="2:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="164"/>
+    </row>
+    <row r="16" spans="2:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="2:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
     </row>
-    <row r="21" spans="2:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
     </row>
   </sheetData>
@@ -13548,127 +13650,127 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="122"/>
-    <col min="2" max="2" width="11.85546875" style="122" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.5703125" style="122" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="122" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="122"/>
+    <col min="1" max="1" width="9.109375" style="120"/>
+    <col min="2" max="2" width="11.88671875" style="120" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5546875" style="120" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="120" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="120"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="167"/>
-      <c r="B2" s="272" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="165"/>
+      <c r="B2" s="269" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="274" t="s">
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="271" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="168" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="169" t="s">
+      <c r="C3" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="169" t="s">
+      <c r="D3" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="170" t="s">
+      <c r="E3" s="168" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="274"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="171" t="s">
+      <c r="F3" s="271"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="169" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="172">
+      <c r="B4" s="170">
         <v>41</v>
       </c>
-      <c r="C4" s="172">
+      <c r="C4" s="170">
         <v>27</v>
       </c>
-      <c r="D4" s="172">
+      <c r="D4" s="170">
         <v>28</v>
       </c>
-      <c r="E4" s="172">
+      <c r="E4" s="170">
         <v>24</v>
       </c>
-      <c r="F4" s="173">
+      <c r="F4" s="171">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="171" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="172">
+      <c r="B5" s="170">
         <v>40</v>
       </c>
-      <c r="C5" s="172">
+      <c r="C5" s="170">
         <v>29</v>
       </c>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172">
+      <c r="D5" s="170"/>
+      <c r="E5" s="170">
         <v>23</v>
       </c>
-      <c r="F5" s="173">
+      <c r="F5" s="171">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="171" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="172">
+      <c r="B6" s="170">
         <v>37</v>
       </c>
-      <c r="C6" s="172">
+      <c r="C6" s="170">
         <v>30</v>
       </c>
-      <c r="D6" s="172">
+      <c r="D6" s="170">
         <v>27</v>
       </c>
-      <c r="E6" s="172">
+      <c r="E6" s="170">
         <v>21</v>
       </c>
-      <c r="F6" s="173">
+      <c r="F6" s="171">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="174" t="s">
+    <row r="7" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="127">
+      <c r="B7" s="125">
         <v>20</v>
       </c>
-      <c r="C7" s="127">
+      <c r="C7" s="125">
         <v>30</v>
       </c>
-      <c r="D7" s="127">
+      <c r="D7" s="125">
         <v>30</v>
       </c>
-      <c r="E7" s="127">
+      <c r="E7" s="125">
         <v>40</v>
       </c>
-      <c r="F7" s="175"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="173"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -13677,7 +13779,7 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -13686,7 +13788,7 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -13695,7 +13797,7 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -13704,7 +13806,7 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -13713,7 +13815,7 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -13722,7 +13824,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -13731,7 +13833,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -13740,7 +13842,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -13749,7 +13851,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -13758,7 +13860,7 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -13767,7 +13869,7 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -13776,7 +13878,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -13785,7 +13887,7 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -13794,7 +13896,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -13803,7 +13905,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -13812,7 +13914,7 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -13821,7 +13923,7 @@
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -13854,32 +13956,32 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="86" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="86" customWidth="1"/>
-    <col min="4" max="4" width="21" style="86" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="86" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="86"/>
+    <col min="1" max="1" width="2.88671875" style="84" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="84" customWidth="1"/>
+    <col min="4" max="4" width="21" style="84" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="84" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="73" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-    </row>
-    <row r="3" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+    </row>
+    <row r="3" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>66</v>
       </c>
@@ -13889,7 +13991,7 @@
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
     </row>
-    <row r="4" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
         <v>67</v>
       </c>
@@ -13899,7 +14001,7 @@
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
     </row>
-    <row r="5" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
         <v>68</v>
       </c>
@@ -13909,7 +14011,7 @@
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
     </row>
-    <row r="6" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>69</v>
       </c>
@@ -13919,7 +14021,7 @@
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="18" t="s">
         <v>70</v>
       </c>
@@ -13929,169 +14031,169 @@
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
-    <row r="11" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
     </row>
-    <row r="17" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
     </row>
-    <row r="18" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
     </row>
-    <row r="19" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
     </row>
-    <row r="20" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
     </row>
-    <row r="21" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
     </row>
-    <row r="22" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="30" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
     </row>
-    <row r="34" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
     </row>
-    <row r="36" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
     </row>
-    <row r="37" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
     </row>
-    <row r="38" spans="2:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -14113,67 +14215,67 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="12.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="198" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="196" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="196" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="194" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="193" t="s">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="191" t="s">
         <v>250</v>
       </c>
-      <c r="C5" s="193" t="s">
+      <c r="C5" s="191" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="190">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="188">
         <v>29.999999999999996</v>
       </c>
-      <c r="C6" s="191">
+      <c r="C6" s="189">
         <v>40.000000000000007</v>
       </c>
-      <c r="E6" s="245" t="s">
+      <c r="E6" s="242" t="s">
         <v>260</v>
       </c>
-      <c r="F6" s="245"/>
-      <c r="G6" s="245"/>
-    </row>
-    <row r="7" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="242"/>
+      <c r="G6" s="242"/>
+    </row>
+    <row r="7" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="194">
+      <c r="B8" s="192">
         <v>70</v>
       </c>
-      <c r="C8" s="195">
+      <c r="C8" s="193">
         <v>50</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85" t="s">
+      <c r="E8" s="83"/>
+      <c r="F8" s="83" t="s">
         <v>257</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="83" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E9" s="59" t="s">
         <v>259</v>
       </c>
@@ -14184,43 +14286,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="192">
+      <c r="B10" s="190">
         <f>B6*B8+C6*C8</f>
         <v>4100</v>
       </c>
       <c r="E10" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="F10" s="85">
+      <c r="F10" s="83">
         <v>2</v>
       </c>
-      <c r="G10" s="85">
+      <c r="G10" s="83">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="83"/>
+      <c r="B14" s="83" t="s">
         <v>254</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85" t="s">
+      <c r="C14" s="83"/>
+      <c r="D14" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="E14" s="85" t="s">
+      <c r="E14" s="83" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>253</v>
       </c>
@@ -14239,21 +14341,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="B16" s="85">
+      <c r="B16" s="83">
         <f>B6*F10+C6*G10</f>
         <v>100</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="D16" s="85">
+      <c r="D16" s="83">
         <v>100</v>
       </c>
-      <c r="E16" s="85">
+      <c r="E16" s="83">
         <f>D16-B16</f>
         <v>0</v>
       </c>
@@ -14283,45 +14385,45 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="40" customWidth="1"/>
-    <col min="2" max="3" width="13.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="40"/>
+    <col min="1" max="1" width="16.6640625" style="40" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="246" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="243" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="248" t="s">
+      <c r="B2" s="245" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="248"/>
-      <c r="D2" s="249" t="s">
+      <c r="C2" s="245"/>
+      <c r="D2" s="246" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="247"/>
-      <c r="B3" s="84" t="s">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="244"/>
+      <c r="B3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="250"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="247"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
         <v>160</v>
       </c>
@@ -14335,7 +14437,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="68" t="s">
         <v>159</v>
       </c>
@@ -14349,66 +14451,77 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="73">
+      <c r="B6" s="71">
         <v>1</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="71">
         <v>3</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="70">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="B7" s="70">
+      <c r="B7" s="277">
         <v>1200</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="278">
         <v>1800</v>
       </c>
       <c r="D7" s="68"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
+    <row r="9" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="273" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="275">
+        <v>1</v>
+      </c>
+      <c r="C9" s="276">
+        <v>1</v>
+      </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
+    <row r="11" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="274" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" s="279">
+        <f>B7+C7</f>
+        <v>3000</v>
+      </c>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -14417,53 +14530,80 @@
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="246"/>
-      <c r="B16" s="248"/>
-      <c r="C16" s="248"/>
-      <c r="D16" s="249"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="243"/>
+      <c r="B16" s="245"/>
+      <c r="C16" s="245"/>
+      <c r="D16" s="246"/>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="247"/>
-      <c r="B17" s="189"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="250"/>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="244"/>
+      <c r="B17" s="187"/>
+      <c r="C17" s="187"/>
+      <c r="D17" s="247"/>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
+    <row r="18" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="68" cm="1">
+        <f t="array" ref="B18">SUMPRODUCT(Plan*B4:C4)</f>
+        <v>5</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="68">
+        <v>33</v>
+      </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="68" cm="1">
+        <f t="array" ref="B19">SUMPRODUCT(Plan*B5:C5)</f>
+        <v>2</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="68">
+        <v>15</v>
+      </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="68" cm="1">
+        <f t="array" ref="B20">SUMPRODUCT(Plan*B6:C6)</f>
+        <v>4</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" s="70">
+        <v>27</v>
+      </c>
       <c r="E20"/>
     </row>
   </sheetData>
@@ -14491,21 +14631,21 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:N12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="11.7109375" style="2"/>
+    <col min="1" max="1" width="17.33203125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="11.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="39"/>
       <c r="B2" s="39" t="s">
         <v>101</v>
@@ -14517,7 +14657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>103</v>
       </c>
@@ -14531,86 +14671,86 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+    <row r="4" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="85">
+      <c r="B4" s="83">
         <v>2</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="83">
         <v>1</v>
       </c>
-      <c r="D4" s="85">
+      <c r="D4" s="83">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="74">
         <v>6</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="74">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
     </row>
-    <row r="12" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
     </row>
-    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -14636,172 +14776,172 @@
       <selection activeCell="D17" sqref="D17:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="235" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="232" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="235" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="232" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="235" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="232" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="238"/>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235" t="s">
         <v>285</v>
       </c>
-      <c r="E7" s="238" t="s">
+      <c r="E7" s="235" t="s">
         <v>287</v>
       </c>
-      <c r="F7" s="238" t="s">
+      <c r="F7" s="235" t="s">
         <v>289</v>
       </c>
-      <c r="G7" s="238" t="s">
+      <c r="G7" s="235" t="s">
         <v>291</v>
       </c>
-      <c r="H7" s="238" t="s">
+      <c r="H7" s="235" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="239" t="s">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="236" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="239" t="s">
+      <c r="C8" s="236" t="s">
         <v>284</v>
       </c>
-      <c r="D8" s="239" t="s">
+      <c r="D8" s="236" t="s">
         <v>286</v>
       </c>
-      <c r="E8" s="239" t="s">
+      <c r="E8" s="236" t="s">
         <v>288</v>
       </c>
-      <c r="F8" s="239" t="s">
+      <c r="F8" s="236" t="s">
         <v>290</v>
       </c>
-      <c r="G8" s="239" t="s">
+      <c r="G8" s="236" t="s">
         <v>292</v>
       </c>
-      <c r="H8" s="239" t="s">
+      <c r="H8" s="236" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="236" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="233" t="s">
         <v>299</v>
       </c>
-      <c r="C9" s="236" t="s">
+      <c r="C9" s="233" t="s">
         <v>300</v>
       </c>
-      <c r="D9" s="242">
+      <c r="D9" s="239">
         <v>100</v>
       </c>
-      <c r="E9" s="236">
+      <c r="E9" s="233">
         <v>0</v>
       </c>
-      <c r="F9" s="240">
+      <c r="F9" s="237">
         <v>40</v>
       </c>
-      <c r="G9" s="236">
+      <c r="G9" s="233">
         <v>8</v>
       </c>
-      <c r="H9" s="236">
+      <c r="H9" s="233">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="236" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="233" t="s">
         <v>301</v>
       </c>
-      <c r="C10" s="236" t="s">
+      <c r="C10" s="233" t="s">
         <v>302</v>
       </c>
-      <c r="D10" s="242">
+      <c r="D10" s="239">
         <v>500</v>
       </c>
-      <c r="E10" s="236">
+      <c r="E10" s="233">
         <v>0</v>
       </c>
-      <c r="F10" s="240">
+      <c r="F10" s="237">
         <v>24</v>
       </c>
-      <c r="G10" s="236">
+      <c r="G10" s="233">
         <v>73</v>
       </c>
-      <c r="H10" s="236">
+      <c r="H10" s="233">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="236" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="233" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="236" t="s">
+      <c r="C11" s="233" t="s">
         <v>304</v>
       </c>
-      <c r="D11" s="242">
+      <c r="D11" s="239">
         <v>0</v>
       </c>
-      <c r="E11" s="236">
+      <c r="E11" s="233">
         <v>-16</v>
       </c>
-      <c r="F11" s="240">
+      <c r="F11" s="237">
         <v>36</v>
       </c>
-      <c r="G11" s="236">
+      <c r="G11" s="233">
         <v>16</v>
       </c>
-      <c r="H11" s="236">
+      <c r="H11" s="233">
         <v>1E+30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="237" t="s">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="234" t="s">
         <v>305</v>
       </c>
-      <c r="C12" s="237" t="s">
+      <c r="C12" s="234" t="s">
         <v>306</v>
       </c>
-      <c r="D12" s="243">
+      <c r="D12" s="240">
         <v>100</v>
       </c>
-      <c r="E12" s="237">
+      <c r="E12" s="234">
         <v>0</v>
       </c>
-      <c r="F12" s="241">
+      <c r="F12" s="238">
         <v>23</v>
       </c>
-      <c r="G12" s="237">
+      <c r="G12" s="234">
         <v>73</v>
       </c>
-      <c r="H12" s="237">
+      <c r="H12" s="234">
         <v>1E+30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>294</v>
       </c>
@@ -14812,183 +14952,183 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="238"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="235"/>
+      <c r="C15" s="235"/>
+      <c r="D15" s="235" t="s">
         <v>285</v>
       </c>
-      <c r="E15" s="238" t="s">
+      <c r="E15" s="235" t="s">
         <v>295</v>
       </c>
-      <c r="F15" s="238" t="s">
+      <c r="F15" s="235" t="s">
         <v>297</v>
       </c>
-      <c r="G15" s="238" t="s">
+      <c r="G15" s="235" t="s">
         <v>291</v>
       </c>
-      <c r="H15" s="238" t="s">
+      <c r="H15" s="235" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="239" t="s">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="236" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="239" t="s">
+      <c r="C16" s="236" t="s">
         <v>284</v>
       </c>
-      <c r="D16" s="239" t="s">
+      <c r="D16" s="236" t="s">
         <v>286</v>
       </c>
-      <c r="E16" s="239" t="s">
+      <c r="E16" s="236" t="s">
         <v>296</v>
       </c>
-      <c r="F16" s="239" t="s">
+      <c r="F16" s="236" t="s">
         <v>298</v>
       </c>
-      <c r="G16" s="239" t="s">
+      <c r="G16" s="236" t="s">
         <v>292</v>
       </c>
-      <c r="H16" s="239" t="s">
+      <c r="H16" s="236" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="236" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="233" t="s">
         <v>307</v>
       </c>
-      <c r="C17" s="236" t="s">
+      <c r="C17" s="233" t="s">
         <v>308</v>
       </c>
-      <c r="D17" s="236">
+      <c r="D17" s="233">
         <v>1200</v>
       </c>
-      <c r="E17" s="236">
+      <c r="E17" s="233">
         <v>19.2</v>
       </c>
-      <c r="F17" s="236">
+      <c r="F17" s="233">
         <v>1200</v>
       </c>
-      <c r="G17" s="236">
+      <c r="G17" s="233">
         <v>166.66666666666663</v>
       </c>
-      <c r="H17" s="236">
+      <c r="H17" s="233">
         <v>166.66666666666663</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="236" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="233" t="s">
         <v>309</v>
       </c>
-      <c r="C18" s="236" t="s">
+      <c r="C18" s="233" t="s">
         <v>310</v>
       </c>
-      <c r="D18" s="236">
+      <c r="D18" s="233">
         <v>1600</v>
       </c>
-      <c r="E18" s="236">
+      <c r="E18" s="233">
         <v>1.6</v>
       </c>
-      <c r="F18" s="236">
+      <c r="F18" s="233">
         <v>1600</v>
       </c>
-      <c r="G18" s="236">
+      <c r="G18" s="233">
         <v>500</v>
       </c>
-      <c r="H18" s="236">
+      <c r="H18" s="233">
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="236" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="233" t="s">
         <v>311</v>
       </c>
-      <c r="C19" s="236" t="s">
+      <c r="C19" s="233" t="s">
         <v>312</v>
       </c>
-      <c r="D19" s="236">
+      <c r="D19" s="233">
         <v>4700</v>
       </c>
-      <c r="E19" s="236">
+      <c r="E19" s="233">
         <v>0</v>
       </c>
-      <c r="F19" s="236">
+      <c r="F19" s="233">
         <v>10000</v>
       </c>
-      <c r="G19" s="236">
+      <c r="G19" s="233">
         <v>1E+30</v>
       </c>
-      <c r="H19" s="236">
+      <c r="H19" s="233">
         <v>5300</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="236" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="233" t="s">
         <v>313</v>
       </c>
-      <c r="C20" s="236" t="s">
+      <c r="C20" s="233" t="s">
         <v>314</v>
       </c>
-      <c r="D20" s="236">
+      <c r="D20" s="233">
         <v>100</v>
       </c>
-      <c r="E20" s="236">
+      <c r="E20" s="233">
         <v>0</v>
       </c>
-      <c r="F20" s="236">
+      <c r="F20" s="233">
         <v>200</v>
       </c>
-      <c r="G20" s="236">
+      <c r="G20" s="233">
         <v>1E+30</v>
       </c>
-      <c r="H20" s="236">
+      <c r="H20" s="233">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="236" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="233" t="s">
         <v>315</v>
       </c>
-      <c r="C21" s="236" t="s">
+      <c r="C21" s="233" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="236">
+      <c r="D21" s="233">
         <v>0</v>
       </c>
-      <c r="E21" s="236">
+      <c r="E21" s="233">
         <v>0</v>
       </c>
-      <c r="F21" s="236">
+      <c r="F21" s="233">
         <v>160</v>
       </c>
-      <c r="G21" s="236">
+      <c r="G21" s="233">
         <v>1E+30</v>
       </c>
-      <c r="H21" s="236">
+      <c r="H21" s="233">
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="237" t="s">
+    <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="234" t="s">
         <v>317</v>
       </c>
-      <c r="C22" s="237" t="s">
+      <c r="C22" s="234" t="s">
         <v>318</v>
       </c>
-      <c r="D22" s="237">
+      <c r="D22" s="234">
         <v>100</v>
       </c>
-      <c r="E22" s="237">
+      <c r="E22" s="234">
         <v>-73</v>
       </c>
-      <c r="F22" s="237">
+      <c r="F22" s="234">
         <v>100</v>
       </c>
-      <c r="G22" s="237">
+      <c r="G22" s="234">
         <v>33.333333333333336</v>
       </c>
-      <c r="H22" s="237">
+      <c r="H22" s="234">
         <v>33.333333333333336</v>
       </c>
     </row>
@@ -15010,192 +15150,192 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="86" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="86" customWidth="1"/>
-    <col min="3" max="6" width="14.42578125" style="86" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="86" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="86"/>
+    <col min="1" max="1" width="4.5546875" style="84" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="84" customWidth="1"/>
+    <col min="3" max="6" width="14.44140625" style="84" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="84" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="73" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="88"/>
-      <c r="C2" s="88" t="s">
+    <row r="2" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="223" t="s">
+      <c r="G2" s="220" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="89" t="s">
+    <row r="3" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="90">
+      <c r="C3" s="88">
         <v>2</v>
       </c>
-      <c r="D3" s="90">
+      <c r="D3" s="88">
         <v>1</v>
       </c>
-      <c r="E3" s="90">
+      <c r="E3" s="88">
         <v>2.5</v>
       </c>
-      <c r="F3" s="90">
+      <c r="F3" s="88">
         <v>5</v>
       </c>
-      <c r="G3" s="86">
+      <c r="G3" s="84">
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="89" t="s">
+    <row r="4" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="90">
+      <c r="C4" s="88">
         <v>1</v>
       </c>
-      <c r="D4" s="90">
+      <c r="D4" s="88">
         <v>3</v>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="88">
         <v>2.5</v>
       </c>
-      <c r="F4" s="90">
+      <c r="F4" s="88">
         <v>0</v>
       </c>
-      <c r="G4" s="86">
+      <c r="G4" s="84">
         <v>1600</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="89" t="s">
+    <row r="5" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="90">
+      <c r="C5" s="88">
         <v>10</v>
       </c>
-      <c r="D5" s="90">
+      <c r="D5" s="88">
         <v>5</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="88">
         <v>2</v>
       </c>
-      <c r="F5" s="90">
+      <c r="F5" s="88">
         <v>12</v>
       </c>
-      <c r="G5" s="86">
+      <c r="G5" s="84">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="89" t="s">
+    <row r="6" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="91">
+      <c r="C6" s="89">
         <v>40</v>
       </c>
-      <c r="D6" s="91">
+      <c r="D6" s="89">
         <v>24</v>
       </c>
-      <c r="E6" s="91">
+      <c r="E6" s="89">
         <v>36</v>
       </c>
-      <c r="F6" s="91">
+      <c r="F6" s="89">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="89" t="s">
+    <row r="7" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="88">
         <v>200</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90">
+      <c r="D7" s="88"/>
+      <c r="E7" s="88">
         <v>160</v>
       </c>
-      <c r="F7" s="90"/>
-    </row>
-    <row r="8" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="92" t="s">
+      <c r="F7" s="88"/>
+    </row>
+    <row r="8" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93">
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-    </row>
-    <row r="10" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+    </row>
+    <row r="10" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="227" t="s">
+    <row r="11" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="224" t="s">
         <v>267</v>
       </c>
-      <c r="C11" s="224"/>
-      <c r="D11" s="225"/>
-      <c r="E11" s="225"/>
-      <c r="F11" s="226"/>
-    </row>
-    <row r="12" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="203"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="223"/>
+    </row>
+    <row r="12" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="201"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="203"/>
-      <c r="C13" s="228"/>
+    <row r="13" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="201"/>
+      <c r="C13" s="225"/>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="233" t="s">
+    <row r="16" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="230" t="s">
         <v>252</v>
       </c>
       <c r="C16"/>
@@ -15203,58 +15343,58 @@
       <c r="E16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="232"/>
-      <c r="C18" s="234"/>
-      <c r="D18" s="234"/>
-      <c r="E18" s="230"/>
+    <row r="18" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="229"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="231"/>
+      <c r="E18" s="227"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="229"/>
-      <c r="C19" s="234"/>
-      <c r="D19" s="234"/>
-      <c r="E19" s="230"/>
+    <row r="19" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="226"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="231"/>
+      <c r="E19" s="227"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="229"/>
-      <c r="C20" s="234"/>
-      <c r="D20" s="234"/>
-      <c r="E20" s="230"/>
+    <row r="20" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="226"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="231"/>
+      <c r="E20" s="227"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="231"/>
-      <c r="C21" s="234"/>
-      <c r="D21" s="234"/>
-      <c r="E21" s="230"/>
+    <row r="21" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="228"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="231"/>
+      <c r="E21" s="227"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="231"/>
-      <c r="C22" s="234"/>
-      <c r="D22" s="234"/>
-      <c r="E22" s="230"/>
+    <row r="22" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="228"/>
+      <c r="C22" s="231"/>
+      <c r="D22" s="231"/>
+      <c r="E22" s="227"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="231"/>
-      <c r="C23" s="234"/>
-      <c r="D23" s="234"/>
-      <c r="E23" s="230"/>
+    <row r="23" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="228"/>
+      <c r="C23" s="231"/>
+      <c r="D23" s="231"/>
+      <c r="E23" s="227"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="223"/>
-      <c r="D24" s="223"/>
+    <row r="24" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="220"/>
+      <c r="D24" s="220"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -15277,116 +15417,116 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="40" customWidth="1"/>
     <col min="2" max="5" width="13" style="40"/>
-    <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="2" customWidth="1"/>
     <col min="7" max="16384" width="13" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="75" t="s">
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="73" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="96" t="s">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="93"/>
+      <c r="B13" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="96" t="s">
+      <c r="E13" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="97" t="s">
+      <c r="F13" s="95" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="98">
+      <c r="B14" s="96">
         <v>5</v>
       </c>
-      <c r="C14" s="98">
+      <c r="C14" s="96">
         <v>3.5</v>
       </c>
-      <c r="D14" s="98">
+      <c r="D14" s="96">
         <v>4.2</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E14" s="96">
         <v>2.2000000000000002</v>
       </c>
       <c r="F14" s="37">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="96">
         <v>3.2</v>
       </c>
-      <c r="C15" s="98">
+      <c r="C15" s="96">
         <v>2.6</v>
       </c>
-      <c r="D15" s="98">
+      <c r="D15" s="96">
         <v>1.8</v>
       </c>
-      <c r="E15" s="98">
+      <c r="E15" s="96">
         <v>4.8</v>
       </c>
       <c r="F15" s="37">
         <v>12000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="98">
+      <c r="B16" s="96">
         <v>2.5</v>
       </c>
-      <c r="C16" s="98">
+      <c r="C16" s="96">
         <v>3.1</v>
       </c>
-      <c r="D16" s="98">
+      <c r="D16" s="96">
         <v>3.3</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E16" s="96">
         <v>5.4</v>
       </c>
       <c r="F16" s="37">
         <v>14000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="99">
+      <c r="B17" s="97">
         <v>9000</v>
       </c>
-      <c r="C17" s="99">
+      <c r="C17" s="97">
         <v>6000</v>
       </c>
-      <c r="D17" s="99">
+      <c r="D17" s="97">
         <v>6000</v>
       </c>
-      <c r="E17" s="99">
+      <c r="E17" s="97">
         <v>13000</v>
       </c>
       <c r="F17" s="37"/>
     </row>
-    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -15394,7 +15534,7 @@
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -15402,7 +15542,7 @@
       <c r="E20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -15410,7 +15550,7 @@
       <c r="E21"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -15418,7 +15558,7 @@
       <c r="E22"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -15426,7 +15566,7 @@
       <c r="E23"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -15434,7 +15574,7 @@
       <c r="E24"/>
       <c r="F24"/>
     </row>
-    <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -15442,7 +15582,7 @@
       <c r="E25"/>
       <c r="F25"/>
     </row>
-    <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -15450,7 +15590,7 @@
       <c r="E26"/>
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -15478,38 +15618,38 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="10" customWidth="1"/>
-    <col min="3" max="6" width="9.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="2.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="10" customWidth="1"/>
+    <col min="3" max="6" width="9.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="73" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="2:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="251" t="s">
+    <row r="3" spans="2:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="248" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="253"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="250"/>
       <c r="H3" s="35"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="100" t="s">
+    <row r="4" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="98" t="s">
         <v>121</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -15529,8 +15669,8 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="101" t="s">
+    <row r="5" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="99" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="14">
@@ -15550,8 +15690,8 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="101" t="s">
+    <row r="6" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="99" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="14">
@@ -15571,8 +15711,8 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="101" t="s">
+    <row r="7" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="99" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="14">
@@ -15592,8 +15732,8 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="102"/>
+    <row r="8" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="100"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
@@ -15603,7 +15743,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -15613,7 +15753,7 @@
       <c r="H9"/>
       <c r="I9"/>
     </row>
-    <row r="10" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -15623,7 +15763,7 @@
       <c r="H10"/>
       <c r="I10"/>
     </row>
-    <row r="11" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -15633,7 +15773,7 @@
       <c r="H11"/>
       <c r="I11"/>
     </row>
-    <row r="12" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -15643,7 +15783,7 @@
       <c r="H12"/>
       <c r="I12"/>
     </row>
-    <row r="13" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -15653,7 +15793,7 @@
       <c r="H13"/>
       <c r="I13"/>
     </row>
-    <row r="14" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -15663,7 +15803,7 @@
       <c r="H14"/>
       <c r="I14"/>
     </row>
-    <row r="15" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -15673,7 +15813,7 @@
       <c r="H15"/>
       <c r="I15"/>
     </row>
-    <row r="16" spans="2:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -15683,7 +15823,7 @@
       <c r="H16"/>
       <c r="I16"/>
     </row>
-    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -15693,7 +15833,7 @@
       <c r="H17"/>
       <c r="I17"/>
     </row>
-    <row r="18" spans="2:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -15727,182 +15867,182 @@
       <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="94" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="94" customWidth="1"/>
-    <col min="3" max="4" width="10.5703125" style="94" customWidth="1"/>
-    <col min="5" max="9" width="11.42578125" style="94" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="94"/>
+    <col min="1" max="1" width="4.109375" style="92" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="92" customWidth="1"/>
+    <col min="3" max="4" width="10.5546875" style="92" customWidth="1"/>
+    <col min="5" max="9" width="11.44140625" style="92" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="74" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="72" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="103" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="104" t="s">
+      <c r="D11" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="104" t="s">
+      <c r="E11" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="104" t="s">
+      <c r="F11" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="104" t="s">
+      <c r="G11" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="105" t="s">
+      <c r="H11" s="103" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="106" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="107">
+      <c r="C12" s="105">
         <v>6</v>
       </c>
-      <c r="D12" s="107">
+      <c r="D12" s="105">
         <v>5</v>
       </c>
-      <c r="E12" s="107">
+      <c r="E12" s="105">
         <v>4</v>
       </c>
-      <c r="F12" s="107">
+      <c r="F12" s="105">
         <v>3</v>
       </c>
-      <c r="G12" s="107">
+      <c r="G12" s="105">
         <v>2.5</v>
       </c>
-      <c r="H12" s="108">
+      <c r="H12" s="106">
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="109" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="110">
+      <c r="C13" s="108">
         <v>3.2</v>
       </c>
-      <c r="D13" s="110">
+      <c r="D13" s="108">
         <v>2.6</v>
       </c>
-      <c r="E13" s="110">
+      <c r="E13" s="108">
         <v>1.5</v>
       </c>
-      <c r="F13" s="110">
+      <c r="F13" s="108">
         <v>0.8</v>
       </c>
-      <c r="G13" s="110">
+      <c r="G13" s="108">
         <v>0.7</v>
       </c>
-      <c r="H13" s="111">
+      <c r="H13" s="109">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="112" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="113">
+      <c r="C14" s="111">
         <v>12.5</v>
       </c>
-      <c r="D14" s="113">
+      <c r="D14" s="111">
         <v>11</v>
       </c>
-      <c r="E14" s="113">
+      <c r="E14" s="111">
         <v>9</v>
       </c>
-      <c r="F14" s="113">
+      <c r="F14" s="111">
         <v>7</v>
       </c>
-      <c r="G14" s="113">
+      <c r="G14" s="111">
         <v>6</v>
       </c>
-      <c r="H14" s="114">
+      <c r="H14" s="112">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="112" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="113">
+      <c r="C15" s="111">
         <v>6.5</v>
       </c>
-      <c r="D15" s="113">
+      <c r="D15" s="111">
         <v>5.7</v>
       </c>
-      <c r="E15" s="113">
+      <c r="E15" s="111">
         <v>3.6</v>
       </c>
-      <c r="F15" s="113">
+      <c r="F15" s="111">
         <v>2.8</v>
       </c>
-      <c r="G15" s="113">
+      <c r="G15" s="111">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H15" s="114">
+      <c r="H15" s="112">
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="112" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="115">
+      <c r="C16" s="113">
         <v>960</v>
       </c>
-      <c r="D16" s="115">
+      <c r="D16" s="113">
         <v>928</v>
       </c>
-      <c r="E16" s="115">
+      <c r="E16" s="113">
         <v>1041</v>
       </c>
-      <c r="F16" s="115">
+      <c r="F16" s="113">
         <v>977</v>
       </c>
-      <c r="G16" s="115">
+      <c r="G16" s="113">
         <v>1084</v>
       </c>
-      <c r="H16" s="116">
+      <c r="H16" s="114">
         <v>1055</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="117" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="118">
+      <c r="C17" s="116">
         <v>6</v>
       </c>
-      <c r="D17" s="118">
+      <c r="D17" s="116">
         <v>5.3</v>
       </c>
-      <c r="E17" s="118">
+      <c r="E17" s="116">
         <v>5.4</v>
       </c>
-      <c r="F17" s="118">
+      <c r="F17" s="116">
         <v>4.2</v>
       </c>
-      <c r="G17" s="118">
+      <c r="G17" s="116">
         <v>3.8</v>
       </c>
-      <c r="H17" s="119">
+      <c r="H17" s="117">
         <v>1.8</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -15911,7 +16051,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -15920,7 +16060,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -15929,7 +16069,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -15938,7 +16078,7 @@
       <c r="G23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -15947,7 +16087,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -15956,7 +16096,7 @@
       <c r="G25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -15965,7 +16105,7 @@
       <c r="G26"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -15974,7 +16114,7 @@
       <c r="G27"/>
       <c r="H27"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -15983,7 +16123,7 @@
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -15992,7 +16132,7 @@
       <c r="G29"/>
       <c r="H29"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -16001,7 +16141,7 @@
       <c r="G30"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -16010,7 +16150,7 @@
       <c r="G31"/>
       <c r="H31"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -16019,7 +16159,7 @@
       <c r="G32"/>
       <c r="H32"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>

--- a/3.1 Optimizacija (N).xlsx
+++ b/3.1 Optimizacija (N).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5BC1E1-E975-4051-AC78-20364649A821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8392164B-9567-40A3-B9D5-6EF3CAF7E6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="807" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="807" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sadrzaj" sheetId="29" r:id="rId1"/>
@@ -43,8 +43,10 @@
     <definedName name="PlanZ4">Zad4!$C$11:$F$11</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Zad1!$B$8:$C$8</definedName>
     <definedName name="solver_adj" localSheetId="11" hidden="1">Zad10!$D$19:$E$21</definedName>
+    <definedName name="solver_adj" localSheetId="12" hidden="1">Zad11!$B$12:$G$15</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Zad2!$B$9:$C$9</definedName>
     <definedName name="solver_adj" localSheetId="22" hidden="1">Zad21!$B$6:$C$6</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">Zad5!$B$21:$E$23</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="11" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="12" hidden="1">0.0001</definedName>
@@ -167,7 +169,7 @@
     <definedName name="solver_lhs1" localSheetId="22" hidden="1">Zad21!$B$15:$B$16</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">Zad3!$B$12:$B$14</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">Zad4!$C$18:$C$22</definedName>
-    <definedName name="solver_lhs1" localSheetId="6" hidden="1">Zad5!$B$21:$E$23</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">Zad5!$B$24:$E$24</definedName>
     <definedName name="solver_lhs1" localSheetId="7" hidden="1">Zad6!$C$11:$F$13</definedName>
     <definedName name="solver_lhs1" localSheetId="8" hidden="1">Zad7!$C$22:$H$22</definedName>
     <definedName name="solver_lhs1" localSheetId="9" hidden="1">Zad8!$C$20</definedName>
@@ -186,7 +188,7 @@
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">Zad2!$B$16</definedName>
     <definedName name="solver_lhs2" localSheetId="21" hidden="1">Zad20!$C$15</definedName>
     <definedName name="solver_lhs2" localSheetId="5" hidden="1">Zad4!$C$23</definedName>
-    <definedName name="solver_lhs2" localSheetId="6" hidden="1">Zad5!$B$24:$E$24</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">Zad5!$F$21:$F$23</definedName>
     <definedName name="solver_lhs2" localSheetId="7" hidden="1">Zad6!$C$14:$F$14</definedName>
     <definedName name="solver_lhs2" localSheetId="8" hidden="1">Zad7!$C$27:$C$28</definedName>
     <definedName name="solver_lhs2" localSheetId="9" hidden="1">Zad8!$E$18:$E$19</definedName>
@@ -362,7 +364,7 @@
     <definedName name="solver_num" localSheetId="22" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="9" hidden="1">0</definedName>
@@ -390,8 +392,10 @@
     <definedName name="solver_nwt" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Zad1!$B$10</definedName>
     <definedName name="solver_opt" localSheetId="11" hidden="1">Zad10!$D$25</definedName>
+    <definedName name="solver_opt" localSheetId="12" hidden="1">Zad11!$B$18</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">Zad2!$B$11</definedName>
     <definedName name="solver_opt" localSheetId="22" hidden="1">Zad21!$B$10</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">Zad5!$B$26</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="11" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="12" hidden="1">0.000001</definedName>
@@ -451,7 +455,7 @@
     <definedName name="solver_rel1" localSheetId="22" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="6" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="7" hidden="1">4</definedName>
     <definedName name="solver_rel1" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="9" hidden="1">1</definedName>
@@ -470,7 +474,7 @@
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="9" hidden="1">1</definedName>
@@ -518,7 +522,7 @@
     <definedName name="solver_rhs1" localSheetId="22" hidden="1">Zad21!$D$15:$D$16</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">Zad3!$D$12:$D$14</definedName>
     <definedName name="solver_rhs1" localSheetId="5" hidden="1">Zad4!$E$18:$E$22</definedName>
-    <definedName name="solver_rhs1" localSheetId="6" hidden="1">integer</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">Zad5!$B$17:$E$17</definedName>
     <definedName name="solver_rhs1" localSheetId="7" hidden="1">integer</definedName>
     <definedName name="solver_rhs1" localSheetId="8" hidden="1">Zad7!$C$16:$H$16</definedName>
     <definedName name="solver_rhs1" localSheetId="9" hidden="1">Zad8!$E$10</definedName>
@@ -537,7 +541,7 @@
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">Zad2!$D$16</definedName>
     <definedName name="solver_rhs2" localSheetId="21" hidden="1">Zad20!$E$34</definedName>
     <definedName name="solver_rhs2" localSheetId="5" hidden="1">Zad4!$E$23</definedName>
-    <definedName name="solver_rhs2" localSheetId="6" hidden="1">Zad5!$B$17:$E$17</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">Zad5!$F$14:$F$16</definedName>
     <definedName name="solver_rhs2" localSheetId="7" hidden="1">Zad6!$C$8:$F$8</definedName>
     <definedName name="solver_rhs2" localSheetId="8" hidden="1">Zad7!$E$27:$E$28</definedName>
     <definedName name="solver_rhs2" localSheetId="9" hidden="1">Zad8!$E$14:$E$15</definedName>
@@ -731,7 +735,7 @@
     <definedName name="solver_typ" localSheetId="22" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="9" hidden="1">1</definedName>
@@ -915,7 +919,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="330">
   <si>
     <t>Građevinska poduzeća</t>
   </si>
@@ -1940,6 +1944,36 @@
   <si>
     <t>Sveučilište VERN, ITM menadžment       Predmet: Kvantitativne metode u menadžmentu</t>
   </si>
+  <si>
+    <t>Plan distribucije</t>
+  </si>
+  <si>
+    <t>Doveženo u skladište</t>
+  </si>
+  <si>
+    <t>Odvezeno iz tvornice</t>
+  </si>
+  <si>
+    <t>Trošak distribucije</t>
+  </si>
+  <si>
+    <t>Plan dodjele</t>
+  </si>
+  <si>
+    <t>Ukupan trošak</t>
+  </si>
+  <si>
+    <t>Dodijeljeno hotela</t>
+  </si>
+  <si>
+    <t>Maksimalan broj poslova</t>
+  </si>
+  <si>
+    <t>Dodijeljeno izvođaća</t>
+  </si>
+  <si>
+    <t>Potrebno izvođaća</t>
+  </si>
 </sst>
 </file>
 
@@ -1950,12 +1984,12 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_n_-;\-* #,##0.00\ _k_n_-;_-* &quot;-&quot;??\ _k_n_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;kn&quot;_-;\-* #,##0\ &quot;kn&quot;_-;_-* &quot;-&quot;??\ &quot;kn&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="[$$-1009]#,##0"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00\ [$€-407]"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ [$kn-41A]_-;\-* #,##0.00\ [$kn-41A]_-;_-* &quot;-&quot;??\ [$kn-41A]_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ [$€-407]"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$kn-41A]_-;\-* #,##0.00\ [$kn-41A]_-;_-* &quot;-&quot;??\ [$kn-41A]_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2249,8 +2283,17 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2329,8 +2372,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="73">
+  <borders count="90">
     <border>
       <left/>
       <right/>
@@ -3262,8 +3310,229 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3285,8 +3554,9 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3932,7 +4202,7 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="16" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="31" xfId="16" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="31" xfId="16" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
@@ -3956,7 +4226,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3984,6 +4254,30 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4077,32 +4371,111 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="73" xfId="18" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="14" borderId="73" xfId="18" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="19">
+    <cellStyle name="Check Cell" xfId="18" builtinId="23"/>
     <cellStyle name="Comma 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Currency 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -4122,7 +4495,17 @@
     <cellStyle name="Normal 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8258,15 +8641,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:F25" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:F25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A4:F25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Vrsta zadatka" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Oznaka" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Zahtjevnost" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Opis" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Porijeklo" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Vrsta zadatka" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Oznaka" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Zahtjevnost" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Opis" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Porijeklo" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8614,13 +8997,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="249" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
       <c r="F1" s="179"/>
     </row>
     <row r="2" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9953,24 +10336,24 @@
       <c r="B2" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="257" t="s">
+      <c r="C2" s="265" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="257"/>
-      <c r="E2" s="258" t="s">
+      <c r="D2" s="265"/>
+      <c r="E2" s="266" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="258"/>
-      <c r="G2" s="259" t="s">
+      <c r="F2" s="266"/>
+      <c r="G2" s="267" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="260"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="258" t="s">
+      <c r="H2" s="268"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="266" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
+      <c r="K2" s="266"/>
+      <c r="L2" s="266"/>
       <c r="M2" s="56"/>
     </row>
     <row r="3" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10157,17 +10540,17 @@
       <c r="B8" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="251"/>
-      <c r="D8" s="252"/>
-      <c r="E8" s="253">
+      <c r="C8" s="259"/>
+      <c r="D8" s="260"/>
+      <c r="E8" s="261">
         <v>120</v>
       </c>
-      <c r="F8" s="254"/>
-      <c r="G8" s="251">
+      <c r="F8" s="262"/>
+      <c r="G8" s="259">
         <v>120</v>
       </c>
-      <c r="H8" s="255"/>
-      <c r="I8" s="252"/>
+      <c r="H8" s="263"/>
+      <c r="I8" s="260"/>
       <c r="J8" s="119"/>
       <c r="K8" s="119"/>
       <c r="L8" s="119"/>
@@ -10177,24 +10560,24 @@
       <c r="B9" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="251">
+      <c r="C9" s="259">
         <v>15</v>
       </c>
-      <c r="D9" s="252"/>
-      <c r="E9" s="253">
+      <c r="D9" s="260"/>
+      <c r="E9" s="261">
         <v>25</v>
       </c>
-      <c r="F9" s="254"/>
-      <c r="G9" s="251">
+      <c r="F9" s="262"/>
+      <c r="G9" s="259">
         <v>35</v>
       </c>
-      <c r="H9" s="255"/>
-      <c r="I9" s="252"/>
-      <c r="J9" s="253">
+      <c r="H9" s="263"/>
+      <c r="I9" s="260"/>
+      <c r="J9" s="261">
         <v>20</v>
       </c>
-      <c r="K9" s="256"/>
-      <c r="L9" s="254"/>
+      <c r="K9" s="264"/>
+      <c r="L9" s="262"/>
       <c r="M9" s="56"/>
     </row>
     <row r="10" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10604,7 +10987,7 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -10967,16 +11350,17 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="2" customWidth="1"/>
     <col min="2" max="7" width="8.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="2"/>
-    <col min="9" max="10" width="7.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="2" customWidth="1"/>
     <col min="11" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -10987,14 +11371,14 @@
     </row>
     <row r="2" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="262" t="s">
+      <c r="B2" s="270" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="263"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="271"/>
     </row>
     <row r="3" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -11112,7 +11496,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9"/>
+      <c r="A9" s="296" t="s">
+        <v>324</v>
+      </c>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -11124,104 +11510,239 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="270" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="270"/>
+      <c r="D10" s="270"/>
+      <c r="E10" s="270"/>
+      <c r="F10" s="270"/>
+      <c r="G10" s="271"/>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
+    <row r="11" spans="1:10" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="297" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="298" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="298" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="298" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="298" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="298" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="299" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="298" t="s">
+        <v>328</v>
+      </c>
+      <c r="I11" s="298" t="s">
+        <v>329</v>
+      </c>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
+    <row r="12" spans="1:10" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="300" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="303">
+        <v>0</v>
+      </c>
+      <c r="C12" s="303">
+        <v>0</v>
+      </c>
+      <c r="D12" s="303">
+        <v>0</v>
+      </c>
+      <c r="E12" s="303">
+        <v>1</v>
+      </c>
+      <c r="F12" s="303">
+        <v>0</v>
+      </c>
+      <c r="G12" s="304">
+        <v>0</v>
+      </c>
+      <c r="H12" s="311">
+        <f>SUM(B12:G12)</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="313">
+        <v>1</v>
+      </c>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
+    <row r="13" spans="1:10" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="301" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="305">
+        <v>0</v>
+      </c>
+      <c r="C13" s="305">
+        <v>0</v>
+      </c>
+      <c r="D13" s="305">
+        <v>1</v>
+      </c>
+      <c r="E13" s="305">
+        <v>0</v>
+      </c>
+      <c r="F13" s="305">
+        <v>0</v>
+      </c>
+      <c r="G13" s="306">
+        <v>0</v>
+      </c>
+      <c r="H13" s="311">
+        <f t="shared" ref="H13:H15" si="0">SUM(B13:G13)</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="313">
+        <v>1</v>
+      </c>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
+    <row r="14" spans="1:10" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="301" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="305">
+        <v>0</v>
+      </c>
+      <c r="C14" s="305">
+        <v>1</v>
+      </c>
+      <c r="D14" s="305">
+        <v>0</v>
+      </c>
+      <c r="E14" s="305">
+        <v>0</v>
+      </c>
+      <c r="F14" s="305">
+        <v>0</v>
+      </c>
+      <c r="G14" s="306">
+        <v>0</v>
+      </c>
+      <c r="H14" s="311">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="313">
+        <v>1</v>
+      </c>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
+    <row r="15" spans="1:10" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="302" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="307">
+        <v>1</v>
+      </c>
+      <c r="C15" s="307">
+        <v>0</v>
+      </c>
+      <c r="D15" s="307">
+        <v>0</v>
+      </c>
+      <c r="E15" s="307">
+        <v>0</v>
+      </c>
+      <c r="F15" s="307">
+        <v>1</v>
+      </c>
+      <c r="G15" s="308">
+        <v>0</v>
+      </c>
+      <c r="H15" s="311">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I15" s="313">
+        <v>1</v>
+      </c>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
+    <row r="16" spans="1:10" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="309" t="s">
+        <v>326</v>
+      </c>
+      <c r="B16" s="310">
+        <f>SUM(B12:B15)</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="310">
+        <f t="shared" ref="C16:G16" si="1">SUM(C12:C15)</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="310">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="310">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="310">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="310">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
+    <row r="17" spans="1:10" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="296" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="312">
+        <v>1</v>
+      </c>
+      <c r="C17" s="313">
+        <v>2</v>
+      </c>
+      <c r="D17" s="313">
+        <v>1</v>
+      </c>
+      <c r="E17" s="313">
+        <v>1</v>
+      </c>
+      <c r="F17" s="313">
+        <v>1</v>
+      </c>
+      <c r="G17" s="313">
+        <v>1</v>
+      </c>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18"/>
-      <c r="B18"/>
+    <row r="18" spans="1:10" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="296" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18" s="243">
+        <f>SUMPRODUCT(B12:G15,B4:G7)</f>
+        <v>19.64</v>
+      </c>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
@@ -11292,9 +11813,15 @@
       <c r="J23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B10:G10"/>
   </mergeCells>
+  <conditionalFormatting sqref="B12:G15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="Sadrzaj!A1" display="Povratak na sadržaj" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
@@ -12539,14 +13066,14 @@
     </row>
     <row r="2" spans="2:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
-      <c r="C2" s="264" t="s">
+      <c r="C2" s="272" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
-      <c r="H2" s="266"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="274"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -13208,10 +13735,10 @@
       <c r="A1" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="242" t="s">
+      <c r="B1" s="250" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="242"/>
+      <c r="C1" s="250"/>
       <c r="F1" s="195">
         <v>640</v>
       </c>
@@ -13311,7 +13838,7 @@
       <c r="A10" s="202" t="s">
         <v>268</v>
       </c>
-      <c r="B10" s="272">
+      <c r="B10" s="241">
         <v>890</v>
       </c>
       <c r="C10" s="40"/>
@@ -13548,10 +14075,10 @@
       <c r="E11" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="267" t="s">
+      <c r="F11" s="275" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="268"/>
+      <c r="G11" s="276"/>
     </row>
     <row r="12" spans="2:8" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="155" t="s">
@@ -13666,13 +14193,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="165"/>
-      <c r="B2" s="269" t="s">
+      <c r="B2" s="277" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="271" t="s">
+      <c r="C2" s="277"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="279" t="s">
         <v>40</v>
       </c>
     </row>
@@ -13692,7 +14219,7 @@
       <c r="E3" s="168" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="271"/>
+      <c r="F3" s="279"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="169" t="s">
@@ -14250,11 +14777,11 @@
       <c r="C6" s="189">
         <v>40.000000000000007</v>
       </c>
-      <c r="E6" s="242" t="s">
+      <c r="E6" s="250" t="s">
         <v>260</v>
       </c>
-      <c r="F6" s="242"/>
-      <c r="G6" s="242"/>
+      <c r="F6" s="250"/>
+      <c r="G6" s="250"/>
     </row>
     <row r="7" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -14365,7 +14892,7 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14402,26 +14929,26 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="251" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="245" t="s">
+      <c r="B2" s="253" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="245"/>
-      <c r="D2" s="246" t="s">
+      <c r="C2" s="253"/>
+      <c r="D2" s="254" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="244"/>
+      <c r="A3" s="252"/>
       <c r="B3" s="82" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="247"/>
+      <c r="D3" s="255"/>
     </row>
     <row r="4" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
@@ -14469,10 +14996,10 @@
       <c r="A7" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="B7" s="277">
+      <c r="B7" s="246">
         <v>1200</v>
       </c>
-      <c r="C7" s="278">
+      <c r="C7" s="247">
         <v>1800</v>
       </c>
       <c r="D7" s="68"/>
@@ -14482,13 +15009,13 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="273" t="s">
+      <c r="A9" s="242" t="s">
         <v>249</v>
       </c>
-      <c r="B9" s="275">
+      <c r="B9" s="244">
         <v>1</v>
       </c>
-      <c r="C9" s="276">
+      <c r="C9" s="245">
         <v>1</v>
       </c>
       <c r="D9"/>
@@ -14503,10 +15030,10 @@
       <c r="E10"/>
     </row>
     <row r="11" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="274" t="s">
+      <c r="A11" s="243" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="279">
+      <c r="B11" s="248">
         <f>B7+C7</f>
         <v>3000</v>
       </c>
@@ -14545,17 +15072,17 @@
       <c r="E15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="243"/>
-      <c r="B16" s="245"/>
-      <c r="C16" s="245"/>
-      <c r="D16" s="246"/>
+      <c r="A16" s="251"/>
+      <c r="B16" s="253"/>
+      <c r="C16" s="253"/>
+      <c r="D16" s="254"/>
       <c r="E16"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="244"/>
+      <c r="A17" s="252"/>
       <c r="B17" s="187"/>
       <c r="C17" s="187"/>
-      <c r="D17" s="247"/>
+      <c r="D17" s="255"/>
       <c r="E17"/>
     </row>
     <row r="18" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
@@ -15413,8 +15940,8 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15453,18 +15980,18 @@
         <v>117</v>
       </c>
       <c r="B14" s="96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C14" s="96">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="96">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="96">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F14" s="37">
+        <v>0</v>
+      </c>
+      <c r="F14" s="280">
         <v>10000</v>
       </c>
     </row>
@@ -15473,18 +16000,18 @@
         <v>118</v>
       </c>
       <c r="B15" s="96">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="C15" s="96">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="D15" s="96">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E15" s="96">
-        <v>4.8</v>
-      </c>
-      <c r="F15" s="37">
+        <v>0</v>
+      </c>
+      <c r="F15" s="280">
         <v>12000</v>
       </c>
     </row>
@@ -15493,18 +16020,18 @@
         <v>119</v>
       </c>
       <c r="B16" s="96">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="C16" s="96">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="96">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="96">
-        <v>5.4</v>
-      </c>
-      <c r="F16" s="37">
+        <v>0</v>
+      </c>
+      <c r="F16" s="280">
         <v>14000</v>
       </c>
     </row>
@@ -15527,54 +16054,119 @@
       <c r="F17" s="37"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19"/>
+      <c r="A19" s="281" t="s">
+        <v>320</v>
+      </c>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-    </row>
-    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
+    <row r="20" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="93"/>
+      <c r="B20" s="284" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="284" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="284" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="284" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="95" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="282" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="286">
+        <v>0</v>
+      </c>
+      <c r="C21" s="287">
+        <v>0</v>
+      </c>
+      <c r="D21" s="287">
+        <v>0</v>
+      </c>
+      <c r="E21" s="288">
+        <v>10000</v>
+      </c>
+      <c r="F21" s="283">
+        <f>SUM(B21:E21)</f>
+        <v>10000</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-    </row>
-    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-    </row>
-    <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="282" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="289">
+        <v>0</v>
+      </c>
+      <c r="C22" s="96">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="96">
+        <v>6000</v>
+      </c>
+      <c r="E22" s="290">
+        <v>5000</v>
+      </c>
+      <c r="F22" s="283">
+        <f t="shared" ref="F22:F23" si="0">SUM(B22:E22)</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="282" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="291">
+        <v>9000</v>
+      </c>
+      <c r="C23" s="292">
+        <v>5000</v>
+      </c>
+      <c r="D23" s="292">
+        <v>0</v>
+      </c>
+      <c r="E23" s="293">
+        <v>0</v>
+      </c>
+      <c r="F23" s="283">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="B24" s="285">
+        <f>SUM(B21:B23)</f>
+        <v>9000</v>
+      </c>
+      <c r="C24" s="285">
+        <f t="shared" ref="C24:E24" si="1">SUM(C21:C23)</f>
+        <v>6000</v>
+      </c>
+      <c r="D24" s="285">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="E24" s="285">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="F24" s="37"/>
+    </row>
+    <row r="25" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -15582,15 +16174,20 @@
       <c r="E25"/>
       <c r="F25"/>
     </row>
-    <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26"/>
-      <c r="B26"/>
+    <row r="26" spans="1:6" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="294" t="s">
+        <v>323</v>
+      </c>
+      <c r="B26" s="295">
+        <f>SUMPRODUCT(B14:E16,B21:E23)</f>
+        <v>0</v>
+      </c>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -15615,7 +16212,7 @@
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15636,13 +16233,13 @@
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="2:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="248" t="s">
+      <c r="B3" s="256" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
-      <c r="F3" s="250"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="258"/>
       <c r="H3" s="35"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
@@ -15754,51 +16351,93 @@
       <c r="I9"/>
     </row>
     <row r="10" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
+      <c r="B10" s="256" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="257"/>
+      <c r="D10" s="257"/>
+      <c r="E10" s="257"/>
+      <c r="F10" s="258"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
     </row>
     <row r="11" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
+      <c r="B11" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>125</v>
+      </c>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
     </row>
     <row r="12" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
+      <c r="B12" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="14">
+        <v>10</v>
+      </c>
+      <c r="D12" s="14">
+        <v>10</v>
+      </c>
+      <c r="E12" s="14">
+        <v>10</v>
+      </c>
+      <c r="F12" s="14">
+        <v>10</v>
+      </c>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
+      <c r="B13" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="14">
+        <v>10</v>
+      </c>
+      <c r="D13" s="14">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14">
+        <v>10</v>
+      </c>
+      <c r="F13" s="14">
+        <v>10</v>
+      </c>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
     </row>
     <row r="14" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
+      <c r="B14" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14">
+        <v>10</v>
+      </c>
+      <c r="F14" s="14">
+        <v>10</v>
+      </c>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -15844,8 +16483,9 @@
       <c r="I18"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Sadrzaj!A1" display="Povratak na sadržaj" xr:uid="{00000000-0004-0000-0600-000000000000}"/>

--- a/3.1 Optimizacija (N).xlsx
+++ b/3.1 Optimizacija (N).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8392164B-9567-40A3-B9D5-6EF3CAF7E6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEC4C35-6222-43FC-BE1A-4D253731EC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="807" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="807" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sadrzaj" sheetId="29" r:id="rId1"/>
@@ -156,7 +156,7 @@
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Zad1!$B$13:$B$15</definedName>
     <definedName name="solver_lhs1" localSheetId="11" hidden="1">Zad10!$D$22:$E$22</definedName>
     <definedName name="solver_lhs1" localSheetId="12" hidden="1">Zad11!$B$11:$G$14</definedName>
-    <definedName name="solver_lhs1" localSheetId="13" hidden="1">Zad12!$C$22:$H$33</definedName>
+    <definedName name="solver_lhs1" localSheetId="13" hidden="1">Zad12!$C$33:$H$33</definedName>
     <definedName name="solver_lhs1" localSheetId="14" hidden="1">Zad13!#REF!</definedName>
     <definedName name="solver_lhs1" localSheetId="15" hidden="1">Zad14!$B$21:$B$24</definedName>
     <definedName name="solver_lhs1" localSheetId="16" hidden="1">Zad15!$C$11:$C$13</definedName>
@@ -177,7 +177,7 @@
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">Zad1!$B$15</definedName>
     <definedName name="solver_lhs2" localSheetId="11" hidden="1">Zad10!$F$19:$F$21</definedName>
     <definedName name="solver_lhs2" localSheetId="12" hidden="1">Zad11!$B$15:$G$15</definedName>
-    <definedName name="solver_lhs2" localSheetId="13" hidden="1">Zad12!$C$34:$H$34</definedName>
+    <definedName name="solver_lhs2" localSheetId="13" hidden="1">Zad12!$C$33:$H$33</definedName>
     <definedName name="solver_lhs2" localSheetId="14" hidden="1">Zad13!#REF!</definedName>
     <definedName name="solver_lhs2" localSheetId="15" hidden="1">Zad14!$C$25:$J$25</definedName>
     <definedName name="solver_lhs2" localSheetId="16" hidden="1">Zad15!$D$14:$H$14</definedName>
@@ -195,7 +195,7 @@
     <definedName name="solver_lhs2" localSheetId="10" hidden="1">Zad9!$C$19:$C$24</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">Zad1!$B$15</definedName>
     <definedName name="solver_lhs3" localSheetId="12" hidden="1">Zad11!$I$11:$I$14</definedName>
-    <definedName name="solver_lhs3" localSheetId="13" hidden="1">Zad12!$C$34:$H$34</definedName>
+    <definedName name="solver_lhs3" localSheetId="13" hidden="1">Zad12!$I$21:$I$32</definedName>
     <definedName name="solver_lhs3" localSheetId="16" hidden="1">Zad15!#REF!</definedName>
     <definedName name="solver_lhs3" localSheetId="18" hidden="1">Zad17!$B$12</definedName>
     <definedName name="solver_lhs3" localSheetId="19" hidden="1">Zad18!$H$5:$H$8</definedName>
@@ -351,7 +351,7 @@
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="12" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="13" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="14" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="15" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="16" hidden="1">0</definedName>
@@ -393,6 +393,7 @@
     <definedName name="solver_opt" localSheetId="1" hidden="1">Zad1!$B$10</definedName>
     <definedName name="solver_opt" localSheetId="11" hidden="1">Zad10!$D$25</definedName>
     <definedName name="solver_opt" localSheetId="12" hidden="1">Zad11!$B$18</definedName>
+    <definedName name="solver_opt" localSheetId="13" hidden="1">Zad12!$J$15</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">Zad2!$B$11</definedName>
     <definedName name="solver_opt" localSheetId="22" hidden="1">Zad21!$B$10</definedName>
     <definedName name="solver_opt" localSheetId="6" hidden="1">Zad5!$B$26</definedName>
@@ -442,7 +443,7 @@
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="12" hidden="1">5</definedName>
-    <definedName name="solver_rel1" localSheetId="13" hidden="1">5</definedName>
+    <definedName name="solver_rel1" localSheetId="13" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="14" hidden="1">5</definedName>
     <definedName name="solver_rel1" localSheetId="15" hidden="1">4</definedName>
     <definedName name="solver_rel1" localSheetId="16" hidden="1">1</definedName>
@@ -463,7 +464,7 @@
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="12" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="13" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="15" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="16" hidden="1">3</definedName>
@@ -481,7 +482,7 @@
     <definedName name="solver_rel2" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="12" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="13" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="19" hidden="1">3</definedName>
@@ -509,7 +510,7 @@
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">Zad1!$D$13:$D$15</definedName>
     <definedName name="solver_rhs1" localSheetId="11" hidden="1">Zad10!$D$23:$E$23</definedName>
     <definedName name="solver_rhs1" localSheetId="12" hidden="1">binary</definedName>
-    <definedName name="solver_rhs1" localSheetId="13" hidden="1">binary</definedName>
+    <definedName name="solver_rhs1" localSheetId="13" hidden="1">Zad12!$C$34:$H$34</definedName>
     <definedName name="solver_rhs1" localSheetId="14" hidden="1">binarni</definedName>
     <definedName name="solver_rhs1" localSheetId="15" hidden="1">integer</definedName>
     <definedName name="solver_rhs1" localSheetId="16" hidden="1">Zad15!$C$4:$C$6</definedName>
@@ -530,7 +531,7 @@
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">Zad1!$D$5</definedName>
     <definedName name="solver_rhs2" localSheetId="11" hidden="1">Zad10!$G$19:$G$21</definedName>
     <definedName name="solver_rhs2" localSheetId="12" hidden="1">Zad11!$B$16:$G$16</definedName>
-    <definedName name="solver_rhs2" localSheetId="13" hidden="1">Zad12!$C$36:$H$36</definedName>
+    <definedName name="solver_rhs2" localSheetId="13" hidden="1">Zad12!$C$34:$H$34</definedName>
     <definedName name="solver_rhs2" localSheetId="14" hidden="1">Zad13!#REF!</definedName>
     <definedName name="solver_rhs2" localSheetId="15" hidden="1">Zad14!$C$27:$J$27</definedName>
     <definedName name="solver_rhs2" localSheetId="16" hidden="1">Zad15!$D$7:$H$7</definedName>
@@ -548,7 +549,7 @@
     <definedName name="solver_rhs2" localSheetId="10" hidden="1">Zad9!$E$19:$E$24</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">Zad1!$D$5</definedName>
     <definedName name="solver_rhs3" localSheetId="12" hidden="1">Zad11!$J$11:$J$14</definedName>
-    <definedName name="solver_rhs3" localSheetId="13" hidden="1">Zad12!$C$35:$H$35</definedName>
+    <definedName name="solver_rhs3" localSheetId="13" hidden="1">Zad12!$J$21:$J$32</definedName>
     <definedName name="solver_rhs3" localSheetId="16" hidden="1">Zad15!$G$4:$G$6</definedName>
     <definedName name="solver_rhs3" localSheetId="18" hidden="1">Zad17!$F$5</definedName>
     <definedName name="solver_rhs3" localSheetId="19" hidden="1">Zad18!$F$12:$F$15</definedName>
@@ -722,7 +723,7 @@
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="12" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="13" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="16" hidden="1">1</definedName>
@@ -919,7 +920,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="337">
   <si>
     <t>Građevinska poduzeća</t>
   </si>
@@ -1974,12 +1975,33 @@
   <si>
     <t>Potrebno izvođaća</t>
   </si>
+  <si>
+    <t>Mislav</t>
+  </si>
+  <si>
+    <t>Dodijeljeno</t>
+  </si>
+  <si>
+    <t>Zadovoljstvo</t>
+  </si>
+  <si>
+    <t>Ukupno zadovljstvo</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Pojedinačno zadovljstvo limit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;kn&quot;_-;\-* #,##0.00\ &quot;kn&quot;_-;_-* &quot;-&quot;??\ &quot;kn&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_n_-;\-* #,##0.00\ _k_n_-;_-* &quot;-&quot;??\ _k_n_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;kn&quot;_-;\-* #,##0\ &quot;kn&quot;_-;_-* &quot;-&quot;??\ &quot;kn&quot;_-;_-@_-"/>
@@ -1988,6 +2010,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$kn-41A]_-;\-* #,##0.00\ [$kn-41A]_-;_-* &quot;-&quot;??\ [$kn-41A]_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
     <numFmt numFmtId="170" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
   <fonts count="41" x14ac:knownFonts="1">
     <font>
@@ -2293,7 +2316,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2375,6 +2398,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3556,7 +3585,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="14" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="314">
+  <cellXfs count="324">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4471,6 +4500,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="40" fillId="14" borderId="73" xfId="18" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="16" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4495,7 +4552,17 @@
     <cellStyle name="Normal 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -5248,16 +5315,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>459105</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>139065</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>291465</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>535305</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5272,8 +5339,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5202555" y="716280"/>
-          <a:ext cx="4032885" cy="1769745"/>
+          <a:off x="9191625" y="1167765"/>
+          <a:ext cx="4145280" cy="1701165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8641,15 +8708,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:F25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:F25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A4:F25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Vrsta zadatka" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Oznaka" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Zahtjevnost" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Opis" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Porijeklo" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Vrsta zadatka" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Oznaka" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Zahtjevnost" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Opis" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Porijeklo" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11350,7 +11417,7 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H18" sqref="H18:H19"/>
     </sheetView>
   </sheetViews>
@@ -11818,7 +11885,7 @@
     <mergeCell ref="B10:G10"/>
   </mergeCells>
   <conditionalFormatting sqref="B12:G15">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11838,17 +11905,18 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="123" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" style="123" customWidth="1"/>
-    <col min="3" max="8" width="6.33203125" style="123" customWidth="1"/>
+    <col min="3" max="7" width="6.33203125" style="123" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="123" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" style="136" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="136" customWidth="1"/>
+    <col min="10" max="10" width="27.88671875" style="136" customWidth="1"/>
     <col min="11" max="11" width="9.109375" style="136"/>
     <col min="12" max="16384" width="9.109375" style="123"/>
   </cols>
@@ -11888,12 +11956,30 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="120"/>
       <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
+      <c r="C3" s="314">
+        <f>AVERAGE(C5:C16)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="D3" s="314">
+        <f t="shared" ref="D3:H3" si="0">AVERAGE(D5:D16)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="E3" s="314">
+        <f t="shared" si="0"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="F3" s="314">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="G3" s="314">
+        <f t="shared" si="0"/>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="H3" s="314">
+        <f t="shared" si="0"/>
+        <v>3.4166666666666665</v>
+      </c>
       <c r="I3"/>
       <c r="J3" s="120"/>
       <c r="K3" s="120"/>
@@ -11920,20 +12006,24 @@
       <c r="H4" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="I4"/>
-      <c r="J4" s="120"/>
+      <c r="I4" s="318" t="s">
+        <v>332</v>
+      </c>
+      <c r="J4" s="124" t="s">
+        <v>336</v>
+      </c>
       <c r="K4" s="120"/>
       <c r="L4" s="120"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="120"/>
       <c r="B5" s="127" t="s">
-        <v>11</v>
+        <v>330</v>
       </c>
       <c r="C5" s="128">
         <v>6</v>
       </c>
-      <c r="D5" s="128">
+      <c r="D5" s="315">
         <v>1</v>
       </c>
       <c r="E5" s="128">
@@ -11942,14 +12032,19 @@
       <c r="F5" s="128">
         <v>5</v>
       </c>
-      <c r="G5" s="128">
+      <c r="G5" s="315">
         <v>2</v>
       </c>
       <c r="H5" s="128">
         <v>4</v>
       </c>
-      <c r="I5"/>
-      <c r="J5" s="120"/>
+      <c r="I5" s="243">
+        <f>SUMPRODUCT(C5:H5,C21:H21)</f>
+        <v>3</v>
+      </c>
+      <c r="J5" s="323">
+        <v>4</v>
+      </c>
       <c r="K5" s="120"/>
       <c r="L5" s="120"/>
     </row>
@@ -11976,8 +12071,13 @@
       <c r="H6" s="130">
         <v>4</v>
       </c>
-      <c r="I6"/>
-      <c r="J6" s="120"/>
+      <c r="I6" s="243">
+        <f t="shared" ref="I6:I16" si="1">SUMPRODUCT(C6:H6,C22:H22)</f>
+        <v>3</v>
+      </c>
+      <c r="J6" s="323">
+        <v>4</v>
+      </c>
       <c r="K6" s="120"/>
       <c r="L6" s="120"/>
     </row>
@@ -12004,8 +12104,13 @@
       <c r="H7" s="133">
         <v>6</v>
       </c>
-      <c r="I7"/>
-      <c r="J7" s="120"/>
+      <c r="I7" s="243">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="323">
+        <v>4</v>
+      </c>
       <c r="K7" s="120"/>
       <c r="L7" s="120"/>
     </row>
@@ -12032,8 +12137,13 @@
       <c r="H8" s="130">
         <v>2</v>
       </c>
-      <c r="I8"/>
-      <c r="J8" s="120"/>
+      <c r="I8" s="243">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="323">
+        <v>4</v>
+      </c>
       <c r="K8" s="120"/>
       <c r="L8" s="120"/>
     </row>
@@ -12060,8 +12170,13 @@
       <c r="H9" s="133">
         <v>2</v>
       </c>
-      <c r="I9"/>
-      <c r="J9" s="120"/>
+      <c r="I9" s="243">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J9" s="323">
+        <v>4</v>
+      </c>
       <c r="K9" s="120"/>
       <c r="L9" s="120"/>
     </row>
@@ -12088,8 +12203,13 @@
       <c r="H10" s="130">
         <v>3</v>
       </c>
-      <c r="I10"/>
-      <c r="J10" s="120"/>
+      <c r="I10" s="243">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J10" s="323">
+        <v>4</v>
+      </c>
       <c r="K10" s="120"/>
       <c r="L10" s="120"/>
     </row>
@@ -12116,8 +12236,13 @@
       <c r="H11" s="133">
         <v>4</v>
       </c>
-      <c r="I11"/>
-      <c r="J11" s="120"/>
+      <c r="I11" s="243">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="323">
+        <v>4</v>
+      </c>
       <c r="K11" s="120"/>
       <c r="L11" s="120"/>
     </row>
@@ -12144,8 +12269,13 @@
       <c r="H12" s="130">
         <v>5</v>
       </c>
-      <c r="I12"/>
-      <c r="J12" s="120"/>
+      <c r="I12" s="243">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="323">
+        <v>4</v>
+      </c>
       <c r="K12" s="120"/>
       <c r="L12" s="120"/>
     </row>
@@ -12172,8 +12302,13 @@
       <c r="H13" s="133">
         <v>2</v>
       </c>
-      <c r="I13"/>
-      <c r="J13" s="120"/>
+      <c r="I13" s="243">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="323">
+        <v>4</v>
+      </c>
       <c r="K13" s="120"/>
       <c r="L13" s="120"/>
     </row>
@@ -12200,8 +12335,13 @@
       <c r="H14" s="130">
         <v>4</v>
       </c>
-      <c r="I14"/>
-      <c r="J14" s="120"/>
+      <c r="I14" s="243">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="323">
+        <v>4</v>
+      </c>
       <c r="K14" s="120"/>
       <c r="L14" s="120"/>
     </row>
@@ -12228,12 +12368,17 @@
       <c r="H15" s="133">
         <v>4</v>
       </c>
-      <c r="I15"/>
-      <c r="J15" s="120"/>
+      <c r="I15" s="243">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="323">
+        <v>4</v>
+      </c>
       <c r="K15" s="120"/>
       <c r="L15" s="120"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="120"/>
       <c r="B16" s="134" t="s">
         <v>63</v>
@@ -12256,16 +12401,29 @@
       <c r="H16" s="135">
         <v>1</v>
       </c>
-      <c r="I16"/>
-      <c r="J16" s="120"/>
+      <c r="I16" s="243">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J16" s="323">
+        <v>4</v>
+      </c>
       <c r="K16" s="120"/>
       <c r="L16" s="120"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I17"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18"/>
+    <row r="17" spans="2:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H17" s="319" t="s">
+        <v>333</v>
+      </c>
+      <c r="I17" s="320">
+        <f>SUM(I5:I16)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>324</v>
+      </c>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
@@ -12289,193 +12447,485 @@
       <c r="K19"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="126" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="126" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="126" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="318" t="s">
+        <v>331</v>
+      </c>
+      <c r="J20" s="318" t="s">
+        <v>19</v>
+      </c>
       <c r="K20"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
+      <c r="B21" s="127" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" s="128">
+        <v>0</v>
+      </c>
+      <c r="D21" s="316">
+        <v>1</v>
+      </c>
+      <c r="E21" s="128">
+        <v>0</v>
+      </c>
+      <c r="F21" s="128">
+        <v>0</v>
+      </c>
+      <c r="G21" s="316">
+        <v>1</v>
+      </c>
+      <c r="H21" s="128">
+        <v>0</v>
+      </c>
+      <c r="I21" s="243">
+        <f>SUM(C21:H21)</f>
+        <v>2</v>
+      </c>
+      <c r="J21" s="322">
+        <v>2</v>
+      </c>
       <c r="K21"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
+      <c r="B22" s="129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="128">
+        <v>0</v>
+      </c>
+      <c r="D22" s="316">
+        <v>0</v>
+      </c>
+      <c r="E22" s="128">
+        <v>1</v>
+      </c>
+      <c r="F22" s="128">
+        <v>1</v>
+      </c>
+      <c r="G22" s="316">
+        <v>0</v>
+      </c>
+      <c r="H22" s="128">
+        <v>0</v>
+      </c>
+      <c r="I22" s="243">
+        <f t="shared" ref="I22:I32" si="2">SUM(C22:H22)</f>
+        <v>2</v>
+      </c>
+      <c r="J22" s="322">
+        <v>2</v>
+      </c>
       <c r="K22"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
+      <c r="B23" s="131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="128">
+        <v>0</v>
+      </c>
+      <c r="D23" s="316">
+        <v>1</v>
+      </c>
+      <c r="E23" s="128">
+        <v>0</v>
+      </c>
+      <c r="F23" s="128">
+        <v>0</v>
+      </c>
+      <c r="G23" s="316">
+        <v>0</v>
+      </c>
+      <c r="H23" s="128">
+        <v>0</v>
+      </c>
+      <c r="I23" s="243">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="322">
+        <v>2</v>
+      </c>
       <c r="K23"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
+      <c r="B24" s="129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="128">
+        <v>0</v>
+      </c>
+      <c r="D24" s="316">
+        <v>0</v>
+      </c>
+      <c r="E24" s="128">
+        <v>1</v>
+      </c>
+      <c r="F24" s="128">
+        <v>0</v>
+      </c>
+      <c r="G24" s="316">
+        <v>0</v>
+      </c>
+      <c r="H24" s="128">
+        <v>0</v>
+      </c>
+      <c r="I24" s="243">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="322">
+        <v>2</v>
+      </c>
       <c r="K24"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
+      <c r="B25" s="131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="128">
+        <v>0</v>
+      </c>
+      <c r="D25" s="316">
+        <v>0</v>
+      </c>
+      <c r="E25" s="128">
+        <v>0</v>
+      </c>
+      <c r="F25" s="128">
+        <v>1</v>
+      </c>
+      <c r="G25" s="316">
+        <v>0</v>
+      </c>
+      <c r="H25" s="128">
+        <v>0</v>
+      </c>
+      <c r="I25" s="243">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="322">
+        <v>2</v>
+      </c>
       <c r="K25"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
+      <c r="B26" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="128">
+        <v>0</v>
+      </c>
+      <c r="D26" s="316">
+        <v>0</v>
+      </c>
+      <c r="E26" s="128">
+        <v>1</v>
+      </c>
+      <c r="F26" s="128">
+        <v>0</v>
+      </c>
+      <c r="G26" s="316">
+        <v>1</v>
+      </c>
+      <c r="H26" s="128">
+        <v>1</v>
+      </c>
+      <c r="I26" s="243">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J26" s="322">
+        <v>2</v>
+      </c>
       <c r="K26"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
+      <c r="B27" s="131" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="128">
+        <v>0</v>
+      </c>
+      <c r="D27" s="316">
+        <v>0</v>
+      </c>
+      <c r="E27" s="128">
+        <v>0</v>
+      </c>
+      <c r="F27" s="128">
+        <v>0</v>
+      </c>
+      <c r="G27" s="316">
+        <v>1</v>
+      </c>
+      <c r="H27" s="128">
+        <v>0</v>
+      </c>
+      <c r="I27" s="243">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J27" s="322">
+        <v>2</v>
+      </c>
       <c r="K27"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
+      <c r="B28" s="129" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="128">
+        <v>0</v>
+      </c>
+      <c r="D28" s="316">
+        <v>0</v>
+      </c>
+      <c r="E28" s="128">
+        <v>0</v>
+      </c>
+      <c r="F28" s="128">
+        <v>0</v>
+      </c>
+      <c r="G28" s="316">
+        <v>0</v>
+      </c>
+      <c r="H28" s="128">
+        <v>0</v>
+      </c>
+      <c r="I28" s="243">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="322">
+        <v>2</v>
+      </c>
       <c r="K28"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
+      <c r="B29" s="131" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="128">
+        <v>0</v>
+      </c>
+      <c r="D29" s="316">
+        <v>0</v>
+      </c>
+      <c r="E29" s="128">
+        <v>0</v>
+      </c>
+      <c r="F29" s="128">
+        <v>0</v>
+      </c>
+      <c r="G29" s="316">
+        <v>0</v>
+      </c>
+      <c r="H29" s="128">
+        <v>0</v>
+      </c>
+      <c r="I29" s="243">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="322">
+        <v>2</v>
+      </c>
       <c r="K29"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
+      <c r="B30" s="129" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="128">
+        <v>0</v>
+      </c>
+      <c r="D30" s="316">
+        <v>0</v>
+      </c>
+      <c r="E30" s="128">
+        <v>0</v>
+      </c>
+      <c r="F30" s="128">
+        <v>0</v>
+      </c>
+      <c r="G30" s="316">
+        <v>0</v>
+      </c>
+      <c r="H30" s="128">
+        <v>0</v>
+      </c>
+      <c r="I30" s="243">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="322">
+        <v>2</v>
+      </c>
       <c r="K30"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
+      <c r="B31" s="131" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="128">
+        <v>0</v>
+      </c>
+      <c r="D31" s="316">
+        <v>0</v>
+      </c>
+      <c r="E31" s="128">
+        <v>0</v>
+      </c>
+      <c r="F31" s="128">
+        <v>0</v>
+      </c>
+      <c r="G31" s="316">
+        <v>0</v>
+      </c>
+      <c r="H31" s="128">
+        <v>0</v>
+      </c>
+      <c r="I31" s="243">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="322">
+        <v>2</v>
+      </c>
       <c r="K31"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
+      <c r="B32" s="134" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="128">
+        <v>0</v>
+      </c>
+      <c r="D32" s="316">
+        <v>0</v>
+      </c>
+      <c r="E32" s="128">
+        <v>1</v>
+      </c>
+      <c r="F32" s="128">
+        <v>1</v>
+      </c>
+      <c r="G32" s="316">
+        <v>1</v>
+      </c>
+      <c r="H32" s="128">
+        <v>0</v>
+      </c>
+      <c r="I32" s="243">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J32" s="322">
+        <v>2</v>
+      </c>
       <c r="K32"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
+      <c r="B33" s="317" t="s">
+        <v>331</v>
+      </c>
+      <c r="C33" s="243">
+        <f>SUM(C21:C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="243">
+        <f t="shared" ref="D33:H33" si="3">SUM(D21:D32)</f>
+        <v>2</v>
+      </c>
+      <c r="E33" s="243">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F33" s="243">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G33" s="243">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H33" s="243">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
+      <c r="B34" s="321" t="s">
+        <v>334</v>
+      </c>
+      <c r="C34" s="322">
+        <v>3</v>
+      </c>
+      <c r="D34" s="322">
+        <v>3</v>
+      </c>
+      <c r="E34" s="322">
+        <v>3</v>
+      </c>
+      <c r="F34" s="322">
+        <v>3</v>
+      </c>
+      <c r="G34" s="322">
+        <v>3</v>
+      </c>
+      <c r="H34" s="322">
+        <v>3</v>
+      </c>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
+      <c r="B35" s="317" t="s">
+        <v>335</v>
+      </c>
+      <c r="C35" s="322">
+        <v>6</v>
+      </c>
+      <c r="D35" s="322">
+        <v>6</v>
+      </c>
+      <c r="E35" s="322">
+        <v>6</v>
+      </c>
+      <c r="F35" s="322">
+        <v>6</v>
+      </c>
+      <c r="G35" s="322">
+        <v>6</v>
+      </c>
+      <c r="H35" s="322">
+        <v>6</v>
+      </c>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -12505,6 +12955,11 @@
       <c r="K37"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C21:H32 J21:J32 C34:H35">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B1" location="Sadrzaj!A1" display="Povratak na sadržaj" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
@@ -14892,7 +15347,7 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/3.1 Optimizacija (N).xlsx
+++ b/3.1 Optimizacija (N).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEC4C35-6222-43FC-BE1A-4D253731EC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF433CC0-00F1-4FA1-9A53-7BC5BB4A37B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="807" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="807" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sadrzaj" sheetId="29" r:id="rId1"/>
@@ -43,10 +43,8 @@
     <definedName name="PlanZ4">Zad4!$C$11:$F$11</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Zad1!$B$8:$C$8</definedName>
     <definedName name="solver_adj" localSheetId="11" hidden="1">Zad10!$D$19:$E$21</definedName>
-    <definedName name="solver_adj" localSheetId="12" hidden="1">Zad11!$B$12:$G$15</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Zad2!$B$9:$C$9</definedName>
     <definedName name="solver_adj" localSheetId="22" hidden="1">Zad21!$B$6:$C$6</definedName>
-    <definedName name="solver_adj" localSheetId="6" hidden="1">Zad5!$B$21:$E$23</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="11" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="12" hidden="1">0.0001</definedName>
@@ -156,8 +154,8 @@
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Zad1!$B$13:$B$15</definedName>
     <definedName name="solver_lhs1" localSheetId="11" hidden="1">Zad10!$D$22:$E$22</definedName>
     <definedName name="solver_lhs1" localSheetId="12" hidden="1">Zad11!$B$11:$G$14</definedName>
-    <definedName name="solver_lhs1" localSheetId="13" hidden="1">Zad12!$C$33:$H$33</definedName>
-    <definedName name="solver_lhs1" localSheetId="14" hidden="1">Zad13!#REF!</definedName>
+    <definedName name="solver_lhs1" localSheetId="13" hidden="1">Zad12!$C$22:$H$33</definedName>
+    <definedName name="solver_lhs1" localSheetId="14" hidden="1">Zad13!$E$18</definedName>
     <definedName name="solver_lhs1" localSheetId="15" hidden="1">Zad14!$B$21:$B$24</definedName>
     <definedName name="solver_lhs1" localSheetId="16" hidden="1">Zad15!$C$11:$C$13</definedName>
     <definedName name="solver_lhs1" localSheetId="17" hidden="1">Zad16!$C$18:$E$18</definedName>
@@ -169,7 +167,7 @@
     <definedName name="solver_lhs1" localSheetId="22" hidden="1">Zad21!$B$15:$B$16</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">Zad3!$B$12:$B$14</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">Zad4!$C$18:$C$22</definedName>
-    <definedName name="solver_lhs1" localSheetId="6" hidden="1">Zad5!$B$24:$E$24</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">Zad5!$B$21:$E$23</definedName>
     <definedName name="solver_lhs1" localSheetId="7" hidden="1">Zad6!$C$11:$F$13</definedName>
     <definedName name="solver_lhs1" localSheetId="8" hidden="1">Zad7!$C$22:$H$22</definedName>
     <definedName name="solver_lhs1" localSheetId="9" hidden="1">Zad8!$C$20</definedName>
@@ -177,7 +175,7 @@
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">Zad1!$B$15</definedName>
     <definedName name="solver_lhs2" localSheetId="11" hidden="1">Zad10!$F$19:$F$21</definedName>
     <definedName name="solver_lhs2" localSheetId="12" hidden="1">Zad11!$B$15:$G$15</definedName>
-    <definedName name="solver_lhs2" localSheetId="13" hidden="1">Zad12!$C$33:$H$33</definedName>
+    <definedName name="solver_lhs2" localSheetId="13" hidden="1">Zad12!$C$34:$H$34</definedName>
     <definedName name="solver_lhs2" localSheetId="14" hidden="1">Zad13!#REF!</definedName>
     <definedName name="solver_lhs2" localSheetId="15" hidden="1">Zad14!$C$25:$J$25</definedName>
     <definedName name="solver_lhs2" localSheetId="16" hidden="1">Zad15!$D$14:$H$14</definedName>
@@ -188,14 +186,14 @@
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">Zad2!$B$16</definedName>
     <definedName name="solver_lhs2" localSheetId="21" hidden="1">Zad20!$C$15</definedName>
     <definedName name="solver_lhs2" localSheetId="5" hidden="1">Zad4!$C$23</definedName>
-    <definedName name="solver_lhs2" localSheetId="6" hidden="1">Zad5!$F$21:$F$23</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">Zad5!$B$24:$E$24</definedName>
     <definedName name="solver_lhs2" localSheetId="7" hidden="1">Zad6!$C$14:$F$14</definedName>
     <definedName name="solver_lhs2" localSheetId="8" hidden="1">Zad7!$C$27:$C$28</definedName>
     <definedName name="solver_lhs2" localSheetId="9" hidden="1">Zad8!$E$18:$E$19</definedName>
     <definedName name="solver_lhs2" localSheetId="10" hidden="1">Zad9!$C$19:$C$24</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">Zad1!$B$15</definedName>
     <definedName name="solver_lhs3" localSheetId="12" hidden="1">Zad11!$I$11:$I$14</definedName>
-    <definedName name="solver_lhs3" localSheetId="13" hidden="1">Zad12!$I$21:$I$32</definedName>
+    <definedName name="solver_lhs3" localSheetId="13" hidden="1">Zad12!$C$34:$H$34</definedName>
     <definedName name="solver_lhs3" localSheetId="16" hidden="1">Zad15!#REF!</definedName>
     <definedName name="solver_lhs3" localSheetId="18" hidden="1">Zad17!$B$12</definedName>
     <definedName name="solver_lhs3" localSheetId="19" hidden="1">Zad18!$H$5:$H$8</definedName>
@@ -351,8 +349,8 @@
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="12" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="13" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="14" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="13" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="15" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="16" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="17" hidden="1">0</definedName>
@@ -364,7 +362,7 @@
     <definedName name="solver_num" localSheetId="22" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="9" hidden="1">0</definedName>
@@ -392,11 +390,8 @@
     <definedName name="solver_nwt" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Zad1!$B$10</definedName>
     <definedName name="solver_opt" localSheetId="11" hidden="1">Zad10!$D$25</definedName>
-    <definedName name="solver_opt" localSheetId="12" hidden="1">Zad11!$B$18</definedName>
-    <definedName name="solver_opt" localSheetId="13" hidden="1">Zad12!$J$15</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">Zad2!$B$11</definedName>
     <definedName name="solver_opt" localSheetId="22" hidden="1">Zad21!$B$10</definedName>
-    <definedName name="solver_opt" localSheetId="6" hidden="1">Zad5!$B$26</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="11" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="12" hidden="1">0.000001</definedName>
@@ -443,8 +438,8 @@
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="12" hidden="1">5</definedName>
-    <definedName name="solver_rel1" localSheetId="13" hidden="1">3</definedName>
-    <definedName name="solver_rel1" localSheetId="14" hidden="1">5</definedName>
+    <definedName name="solver_rel1" localSheetId="13" hidden="1">5</definedName>
+    <definedName name="solver_rel1" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="15" hidden="1">4</definedName>
     <definedName name="solver_rel1" localSheetId="16" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="17" hidden="1">1</definedName>
@@ -456,7 +451,7 @@
     <definedName name="solver_rel1" localSheetId="22" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">4</definedName>
     <definedName name="solver_rel1" localSheetId="7" hidden="1">4</definedName>
     <definedName name="solver_rel1" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="9" hidden="1">1</definedName>
@@ -464,7 +459,7 @@
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="12" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="13" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="15" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="16" hidden="1">3</definedName>
@@ -475,14 +470,14 @@
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="21" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="12" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="13" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="16" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="18" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="19" hidden="1">3</definedName>
@@ -510,8 +505,8 @@
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">Zad1!$D$13:$D$15</definedName>
     <definedName name="solver_rhs1" localSheetId="11" hidden="1">Zad10!$D$23:$E$23</definedName>
     <definedName name="solver_rhs1" localSheetId="12" hidden="1">binary</definedName>
-    <definedName name="solver_rhs1" localSheetId="13" hidden="1">Zad12!$C$34:$H$34</definedName>
-    <definedName name="solver_rhs1" localSheetId="14" hidden="1">binarni</definedName>
+    <definedName name="solver_rhs1" localSheetId="13" hidden="1">binary</definedName>
+    <definedName name="solver_rhs1" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="15" hidden="1">integer</definedName>
     <definedName name="solver_rhs1" localSheetId="16" hidden="1">Zad15!$C$4:$C$6</definedName>
     <definedName name="solver_rhs1" localSheetId="17" hidden="1">Zad16!$C$19:$E$19</definedName>
@@ -523,7 +518,7 @@
     <definedName name="solver_rhs1" localSheetId="22" hidden="1">Zad21!$D$15:$D$16</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">Zad3!$D$12:$D$14</definedName>
     <definedName name="solver_rhs1" localSheetId="5" hidden="1">Zad4!$E$18:$E$22</definedName>
-    <definedName name="solver_rhs1" localSheetId="6" hidden="1">Zad5!$B$17:$E$17</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">integer</definedName>
     <definedName name="solver_rhs1" localSheetId="7" hidden="1">integer</definedName>
     <definedName name="solver_rhs1" localSheetId="8" hidden="1">Zad7!$C$16:$H$16</definedName>
     <definedName name="solver_rhs1" localSheetId="9" hidden="1">Zad8!$E$10</definedName>
@@ -531,7 +526,7 @@
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">Zad1!$D$5</definedName>
     <definedName name="solver_rhs2" localSheetId="11" hidden="1">Zad10!$G$19:$G$21</definedName>
     <definedName name="solver_rhs2" localSheetId="12" hidden="1">Zad11!$B$16:$G$16</definedName>
-    <definedName name="solver_rhs2" localSheetId="13" hidden="1">Zad12!$C$34:$H$34</definedName>
+    <definedName name="solver_rhs2" localSheetId="13" hidden="1">Zad12!$C$36:$H$36</definedName>
     <definedName name="solver_rhs2" localSheetId="14" hidden="1">Zad13!#REF!</definedName>
     <definedName name="solver_rhs2" localSheetId="15" hidden="1">Zad14!$C$27:$J$27</definedName>
     <definedName name="solver_rhs2" localSheetId="16" hidden="1">Zad15!$D$7:$H$7</definedName>
@@ -542,14 +537,14 @@
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">Zad2!$D$16</definedName>
     <definedName name="solver_rhs2" localSheetId="21" hidden="1">Zad20!$E$34</definedName>
     <definedName name="solver_rhs2" localSheetId="5" hidden="1">Zad4!$E$23</definedName>
-    <definedName name="solver_rhs2" localSheetId="6" hidden="1">Zad5!$F$14:$F$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">Zad5!$B$17:$E$17</definedName>
     <definedName name="solver_rhs2" localSheetId="7" hidden="1">Zad6!$C$8:$F$8</definedName>
     <definedName name="solver_rhs2" localSheetId="8" hidden="1">Zad7!$E$27:$E$28</definedName>
     <definedName name="solver_rhs2" localSheetId="9" hidden="1">Zad8!$E$14:$E$15</definedName>
     <definedName name="solver_rhs2" localSheetId="10" hidden="1">Zad9!$E$19:$E$24</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">Zad1!$D$5</definedName>
     <definedName name="solver_rhs3" localSheetId="12" hidden="1">Zad11!$J$11:$J$14</definedName>
-    <definedName name="solver_rhs3" localSheetId="13" hidden="1">Zad12!$J$21:$J$32</definedName>
+    <definedName name="solver_rhs3" localSheetId="13" hidden="1">Zad12!$C$35:$H$35</definedName>
     <definedName name="solver_rhs3" localSheetId="16" hidden="1">Zad15!$G$4:$G$6</definedName>
     <definedName name="solver_rhs3" localSheetId="18" hidden="1">Zad17!$F$5</definedName>
     <definedName name="solver_rhs3" localSheetId="19" hidden="1">Zad18!$F$12:$F$15</definedName>
@@ -723,7 +718,7 @@
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="12" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="13" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="14" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="15" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="16" hidden="1">1</definedName>
@@ -736,7 +731,7 @@
     <definedName name="solver_typ" localSheetId="22" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="9" hidden="1">1</definedName>
@@ -920,7 +915,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="341">
   <si>
     <t>Građevinska poduzeća</t>
   </si>
@@ -1946,62 +1941,130 @@
     <t>Sveučilište VERN, ITM menadžment       Predmet: Kvantitativne metode u menadžmentu</t>
   </si>
   <si>
-    <t>Plan distribucije</t>
-  </si>
-  <si>
-    <t>Doveženo u skladište</t>
-  </si>
-  <si>
-    <t>Odvezeno iz tvornice</t>
-  </si>
-  <si>
-    <t>Trošak distribucije</t>
-  </si>
-  <si>
-    <t>Plan dodjele</t>
-  </si>
-  <si>
-    <t>Ukupan trošak</t>
-  </si>
-  <si>
-    <t>Dodijeljeno hotela</t>
-  </si>
-  <si>
-    <t>Maksimalan broj poslova</t>
-  </si>
-  <si>
-    <t>Dodijeljeno izvođaća</t>
-  </si>
-  <si>
-    <t>Potrebno izvođaća</t>
-  </si>
-  <si>
-    <t>Mislav</t>
-  </si>
-  <si>
-    <t>Dodijeljeno</t>
-  </si>
-  <si>
-    <t>Zadovoljstvo</t>
-  </si>
-  <si>
-    <t>Ukupno zadovljstvo</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Pojedinačno zadovljstvo limit</t>
+    <t>Projekt se izvodi</t>
+  </si>
+  <si>
+    <t>Ukupna NPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zbroj </t>
+  </si>
+  <si>
+    <t>TIP1</t>
+  </si>
+  <si>
+    <t>TIP2</t>
+  </si>
+  <si>
+    <t>Avionsko</t>
+  </si>
+  <si>
+    <t>Automobilsko</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Proizvedeno goriva</t>
+  </si>
+  <si>
+    <t>Potražnja avionskog goriva</t>
+  </si>
+  <si>
+    <t>Proizvedeno</t>
+  </si>
+  <si>
+    <t>Raspoloživost TIP1</t>
+  </si>
+  <si>
+    <t>Raspoloživost TIP2</t>
+  </si>
+  <si>
+    <t>Oktanski broj avio goriva</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>Oktanski broj auto goriva</t>
+  </si>
+  <si>
+    <t>Tlak isparivosti avio goriva</t>
+  </si>
+  <si>
+    <t>Tlak isparivosti auto goriva</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;kn&quot;_-;\-* #,##0.00\ &quot;kn&quot;_-;_-* &quot;-&quot;??\ &quot;kn&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_n_-;\-* #,##0.00\ _k_n_-;_-* &quot;-&quot;??\ _k_n_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;kn&quot;_-;\-* #,##0\ &quot;kn&quot;_-;_-* &quot;-&quot;??\ &quot;kn&quot;_-;_-@_-"/>
@@ -2010,9 +2073,8 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$kn-41A]_-;\-* #,##0.00\ [$kn-41A]_-;_-* &quot;-&quot;??\ [$kn-41A]_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
     <numFmt numFmtId="170" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2306,17 +2368,8 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2397,17 +2450,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="90">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -3340,111 +3388,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF00B050"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF00B050"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF00B050"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF00B050"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF00B050"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF00B050"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF00B050"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF00B050"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF00B050"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -3452,46 +3395,63 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FF00B050"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="thick">
+        <color rgb="FF009900"/>
       </left>
       <right style="thick">
-        <color rgb="FF00B050"/>
+        <color rgb="FF009900"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="thick">
+        <color rgb="FF009900"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FF00B050"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF00B050"/>
+        <color rgb="FF009900"/>
       </left>
-      <right style="thin">
+      <right style="thick">
+        <color rgb="FF009900"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF00B050"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thick">
+        <color rgb="FF009900"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF009900"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF009900"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF009900"/>
+      </left>
       <right/>
       <top style="thick">
-        <color rgb="FF00B050"/>
+        <color rgb="FF009900"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -3499,69 +3459,38 @@
     <border>
       <left/>
       <right style="thick">
-        <color rgb="FF00B050"/>
+        <color rgb="FF009900"/>
       </right>
       <top style="thick">
-        <color rgb="FF00B050"/>
+        <color rgb="FF009900"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF00B050"/>
+        <color rgb="FF009900"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF00B050"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF00B050"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF00B050"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thick">
-        <color rgb="FF00B050"/>
+        <color rgb="FF009900"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color rgb="FF00B050"/>
+        <color rgb="FF009900"/>
       </right>
       <top/>
       <bottom style="thick">
-        <color rgb="FF00B050"/>
+        <color rgb="FF009900"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3583,9 +3512,8 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="324">
+  <cellXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4133,9 +4061,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4400,139 +4325,56 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="31" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="73" xfId="18" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="40" fillId="14" borderId="73" xfId="18" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="16" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="19">
-    <cellStyle name="Check Cell" xfId="18" builtinId="23"/>
+  <cellStyles count="18">
     <cellStyle name="Comma 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Currency 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -4552,24 +4394,14 @@
     <cellStyle name="Normal 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="10">
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5315,16 +5147,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>139065</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>459105</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>535305</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>291465</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5339,8 +5171,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9191625" y="1167765"/>
-          <a:ext cx="4145280" cy="1701165"/>
+          <a:off x="5202555" y="716280"/>
+          <a:ext cx="4032885" cy="1769745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5418,16 +5250,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>116206</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167641</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5442,8 +5274,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19050" y="4307206"/>
-          <a:ext cx="4619625" cy="2617470"/>
+          <a:off x="8804910" y="596266"/>
+          <a:ext cx="3851910" cy="2634615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8708,15 +8540,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:F25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:F25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A4:F25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Vrsta zadatka" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Oznaka" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Zahtjevnost" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Opis" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Porijeklo" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Vrsta zadatka" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Oznaka" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Zahtjevnost" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Opis" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Porijeklo" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9064,20 +8896,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="249" t="s">
+      <c r="A1" s="248" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="249"/>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
       <c r="F1" s="179"/>
     </row>
     <row r="2" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="179"/>
       <c r="B2" s="179"/>
       <c r="C2" s="179"/>
-      <c r="D2" s="199"/>
+      <c r="D2" s="198"/>
       <c r="E2" s="179"/>
       <c r="F2" s="179"/>
     </row>
@@ -9504,22 +9336,22 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="197" t="s">
+      <c r="A25" s="196" t="s">
         <v>197</v>
       </c>
-      <c r="B25" s="197" t="s">
+      <c r="B25" s="196" t="s">
         <v>263</v>
       </c>
-      <c r="C25" s="197">
+      <c r="C25" s="196">
         <v>3</v>
       </c>
-      <c r="D25" s="199" t="s">
+      <c r="D25" s="198" t="s">
         <v>264</v>
       </c>
-      <c r="E25" s="198" t="s">
+      <c r="E25" s="197" t="s">
         <v>265</v>
       </c>
-      <c r="F25" s="197" t="s">
+      <c r="F25" s="196" t="s">
         <v>266</v>
       </c>
     </row>
@@ -10126,16 +9958,16 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" style="22" customWidth="1"/>
     <col min="3" max="6" width="15.5546875" style="84" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="84"/>
   </cols>
@@ -10190,7 +10022,7 @@
       <c r="E10" s="48">
         <v>20000</v>
       </c>
-      <c r="F10" s="185">
+      <c r="F10" s="285">
         <v>45.1</v>
       </c>
       <c r="G10"/>
@@ -10210,7 +10042,7 @@
       <c r="E11" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="185">
+      <c r="F11" s="285">
         <v>32.4</v>
       </c>
       <c r="G11"/>
@@ -10253,7 +10085,7 @@
       <c r="D14" s="25">
         <v>5</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="286">
         <v>30000</v>
       </c>
       <c r="F14" s="27"/>
@@ -10269,7 +10101,7 @@
       <c r="D15" s="25">
         <v>9</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="286">
         <v>70000</v>
       </c>
       <c r="F15" s="27"/>
@@ -10282,38 +10114,72 @@
       <c r="E16" s="26"/>
       <c r="F16" s="27"/>
     </row>
-    <row r="17" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="24"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
+      <c r="B17" s="287" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="242" t="s">
+        <v>325</v>
+      </c>
+      <c r="D17" s="242" t="s">
+        <v>326</v>
+      </c>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
+    <row r="18" spans="1:8" ht="22.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="288" t="s">
+        <v>323</v>
+      </c>
+      <c r="C18" s="289">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="290">
+        <v>1000</v>
+      </c>
       <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
+      <c r="F18" s="289" t="s">
+        <v>327</v>
+      </c>
+      <c r="G18" s="290" t="s">
+        <v>330</v>
+      </c>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
+    <row r="19" spans="1:8" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="288" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" s="291">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="292">
+        <v>1000</v>
+      </c>
       <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
+      <c r="F19" s="291" t="s">
+        <v>328</v>
+      </c>
+      <c r="G19" s="292" t="s">
+        <v>329</v>
+      </c>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
+    <row r="20" spans="1:8" ht="22.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="287" t="s">
+        <v>331</v>
+      </c>
+      <c r="C20" s="242">
+        <f>SUM(C18:C19)</f>
+        <v>2000</v>
+      </c>
+      <c r="D20" s="242">
+        <f>SUM(D18:D19)</f>
+        <v>2000</v>
+      </c>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
@@ -10328,7 +10194,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -10337,16 +10203,21 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23"/>
-      <c r="C23"/>
+    <row r="23" spans="1:8" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C23" s="293">
+        <f>((C18+C19)*F10+(D18+D19)*F11)</f>
+        <v>155000</v>
+      </c>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="22.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -10354,6 +10225,107 @@
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
+    </row>
+    <row r="25" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="84" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="C26" s="84">
+        <f>C20</f>
+        <v>2000</v>
+      </c>
+      <c r="D26" s="84" t="s">
+        <v>261</v>
+      </c>
+      <c r="E26" s="294">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="C27" s="84">
+        <f>C18+D18</f>
+        <v>2000</v>
+      </c>
+      <c r="D27" s="84" t="s">
+        <v>261</v>
+      </c>
+      <c r="E27" s="294">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="C28" s="84">
+        <f>D18+D19</f>
+        <v>2000</v>
+      </c>
+      <c r="D28" s="84" t="s">
+        <v>261</v>
+      </c>
+      <c r="E28" s="294">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C29" s="84">
+        <f>(C18*C14)+(C19*C15)/C18+C19</f>
+        <v>105094</v>
+      </c>
+      <c r="D29" s="84" t="s">
+        <v>337</v>
+      </c>
+      <c r="E29" s="84">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="D30" s="84" t="s">
+        <v>337</v>
+      </c>
+      <c r="E30" s="84">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" s="84" t="s">
+        <v>261</v>
+      </c>
+      <c r="E31" s="84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="D32" s="84" t="s">
+        <v>261</v>
+      </c>
+      <c r="E32" s="84">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <scenarios current="0">
@@ -10403,24 +10375,24 @@
       <c r="B2" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="265" t="s">
+      <c r="C2" s="264" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="265"/>
-      <c r="E2" s="266" t="s">
+      <c r="D2" s="264"/>
+      <c r="E2" s="265" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="266"/>
-      <c r="G2" s="267" t="s">
+      <c r="F2" s="265"/>
+      <c r="G2" s="266" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="268"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="266" t="s">
+      <c r="H2" s="267"/>
+      <c r="I2" s="268"/>
+      <c r="J2" s="265" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="266"/>
-      <c r="L2" s="266"/>
+      <c r="K2" s="265"/>
+      <c r="L2" s="265"/>
       <c r="M2" s="56"/>
     </row>
     <row r="3" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10607,17 +10579,17 @@
       <c r="B8" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="259"/>
-      <c r="D8" s="260"/>
-      <c r="E8" s="261">
+      <c r="C8" s="258"/>
+      <c r="D8" s="259"/>
+      <c r="E8" s="260">
         <v>120</v>
       </c>
-      <c r="F8" s="262"/>
-      <c r="G8" s="259">
+      <c r="F8" s="261"/>
+      <c r="G8" s="258">
         <v>120</v>
       </c>
-      <c r="H8" s="263"/>
-      <c r="I8" s="260"/>
+      <c r="H8" s="262"/>
+      <c r="I8" s="259"/>
       <c r="J8" s="119"/>
       <c r="K8" s="119"/>
       <c r="L8" s="119"/>
@@ -10627,24 +10599,24 @@
       <c r="B9" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="259">
+      <c r="C9" s="258">
         <v>15</v>
       </c>
-      <c r="D9" s="260"/>
-      <c r="E9" s="261">
+      <c r="D9" s="259"/>
+      <c r="E9" s="260">
         <v>25</v>
       </c>
-      <c r="F9" s="262"/>
-      <c r="G9" s="259">
+      <c r="F9" s="261"/>
+      <c r="G9" s="258">
         <v>35</v>
       </c>
-      <c r="H9" s="263"/>
-      <c r="I9" s="260"/>
-      <c r="J9" s="261">
+      <c r="H9" s="262"/>
+      <c r="I9" s="259"/>
+      <c r="J9" s="260">
         <v>20</v>
       </c>
-      <c r="K9" s="264"/>
-      <c r="L9" s="262"/>
+      <c r="K9" s="263"/>
+      <c r="L9" s="261"/>
       <c r="M9" s="56"/>
     </row>
     <row r="10" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -11113,11 +11085,11 @@
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5"/>
-      <c r="C5" s="205"/>
-      <c r="D5" s="206" t="s">
+      <c r="C5" s="204"/>
+      <c r="D5" s="205" t="s">
         <v>272</v>
       </c>
-      <c r="E5" s="206" t="s">
+      <c r="E5" s="205" t="s">
         <v>273</v>
       </c>
       <c r="F5"/>
@@ -11128,13 +11100,13 @@
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6"/>
-      <c r="C6" s="216">
+      <c r="C6" s="215">
         <v>44095</v>
       </c>
-      <c r="D6" s="215">
+      <c r="D6" s="214">
         <v>17</v>
       </c>
-      <c r="E6" s="215">
+      <c r="E6" s="214">
         <v>18.5</v>
       </c>
       <c r="F6"/>
@@ -11145,14 +11117,14 @@
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7"/>
-      <c r="C7" s="216">
+      <c r="C7" s="215">
         <v>44099</v>
       </c>
-      <c r="D7" s="205">
+      <c r="D7" s="204">
         <f>$D$6+(C7-C$6)*0.25</f>
         <v>18</v>
       </c>
-      <c r="E7" s="205">
+      <c r="E7" s="204">
         <f>E$6+(C7-C$6)*0.25</f>
         <v>19.5</v>
       </c>
@@ -11164,14 +11136,14 @@
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8"/>
-      <c r="C8" s="216">
+      <c r="C8" s="215">
         <v>44101</v>
       </c>
-      <c r="D8" s="205">
+      <c r="D8" s="204">
         <f>$D$6+(C8-C$6)*0.25</f>
         <v>18.5</v>
       </c>
-      <c r="E8" s="205">
+      <c r="E8" s="204">
         <f>E$6+(C8-C$6)*0.25</f>
         <v>20</v>
       </c>
@@ -11207,11 +11179,11 @@
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
-      <c r="C11" s="205"/>
-      <c r="D11" s="206" t="s">
+      <c r="C11" s="204"/>
+      <c r="D11" s="205" t="s">
         <v>272</v>
       </c>
-      <c r="E11" s="206" t="s">
+      <c r="E11" s="205" t="s">
         <v>273</v>
       </c>
       <c r="F11"/>
@@ -11222,14 +11194,14 @@
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
-      <c r="C12" s="216">
+      <c r="C12" s="215">
         <v>44095</v>
       </c>
-      <c r="D12" s="217">
+      <c r="D12" s="216">
         <f>0.42+D6*0.02</f>
         <v>0.76</v>
       </c>
-      <c r="E12" s="217">
+      <c r="E12" s="216">
         <f>0.4+E6*0.02</f>
         <v>0.77</v>
       </c>
@@ -11241,14 +11213,14 @@
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
-      <c r="C13" s="216">
+      <c r="C13" s="215">
         <v>44099</v>
       </c>
-      <c r="D13" s="217">
+      <c r="D13" s="216">
         <f t="shared" ref="D13:D14" si="0">0.42+D7*0.02</f>
         <v>0.78</v>
       </c>
-      <c r="E13" s="217">
+      <c r="E13" s="216">
         <f t="shared" ref="E13:E14" si="1">0.4+E7*0.02</f>
         <v>0.79</v>
       </c>
@@ -11260,14 +11232,14 @@
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
-      <c r="C14" s="216">
+      <c r="C14" s="215">
         <v>44101</v>
       </c>
-      <c r="D14" s="217">
+      <c r="D14" s="216">
         <f t="shared" si="0"/>
         <v>0.79</v>
       </c>
-      <c r="E14" s="217">
+      <c r="E14" s="216">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -11288,33 +11260,33 @@
       <c r="I15"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="204" t="s">
+      <c r="B17" s="203" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="205"/>
-      <c r="D18" s="206" t="s">
+      <c r="C18" s="204"/>
+      <c r="D18" s="205" t="s">
         <v>272</v>
       </c>
-      <c r="E18" s="206" t="s">
+      <c r="E18" s="205" t="s">
         <v>273</v>
       </c>
-      <c r="F18" s="219" t="s">
+      <c r="F18" s="218" t="s">
         <v>277</v>
       </c>
-      <c r="G18" s="219" t="s">
+      <c r="G18" s="218" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="216">
+      <c r="C19" s="215">
         <v>44095</v>
       </c>
-      <c r="D19" s="207">
+      <c r="D19" s="206">
         <v>1100</v>
       </c>
-      <c r="E19" s="208">
+      <c r="E19" s="207">
         <v>0</v>
       </c>
       <c r="F19" s="120">
@@ -11326,13 +11298,13 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="216">
+      <c r="C20" s="215">
         <v>44099</v>
       </c>
-      <c r="D20" s="209">
+      <c r="D20" s="208">
         <v>700</v>
       </c>
-      <c r="E20" s="210">
+      <c r="E20" s="209">
         <v>400</v>
       </c>
       <c r="F20" s="120">
@@ -11344,13 +11316,13 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="216">
+      <c r="C21" s="215">
         <v>44101</v>
       </c>
-      <c r="D21" s="211">
+      <c r="D21" s="210">
         <v>0</v>
       </c>
-      <c r="E21" s="212">
+      <c r="E21" s="211">
         <v>800</v>
       </c>
       <c r="F21" s="120">
@@ -11362,7 +11334,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="218" t="s">
+      <c r="C22" s="217" t="s">
         <v>276</v>
       </c>
       <c r="D22" s="120">
@@ -11375,7 +11347,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="218" t="s">
+      <c r="C23" s="217" t="s">
         <v>255</v>
       </c>
       <c r="D23" s="120">
@@ -11387,11 +11359,11 @@
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="213"/>
-      <c r="C25" s="213" t="s">
+      <c r="B25" s="212"/>
+      <c r="C25" s="212" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="214">
+      <c r="D25" s="213">
         <f>SUMPRODUCT(D19:E21,D12:E14)</f>
         <v>2338</v>
       </c>
@@ -11418,16 +11390,15 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="7" width="8.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="2"/>
+    <col min="9" max="10" width="7.5546875" style="2" customWidth="1"/>
     <col min="11" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -11438,14 +11409,14 @@
     </row>
     <row r="2" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="270" t="s">
+      <c r="B2" s="269" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="271"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="270"/>
     </row>
     <row r="3" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -11540,7 +11511,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="186" t="s">
+      <c r="A7" s="185" t="s">
         <v>228</v>
       </c>
       <c r="B7" s="79">
@@ -11563,9 +11534,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="296" t="s">
-        <v>324</v>
-      </c>
+      <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -11577,239 +11546,104 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="270" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="270"/>
-      <c r="D10" s="270"/>
-      <c r="E10" s="270"/>
-      <c r="F10" s="270"/>
-      <c r="G10" s="271"/>
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:10" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="297" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="298" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="298" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="298" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="298" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="298" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="299" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="298" t="s">
-        <v>328</v>
-      </c>
-      <c r="I11" s="298" t="s">
-        <v>329</v>
-      </c>
+    <row r="11" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:10" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="300" t="s">
-        <v>225</v>
-      </c>
-      <c r="B12" s="303">
-        <v>0</v>
-      </c>
-      <c r="C12" s="303">
-        <v>0</v>
-      </c>
-      <c r="D12" s="303">
-        <v>0</v>
-      </c>
-      <c r="E12" s="303">
-        <v>1</v>
-      </c>
-      <c r="F12" s="303">
-        <v>0</v>
-      </c>
-      <c r="G12" s="304">
-        <v>0</v>
-      </c>
-      <c r="H12" s="311">
-        <f>SUM(B12:G12)</f>
-        <v>1</v>
-      </c>
-      <c r="I12" s="313">
-        <v>1</v>
-      </c>
+    <row r="12" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:10" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="301" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" s="305">
-        <v>0</v>
-      </c>
-      <c r="C13" s="305">
-        <v>0</v>
-      </c>
-      <c r="D13" s="305">
-        <v>1</v>
-      </c>
-      <c r="E13" s="305">
-        <v>0</v>
-      </c>
-      <c r="F13" s="305">
-        <v>0</v>
-      </c>
-      <c r="G13" s="306">
-        <v>0</v>
-      </c>
-      <c r="H13" s="311">
-        <f t="shared" ref="H13:H15" si="0">SUM(B13:G13)</f>
-        <v>1</v>
-      </c>
-      <c r="I13" s="313">
-        <v>1</v>
-      </c>
+    <row r="13" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:10" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="301" t="s">
-        <v>227</v>
-      </c>
-      <c r="B14" s="305">
-        <v>0</v>
-      </c>
-      <c r="C14" s="305">
-        <v>1</v>
-      </c>
-      <c r="D14" s="305">
-        <v>0</v>
-      </c>
-      <c r="E14" s="305">
-        <v>0</v>
-      </c>
-      <c r="F14" s="305">
-        <v>0</v>
-      </c>
-      <c r="G14" s="306">
-        <v>0</v>
-      </c>
-      <c r="H14" s="311">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I14" s="313">
-        <v>1</v>
-      </c>
+    <row r="14" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="302" t="s">
-        <v>228</v>
-      </c>
-      <c r="B15" s="307">
-        <v>1</v>
-      </c>
-      <c r="C15" s="307">
-        <v>0</v>
-      </c>
-      <c r="D15" s="307">
-        <v>0</v>
-      </c>
-      <c r="E15" s="307">
-        <v>0</v>
-      </c>
-      <c r="F15" s="307">
-        <v>1</v>
-      </c>
-      <c r="G15" s="308">
-        <v>0</v>
-      </c>
-      <c r="H15" s="311">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I15" s="313">
-        <v>1</v>
-      </c>
+    <row r="15" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="309" t="s">
-        <v>326</v>
-      </c>
-      <c r="B16" s="310">
-        <f>SUM(B12:B15)</f>
-        <v>1</v>
-      </c>
-      <c r="C16" s="310">
-        <f t="shared" ref="C16:G16" si="1">SUM(C12:C15)</f>
-        <v>1</v>
-      </c>
-      <c r="D16" s="310">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E16" s="310">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F16" s="310">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G16" s="310">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+    <row r="16" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="296" t="s">
-        <v>327</v>
-      </c>
-      <c r="B17" s="312">
-        <v>1</v>
-      </c>
-      <c r="C17" s="313">
-        <v>2</v>
-      </c>
-      <c r="D17" s="313">
-        <v>1</v>
-      </c>
-      <c r="E17" s="313">
-        <v>1</v>
-      </c>
-      <c r="F17" s="313">
-        <v>1</v>
-      </c>
-      <c r="G17" s="313">
-        <v>1</v>
-      </c>
+    <row r="17" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="296" t="s">
-        <v>325</v>
-      </c>
-      <c r="B18" s="243">
-        <f>SUMPRODUCT(B12:G15,B4:G7)</f>
-        <v>19.64</v>
-      </c>
+    <row r="18" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18"/>
+      <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
@@ -11880,15 +11714,9 @@
       <c r="J23"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B10:G10"/>
   </mergeCells>
-  <conditionalFormatting sqref="B12:G15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="Sadrzaj!A1" display="Povratak na sadržaj" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
@@ -11905,18 +11733,17 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="123" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" style="123" customWidth="1"/>
-    <col min="3" max="7" width="6.33203125" style="123" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" style="123" customWidth="1"/>
+    <col min="3" max="8" width="6.33203125" style="123" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" style="136" customWidth="1"/>
-    <col min="10" max="10" width="27.88671875" style="136" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="136" customWidth="1"/>
     <col min="11" max="11" width="9.109375" style="136"/>
     <col min="12" max="16384" width="9.109375" style="123"/>
   </cols>
@@ -11956,30 +11783,12 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="120"/>
       <c r="B3" s="120"/>
-      <c r="C3" s="314">
-        <f>AVERAGE(C5:C16)</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="D3" s="314">
-        <f t="shared" ref="D3:H3" si="0">AVERAGE(D5:D16)</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="E3" s="314">
-        <f t="shared" si="0"/>
-        <v>2.8333333333333335</v>
-      </c>
-      <c r="F3" s="314">
-        <f t="shared" si="0"/>
-        <v>3.25</v>
-      </c>
-      <c r="G3" s="314">
-        <f t="shared" si="0"/>
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="H3" s="314">
-        <f t="shared" si="0"/>
-        <v>3.4166666666666665</v>
-      </c>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
       <c r="I3"/>
       <c r="J3" s="120"/>
       <c r="K3" s="120"/>
@@ -12006,24 +11815,20 @@
       <c r="H4" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="318" t="s">
-        <v>332</v>
-      </c>
-      <c r="J4" s="124" t="s">
-        <v>336</v>
-      </c>
+      <c r="I4"/>
+      <c r="J4" s="120"/>
       <c r="K4" s="120"/>
       <c r="L4" s="120"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="120"/>
       <c r="B5" s="127" t="s">
-        <v>330</v>
+        <v>11</v>
       </c>
       <c r="C5" s="128">
         <v>6</v>
       </c>
-      <c r="D5" s="315">
+      <c r="D5" s="128">
         <v>1</v>
       </c>
       <c r="E5" s="128">
@@ -12032,19 +11837,14 @@
       <c r="F5" s="128">
         <v>5</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="128">
         <v>2</v>
       </c>
       <c r="H5" s="128">
         <v>4</v>
       </c>
-      <c r="I5" s="243">
-        <f>SUMPRODUCT(C5:H5,C21:H21)</f>
-        <v>3</v>
-      </c>
-      <c r="J5" s="323">
-        <v>4</v>
-      </c>
+      <c r="I5"/>
+      <c r="J5" s="120"/>
       <c r="K5" s="120"/>
       <c r="L5" s="120"/>
     </row>
@@ -12071,13 +11871,8 @@
       <c r="H6" s="130">
         <v>4</v>
       </c>
-      <c r="I6" s="243">
-        <f t="shared" ref="I6:I16" si="1">SUMPRODUCT(C6:H6,C22:H22)</f>
-        <v>3</v>
-      </c>
-      <c r="J6" s="323">
-        <v>4</v>
-      </c>
+      <c r="I6"/>
+      <c r="J6" s="120"/>
       <c r="K6" s="120"/>
       <c r="L6" s="120"/>
     </row>
@@ -12104,13 +11899,8 @@
       <c r="H7" s="133">
         <v>6</v>
       </c>
-      <c r="I7" s="243">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J7" s="323">
-        <v>4</v>
-      </c>
+      <c r="I7"/>
+      <c r="J7" s="120"/>
       <c r="K7" s="120"/>
       <c r="L7" s="120"/>
     </row>
@@ -12137,13 +11927,8 @@
       <c r="H8" s="130">
         <v>2</v>
       </c>
-      <c r="I8" s="243">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J8" s="323">
-        <v>4</v>
-      </c>
+      <c r="I8"/>
+      <c r="J8" s="120"/>
       <c r="K8" s="120"/>
       <c r="L8" s="120"/>
     </row>
@@ -12170,13 +11955,8 @@
       <c r="H9" s="133">
         <v>2</v>
       </c>
-      <c r="I9" s="243">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J9" s="323">
-        <v>4</v>
-      </c>
+      <c r="I9"/>
+      <c r="J9" s="120"/>
       <c r="K9" s="120"/>
       <c r="L9" s="120"/>
     </row>
@@ -12203,13 +11983,8 @@
       <c r="H10" s="130">
         <v>3</v>
       </c>
-      <c r="I10" s="243">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="J10" s="323">
-        <v>4</v>
-      </c>
+      <c r="I10"/>
+      <c r="J10" s="120"/>
       <c r="K10" s="120"/>
       <c r="L10" s="120"/>
     </row>
@@ -12236,13 +12011,8 @@
       <c r="H11" s="133">
         <v>4</v>
       </c>
-      <c r="I11" s="243">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J11" s="323">
-        <v>4</v>
-      </c>
+      <c r="I11"/>
+      <c r="J11" s="120"/>
       <c r="K11" s="120"/>
       <c r="L11" s="120"/>
     </row>
@@ -12269,13 +12039,8 @@
       <c r="H12" s="130">
         <v>5</v>
       </c>
-      <c r="I12" s="243">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="323">
-        <v>4</v>
-      </c>
+      <c r="I12"/>
+      <c r="J12" s="120"/>
       <c r="K12" s="120"/>
       <c r="L12" s="120"/>
     </row>
@@ -12302,13 +12067,8 @@
       <c r="H13" s="133">
         <v>2</v>
       </c>
-      <c r="I13" s="243">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="323">
-        <v>4</v>
-      </c>
+      <c r="I13"/>
+      <c r="J13" s="120"/>
       <c r="K13" s="120"/>
       <c r="L13" s="120"/>
     </row>
@@ -12335,13 +12095,8 @@
       <c r="H14" s="130">
         <v>4</v>
       </c>
-      <c r="I14" s="243">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="323">
-        <v>4</v>
-      </c>
+      <c r="I14"/>
+      <c r="J14" s="120"/>
       <c r="K14" s="120"/>
       <c r="L14" s="120"/>
     </row>
@@ -12368,17 +12123,12 @@
       <c r="H15" s="133">
         <v>4</v>
       </c>
-      <c r="I15" s="243">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="323">
-        <v>4</v>
-      </c>
+      <c r="I15"/>
+      <c r="J15" s="120"/>
       <c r="K15" s="120"/>
       <c r="L15" s="120"/>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="120"/>
       <c r="B16" s="134" t="s">
         <v>63</v>
@@ -12401,29 +12151,16 @@
       <c r="H16" s="135">
         <v>1</v>
       </c>
-      <c r="I16" s="243">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="J16" s="323">
-        <v>4</v>
-      </c>
+      <c r="I16"/>
+      <c r="J16" s="120"/>
       <c r="K16" s="120"/>
       <c r="L16" s="120"/>
     </row>
-    <row r="17" spans="2:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H17" s="319" t="s">
-        <v>333</v>
-      </c>
-      <c r="I17" s="320">
-        <f>SUM(I5:I16)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>324</v>
-      </c>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
@@ -12447,485 +12184,193 @@
       <c r="K19"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="125"/>
-      <c r="C20" s="126" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="126" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="126" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="126" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="126" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="126" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="318" t="s">
-        <v>331</v>
-      </c>
-      <c r="J20" s="318" t="s">
-        <v>19</v>
-      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
       <c r="K20"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="127" t="s">
-        <v>330</v>
-      </c>
-      <c r="C21" s="128">
-        <v>0</v>
-      </c>
-      <c r="D21" s="316">
-        <v>1</v>
-      </c>
-      <c r="E21" s="128">
-        <v>0</v>
-      </c>
-      <c r="F21" s="128">
-        <v>0</v>
-      </c>
-      <c r="G21" s="316">
-        <v>1</v>
-      </c>
-      <c r="H21" s="128">
-        <v>0</v>
-      </c>
-      <c r="I21" s="243">
-        <f>SUM(C21:H21)</f>
-        <v>2</v>
-      </c>
-      <c r="J21" s="322">
-        <v>2</v>
-      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
       <c r="K21"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="128">
-        <v>0</v>
-      </c>
-      <c r="D22" s="316">
-        <v>0</v>
-      </c>
-      <c r="E22" s="128">
-        <v>1</v>
-      </c>
-      <c r="F22" s="128">
-        <v>1</v>
-      </c>
-      <c r="G22" s="316">
-        <v>0</v>
-      </c>
-      <c r="H22" s="128">
-        <v>0</v>
-      </c>
-      <c r="I22" s="243">
-        <f t="shared" ref="I22:I32" si="2">SUM(C22:H22)</f>
-        <v>2</v>
-      </c>
-      <c r="J22" s="322">
-        <v>2</v>
-      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
       <c r="K22"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="131" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="128">
-        <v>0</v>
-      </c>
-      <c r="D23" s="316">
-        <v>1</v>
-      </c>
-      <c r="E23" s="128">
-        <v>0</v>
-      </c>
-      <c r="F23" s="128">
-        <v>0</v>
-      </c>
-      <c r="G23" s="316">
-        <v>0</v>
-      </c>
-      <c r="H23" s="128">
-        <v>0</v>
-      </c>
-      <c r="I23" s="243">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J23" s="322">
-        <v>2</v>
-      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
       <c r="K23"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="129" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="128">
-        <v>0</v>
-      </c>
-      <c r="D24" s="316">
-        <v>0</v>
-      </c>
-      <c r="E24" s="128">
-        <v>1</v>
-      </c>
-      <c r="F24" s="128">
-        <v>0</v>
-      </c>
-      <c r="G24" s="316">
-        <v>0</v>
-      </c>
-      <c r="H24" s="128">
-        <v>0</v>
-      </c>
-      <c r="I24" s="243">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J24" s="322">
-        <v>2</v>
-      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
       <c r="K24"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="131" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="128">
-        <v>0</v>
-      </c>
-      <c r="D25" s="316">
-        <v>0</v>
-      </c>
-      <c r="E25" s="128">
-        <v>0</v>
-      </c>
-      <c r="F25" s="128">
-        <v>1</v>
-      </c>
-      <c r="G25" s="316">
-        <v>0</v>
-      </c>
-      <c r="H25" s="128">
-        <v>0</v>
-      </c>
-      <c r="I25" s="243">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J25" s="322">
-        <v>2</v>
-      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
       <c r="K25"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="129" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="128">
-        <v>0</v>
-      </c>
-      <c r="D26" s="316">
-        <v>0</v>
-      </c>
-      <c r="E26" s="128">
-        <v>1</v>
-      </c>
-      <c r="F26" s="128">
-        <v>0</v>
-      </c>
-      <c r="G26" s="316">
-        <v>1</v>
-      </c>
-      <c r="H26" s="128">
-        <v>1</v>
-      </c>
-      <c r="I26" s="243">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J26" s="322">
-        <v>2</v>
-      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
       <c r="K26"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="131" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="128">
-        <v>0</v>
-      </c>
-      <c r="D27" s="316">
-        <v>0</v>
-      </c>
-      <c r="E27" s="128">
-        <v>0</v>
-      </c>
-      <c r="F27" s="128">
-        <v>0</v>
-      </c>
-      <c r="G27" s="316">
-        <v>1</v>
-      </c>
-      <c r="H27" s="128">
-        <v>0</v>
-      </c>
-      <c r="I27" s="243">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J27" s="322">
-        <v>2</v>
-      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
       <c r="K27"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="129" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="128">
-        <v>0</v>
-      </c>
-      <c r="D28" s="316">
-        <v>0</v>
-      </c>
-      <c r="E28" s="128">
-        <v>0</v>
-      </c>
-      <c r="F28" s="128">
-        <v>0</v>
-      </c>
-      <c r="G28" s="316">
-        <v>0</v>
-      </c>
-      <c r="H28" s="128">
-        <v>0</v>
-      </c>
-      <c r="I28" s="243">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="322">
-        <v>2</v>
-      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
       <c r="K28"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="131" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="128">
-        <v>0</v>
-      </c>
-      <c r="D29" s="316">
-        <v>0</v>
-      </c>
-      <c r="E29" s="128">
-        <v>0</v>
-      </c>
-      <c r="F29" s="128">
-        <v>0</v>
-      </c>
-      <c r="G29" s="316">
-        <v>0</v>
-      </c>
-      <c r="H29" s="128">
-        <v>0</v>
-      </c>
-      <c r="I29" s="243">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="322">
-        <v>2</v>
-      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
       <c r="K29"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="129" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="128">
-        <v>0</v>
-      </c>
-      <c r="D30" s="316">
-        <v>0</v>
-      </c>
-      <c r="E30" s="128">
-        <v>0</v>
-      </c>
-      <c r="F30" s="128">
-        <v>0</v>
-      </c>
-      <c r="G30" s="316">
-        <v>0</v>
-      </c>
-      <c r="H30" s="128">
-        <v>0</v>
-      </c>
-      <c r="I30" s="243">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="322">
-        <v>2</v>
-      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
       <c r="K30"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="131" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="128">
-        <v>0</v>
-      </c>
-      <c r="D31" s="316">
-        <v>0</v>
-      </c>
-      <c r="E31" s="128">
-        <v>0</v>
-      </c>
-      <c r="F31" s="128">
-        <v>0</v>
-      </c>
-      <c r="G31" s="316">
-        <v>0</v>
-      </c>
-      <c r="H31" s="128">
-        <v>0</v>
-      </c>
-      <c r="I31" s="243">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="322">
-        <v>2</v>
-      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
       <c r="K31"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="134" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="128">
-        <v>0</v>
-      </c>
-      <c r="D32" s="316">
-        <v>0</v>
-      </c>
-      <c r="E32" s="128">
-        <v>1</v>
-      </c>
-      <c r="F32" s="128">
-        <v>1</v>
-      </c>
-      <c r="G32" s="316">
-        <v>1</v>
-      </c>
-      <c r="H32" s="128">
-        <v>0</v>
-      </c>
-      <c r="I32" s="243">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J32" s="322">
-        <v>2</v>
-      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
       <c r="K32"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="317" t="s">
-        <v>331</v>
-      </c>
-      <c r="C33" s="243">
-        <f>SUM(C21:C32)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="243">
-        <f t="shared" ref="D33:H33" si="3">SUM(D21:D32)</f>
-        <v>2</v>
-      </c>
-      <c r="E33" s="243">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="F33" s="243">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G33" s="243">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H33" s="243">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="321" t="s">
-        <v>334</v>
-      </c>
-      <c r="C34" s="322">
-        <v>3</v>
-      </c>
-      <c r="D34" s="322">
-        <v>3</v>
-      </c>
-      <c r="E34" s="322">
-        <v>3</v>
-      </c>
-      <c r="F34" s="322">
-        <v>3</v>
-      </c>
-      <c r="G34" s="322">
-        <v>3</v>
-      </c>
-      <c r="H34" s="322">
-        <v>3</v>
-      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="317" t="s">
-        <v>335</v>
-      </c>
-      <c r="C35" s="322">
-        <v>6</v>
-      </c>
-      <c r="D35" s="322">
-        <v>6</v>
-      </c>
-      <c r="E35" s="322">
-        <v>6</v>
-      </c>
-      <c r="F35" s="322">
-        <v>6</v>
-      </c>
-      <c r="G35" s="322">
-        <v>6</v>
-      </c>
-      <c r="H35" s="322">
-        <v>6</v>
-      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -12955,11 +12400,6 @@
       <c r="K37"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C21:H32 J21:J32 C34:H35">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B1" location="Sadrzaj!A1" display="Povratak na sadržaj" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
@@ -12975,10 +12415,10 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12989,7 +12429,7 @@
     <col min="14" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="137" t="s">
         <v>203</v>
       </c>
@@ -12997,7 +12437,7 @@
       <c r="C1" s="138"/>
       <c r="D1" s="138"/>
     </row>
-    <row r="2" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="139" t="s">
         <v>230</v>
       </c>
@@ -13010,8 +12450,11 @@
       <c r="D2" s="139" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="279" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>92</v>
       </c>
@@ -13024,8 +12467,15 @@
       <c r="D3" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="280">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <f>E3+E4+E5+E6+E9+E10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>93</v>
       </c>
@@ -13038,8 +12488,11 @@
       <c r="D4" s="38">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
         <v>94</v>
       </c>
@@ -13052,8 +12505,11 @@
       <c r="D5" s="38">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>95</v>
       </c>
@@ -13066,8 +12522,11 @@
       <c r="D6" s="38">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>96</v>
       </c>
@@ -13080,8 +12539,11 @@
       <c r="D7" s="38">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>97</v>
       </c>
@@ -13094,8 +12556,11 @@
       <c r="D8" s="38">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>98</v>
       </c>
@@ -13108,8 +12573,11 @@
       <c r="D9" s="38">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>99</v>
       </c>
@@ -13122,8 +12590,11 @@
       <c r="D10" s="38">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="140" t="s">
         <v>100</v>
       </c>
@@ -13136,24 +12607,82 @@
       <c r="D11" s="140">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12"/>
+      <c r="E11" s="282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="23.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="242">
+        <f>SUMPRODUCT(C3:C11,E3:E11)</f>
+        <v>54</v>
+      </c>
+      <c r="D12" s="242">
+        <f>SUMPRODUCT(D3:D11,E3:E11)</f>
+        <v>44</v>
+      </c>
       <c r="E12"/>
-    </row>
-    <row r="13" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13"/>
+      <c r="G12" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="H12" s="284">
+        <f>SUMPRODUCT(B3:B11,E3:E11)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="23.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="242">
+        <v>50</v>
+      </c>
+      <c r="D13" s="283">
+        <v>20</v>
+      </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15"/>
       <c r="E15"/>
     </row>
+    <row r="16" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E18" s="8">
+        <f>SUM(E16:E17)</f>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="E3:E11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="Sadrzaj!A1" display="Povratak na sadržaj" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
   </hyperlinks>
@@ -13521,14 +13050,14 @@
     </row>
     <row r="2" spans="2:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
-      <c r="C2" s="272" t="s">
+      <c r="C2" s="271" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="274"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
+      <c r="H2" s="273"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -14181,20 +13710,20 @@
   <sheetFormatPr defaultColWidth="13.5546875" defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.44140625" style="59" customWidth="1"/>
-    <col min="2" max="3" width="13.109375" style="195" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="195" customWidth="1"/>
-    <col min="5" max="16384" width="13.5546875" style="195"/>
+    <col min="2" max="3" width="13.109375" style="194" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="194" customWidth="1"/>
+    <col min="5" max="16384" width="13.5546875" style="194"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="250" t="s">
+      <c r="B1" s="249" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="250"/>
-      <c r="F1" s="195">
+      <c r="C1" s="249"/>
+      <c r="F1" s="194">
         <v>640</v>
       </c>
     </row>
@@ -14222,7 +13751,7 @@
       <c r="C3" s="64">
         <v>0</v>
       </c>
-      <c r="D3" s="195">
+      <c r="D3" s="194">
         <v>8</v>
       </c>
     </row>
@@ -14236,7 +13765,7 @@
       <c r="C4" s="64">
         <v>1</v>
       </c>
-      <c r="D4" s="195">
+      <c r="D4" s="194">
         <v>8</v>
       </c>
     </row>
@@ -14270,30 +13799,30 @@
     </row>
     <row r="7" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="200" t="s">
+      <c r="A8" s="199" t="s">
         <v>267</v>
       </c>
-      <c r="B8" s="188">
+      <c r="B8" s="187">
         <v>20</v>
       </c>
-      <c r="C8" s="189">
+      <c r="C8" s="188">
         <v>3</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
     </row>
     <row r="9" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="200"/>
+      <c r="A9" s="199"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
     </row>
     <row r="10" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="202" t="s">
+      <c r="A10" s="201" t="s">
         <v>268</v>
       </c>
-      <c r="B10" s="241">
+      <c r="B10" s="240">
         <v>890</v>
       </c>
       <c r="C10" s="40"/>
@@ -14308,14 +13837,14 @@
       <c r="E11" s="40"/>
     </row>
     <row r="12" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="203" t="s">
+      <c r="A12" s="202" t="s">
         <v>269</v>
       </c>
-      <c r="B12" s="203" t="s">
+      <c r="B12" s="202" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="203"/>
-      <c r="D12" s="203" t="s">
+      <c r="C12" s="202"/>
+      <c r="D12" s="202" t="s">
         <v>255</v>
       </c>
       <c r="E12" s="40"/>
@@ -14530,10 +14059,10 @@
       <c r="E11" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="275" t="s">
+      <c r="F11" s="274" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="276"/>
+      <c r="G11" s="275"/>
     </row>
     <row r="12" spans="2:8" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="155" t="s">
@@ -14648,13 +14177,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="165"/>
-      <c r="B2" s="277" t="s">
+      <c r="B2" s="276" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="279" t="s">
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="278" t="s">
         <v>40</v>
       </c>
     </row>
@@ -14674,7 +14203,7 @@
       <c r="E3" s="168" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="279"/>
+      <c r="F3" s="278"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="169" t="s">
@@ -15208,45 +14737,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="195" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="193" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="191" t="s">
+      <c r="B5" s="190" t="s">
         <v>250</v>
       </c>
-      <c r="C5" s="191" t="s">
+      <c r="C5" s="190" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="188">
+      <c r="B6" s="187">
         <v>29.999999999999996</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>40.000000000000007</v>
       </c>
-      <c r="E6" s="250" t="s">
+      <c r="E6" s="249" t="s">
         <v>260</v>
       </c>
-      <c r="F6" s="250"/>
-      <c r="G6" s="250"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
     </row>
     <row r="7" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="192">
+      <c r="B8" s="191">
         <v>70</v>
       </c>
-      <c r="C8" s="193">
+      <c r="C8" s="192">
         <v>50</v>
       </c>
       <c r="E8" s="83"/>
@@ -15272,7 +14801,7 @@
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="190">
+      <c r="B10" s="189">
         <f>B6*B8+C6*C8</f>
         <v>4100</v>
       </c>
@@ -15347,7 +14876,7 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15384,26 +14913,26 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="250" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="253" t="s">
+      <c r="B2" s="252" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="254" t="s">
+      <c r="C2" s="252"/>
+      <c r="D2" s="253" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="252"/>
+      <c r="A3" s="251"/>
       <c r="B3" s="82" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="255"/>
+      <c r="D3" s="254"/>
     </row>
     <row r="4" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
@@ -15451,10 +14980,10 @@
       <c r="A7" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="B7" s="246">
+      <c r="B7" s="245">
         <v>1200</v>
       </c>
-      <c r="C7" s="247">
+      <c r="C7" s="246">
         <v>1800</v>
       </c>
       <c r="D7" s="68"/>
@@ -15464,13 +14993,13 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="242" t="s">
+      <c r="A9" s="241" t="s">
         <v>249</v>
       </c>
-      <c r="B9" s="244">
+      <c r="B9" s="243">
         <v>1</v>
       </c>
-      <c r="C9" s="245">
+      <c r="C9" s="244">
         <v>1</v>
       </c>
       <c r="D9"/>
@@ -15485,10 +15014,10 @@
       <c r="E10"/>
     </row>
     <row r="11" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="243" t="s">
+      <c r="A11" s="242" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="248">
+      <c r="B11" s="247">
         <f>B7+C7</f>
         <v>3000</v>
       </c>
@@ -15527,17 +15056,17 @@
       <c r="E15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="251"/>
-      <c r="B16" s="253"/>
-      <c r="C16" s="253"/>
-      <c r="D16" s="254"/>
+      <c r="A16" s="250"/>
+      <c r="B16" s="252"/>
+      <c r="C16" s="252"/>
+      <c r="D16" s="253"/>
       <c r="E16"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="252"/>
-      <c r="B17" s="187"/>
-      <c r="C17" s="187"/>
-      <c r="D17" s="255"/>
+      <c r="A17" s="251"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="254"/>
       <c r="E17"/>
     </row>
     <row r="18" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
@@ -15770,17 +15299,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="231" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="231" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="231" t="s">
         <v>281</v>
       </c>
     </row>
@@ -15790,136 +15319,136 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="235"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="235" t="s">
+      <c r="B7" s="234"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="234" t="s">
         <v>285</v>
       </c>
-      <c r="E7" s="235" t="s">
+      <c r="E7" s="234" t="s">
         <v>287</v>
       </c>
-      <c r="F7" s="235" t="s">
+      <c r="F7" s="234" t="s">
         <v>289</v>
       </c>
-      <c r="G7" s="235" t="s">
+      <c r="G7" s="234" t="s">
         <v>291</v>
       </c>
-      <c r="H7" s="235" t="s">
+      <c r="H7" s="234" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="236" t="s">
+      <c r="B8" s="235" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="236" t="s">
+      <c r="C8" s="235" t="s">
         <v>284</v>
       </c>
-      <c r="D8" s="236" t="s">
+      <c r="D8" s="235" t="s">
         <v>286</v>
       </c>
-      <c r="E8" s="236" t="s">
+      <c r="E8" s="235" t="s">
         <v>288</v>
       </c>
-      <c r="F8" s="236" t="s">
+      <c r="F8" s="235" t="s">
         <v>290</v>
       </c>
-      <c r="G8" s="236" t="s">
+      <c r="G8" s="235" t="s">
         <v>292</v>
       </c>
-      <c r="H8" s="236" t="s">
+      <c r="H8" s="235" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="233" t="s">
+      <c r="B9" s="232" t="s">
         <v>299</v>
       </c>
-      <c r="C9" s="233" t="s">
+      <c r="C9" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="D9" s="239">
+      <c r="D9" s="238">
         <v>100</v>
       </c>
-      <c r="E9" s="233">
+      <c r="E9" s="232">
         <v>0</v>
       </c>
-      <c r="F9" s="237">
+      <c r="F9" s="236">
         <v>40</v>
       </c>
-      <c r="G9" s="233">
+      <c r="G9" s="232">
         <v>8</v>
       </c>
-      <c r="H9" s="233">
+      <c r="H9" s="232">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="233" t="s">
+      <c r="B10" s="232" t="s">
         <v>301</v>
       </c>
-      <c r="C10" s="233" t="s">
+      <c r="C10" s="232" t="s">
         <v>302</v>
       </c>
-      <c r="D10" s="239">
+      <c r="D10" s="238">
         <v>500</v>
       </c>
-      <c r="E10" s="233">
+      <c r="E10" s="232">
         <v>0</v>
       </c>
-      <c r="F10" s="237">
+      <c r="F10" s="236">
         <v>24</v>
       </c>
-      <c r="G10" s="233">
+      <c r="G10" s="232">
         <v>73</v>
       </c>
-      <c r="H10" s="233">
+      <c r="H10" s="232">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="233" t="s">
+      <c r="B11" s="232" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="233" t="s">
+      <c r="C11" s="232" t="s">
         <v>304</v>
       </c>
-      <c r="D11" s="239">
+      <c r="D11" s="238">
         <v>0</v>
       </c>
-      <c r="E11" s="233">
+      <c r="E11" s="232">
         <v>-16</v>
       </c>
-      <c r="F11" s="237">
+      <c r="F11" s="236">
         <v>36</v>
       </c>
-      <c r="G11" s="233">
+      <c r="G11" s="232">
         <v>16</v>
       </c>
-      <c r="H11" s="233">
+      <c r="H11" s="232">
         <v>1E+30</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="234" t="s">
+      <c r="B12" s="233" t="s">
         <v>305</v>
       </c>
-      <c r="C12" s="234" t="s">
+      <c r="C12" s="233" t="s">
         <v>306</v>
       </c>
-      <c r="D12" s="240">
+      <c r="D12" s="239">
         <v>100</v>
       </c>
-      <c r="E12" s="234">
+      <c r="E12" s="233">
         <v>0</v>
       </c>
-      <c r="F12" s="238">
+      <c r="F12" s="237">
         <v>23</v>
       </c>
-      <c r="G12" s="234">
+      <c r="G12" s="233">
         <v>73</v>
       </c>
-      <c r="H12" s="234">
+      <c r="H12" s="233">
         <v>1E+30</v>
       </c>
     </row>
@@ -15935,182 +15464,182 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="235"/>
-      <c r="C15" s="235"/>
-      <c r="D15" s="235" t="s">
+      <c r="B15" s="234"/>
+      <c r="C15" s="234"/>
+      <c r="D15" s="234" t="s">
         <v>285</v>
       </c>
-      <c r="E15" s="235" t="s">
+      <c r="E15" s="234" t="s">
         <v>295</v>
       </c>
-      <c r="F15" s="235" t="s">
+      <c r="F15" s="234" t="s">
         <v>297</v>
       </c>
-      <c r="G15" s="235" t="s">
+      <c r="G15" s="234" t="s">
         <v>291</v>
       </c>
-      <c r="H15" s="235" t="s">
+      <c r="H15" s="234" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="236" t="s">
+      <c r="B16" s="235" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="236" t="s">
+      <c r="C16" s="235" t="s">
         <v>284</v>
       </c>
-      <c r="D16" s="236" t="s">
+      <c r="D16" s="235" t="s">
         <v>286</v>
       </c>
-      <c r="E16" s="236" t="s">
+      <c r="E16" s="235" t="s">
         <v>296</v>
       </c>
-      <c r="F16" s="236" t="s">
+      <c r="F16" s="235" t="s">
         <v>298</v>
       </c>
-      <c r="G16" s="236" t="s">
+      <c r="G16" s="235" t="s">
         <v>292</v>
       </c>
-      <c r="H16" s="236" t="s">
+      <c r="H16" s="235" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="233" t="s">
+      <c r="B17" s="232" t="s">
         <v>307</v>
       </c>
-      <c r="C17" s="233" t="s">
+      <c r="C17" s="232" t="s">
         <v>308</v>
       </c>
-      <c r="D17" s="233">
+      <c r="D17" s="232">
         <v>1200</v>
       </c>
-      <c r="E17" s="233">
+      <c r="E17" s="232">
         <v>19.2</v>
       </c>
-      <c r="F17" s="233">
+      <c r="F17" s="232">
         <v>1200</v>
       </c>
-      <c r="G17" s="233">
+      <c r="G17" s="232">
         <v>166.66666666666663</v>
       </c>
-      <c r="H17" s="233">
+      <c r="H17" s="232">
         <v>166.66666666666663</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="233" t="s">
+      <c r="B18" s="232" t="s">
         <v>309</v>
       </c>
-      <c r="C18" s="233" t="s">
+      <c r="C18" s="232" t="s">
         <v>310</v>
       </c>
-      <c r="D18" s="233">
+      <c r="D18" s="232">
         <v>1600</v>
       </c>
-      <c r="E18" s="233">
+      <c r="E18" s="232">
         <v>1.6</v>
       </c>
-      <c r="F18" s="233">
+      <c r="F18" s="232">
         <v>1600</v>
       </c>
-      <c r="G18" s="233">
+      <c r="G18" s="232">
         <v>500</v>
       </c>
-      <c r="H18" s="233">
+      <c r="H18" s="232">
         <v>500</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="233" t="s">
+      <c r="B19" s="232" t="s">
         <v>311</v>
       </c>
-      <c r="C19" s="233" t="s">
+      <c r="C19" s="232" t="s">
         <v>312</v>
       </c>
-      <c r="D19" s="233">
+      <c r="D19" s="232">
         <v>4700</v>
       </c>
-      <c r="E19" s="233">
+      <c r="E19" s="232">
         <v>0</v>
       </c>
-      <c r="F19" s="233">
+      <c r="F19" s="232">
         <v>10000</v>
       </c>
-      <c r="G19" s="233">
+      <c r="G19" s="232">
         <v>1E+30</v>
       </c>
-      <c r="H19" s="233">
+      <c r="H19" s="232">
         <v>5300</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="233" t="s">
+      <c r="B20" s="232" t="s">
         <v>313</v>
       </c>
-      <c r="C20" s="233" t="s">
+      <c r="C20" s="232" t="s">
         <v>314</v>
       </c>
-      <c r="D20" s="233">
+      <c r="D20" s="232">
         <v>100</v>
       </c>
-      <c r="E20" s="233">
+      <c r="E20" s="232">
         <v>0</v>
       </c>
-      <c r="F20" s="233">
+      <c r="F20" s="232">
         <v>200</v>
       </c>
-      <c r="G20" s="233">
+      <c r="G20" s="232">
         <v>1E+30</v>
       </c>
-      <c r="H20" s="233">
+      <c r="H20" s="232">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="233" t="s">
+      <c r="B21" s="232" t="s">
         <v>315</v>
       </c>
-      <c r="C21" s="233" t="s">
+      <c r="C21" s="232" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="233">
+      <c r="D21" s="232">
         <v>0</v>
       </c>
-      <c r="E21" s="233">
+      <c r="E21" s="232">
         <v>0</v>
       </c>
-      <c r="F21" s="233">
+      <c r="F21" s="232">
         <v>160</v>
       </c>
-      <c r="G21" s="233">
+      <c r="G21" s="232">
         <v>1E+30</v>
       </c>
-      <c r="H21" s="233">
+      <c r="H21" s="232">
         <v>160</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="234" t="s">
+      <c r="B22" s="233" t="s">
         <v>317</v>
       </c>
-      <c r="C22" s="234" t="s">
+      <c r="C22" s="233" t="s">
         <v>318</v>
       </c>
-      <c r="D22" s="234">
+      <c r="D22" s="233">
         <v>100</v>
       </c>
-      <c r="E22" s="234">
+      <c r="E22" s="233">
         <v>-73</v>
       </c>
-      <c r="F22" s="234">
+      <c r="F22" s="233">
         <v>100</v>
       </c>
-      <c r="G22" s="234">
+      <c r="G22" s="233">
         <v>33.333333333333336</v>
       </c>
-      <c r="H22" s="234">
+      <c r="H22" s="233">
         <v>33.333333333333336</v>
       </c>
     </row>
@@ -16160,7 +15689,7 @@
       <c r="F2" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="220" t="s">
+      <c r="G2" s="219" t="s">
         <v>255</v>
       </c>
     </row>
@@ -16280,24 +15809,24 @@
       <c r="F10"/>
     </row>
     <row r="11" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="224" t="s">
+      <c r="B11" s="223" t="s">
         <v>267</v>
       </c>
-      <c r="C11" s="221"/>
-      <c r="D11" s="222"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="223"/>
+      <c r="C11" s="220"/>
+      <c r="D11" s="221"/>
+      <c r="E11" s="221"/>
+      <c r="F11" s="222"/>
     </row>
     <row r="12" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="201"/>
+      <c r="B12" s="200"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
     </row>
     <row r="13" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="201"/>
-      <c r="C13" s="225"/>
+      <c r="B13" s="200"/>
+      <c r="C13" s="224"/>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
@@ -16317,7 +15846,7 @@
       <c r="F15"/>
     </row>
     <row r="16" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="230" t="s">
+      <c r="B16" s="229" t="s">
         <v>252</v>
       </c>
       <c r="C16"/>
@@ -16333,50 +15862,50 @@
       <c r="F17"/>
     </row>
     <row r="18" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="229"/>
-      <c r="C18" s="231"/>
-      <c r="D18" s="231"/>
-      <c r="E18" s="227"/>
+      <c r="B18" s="228"/>
+      <c r="C18" s="230"/>
+      <c r="D18" s="230"/>
+      <c r="E18" s="226"/>
       <c r="F18"/>
     </row>
     <row r="19" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="226"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="231"/>
-      <c r="E19" s="227"/>
+      <c r="B19" s="225"/>
+      <c r="C19" s="230"/>
+      <c r="D19" s="230"/>
+      <c r="E19" s="226"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="226"/>
-      <c r="C20" s="231"/>
-      <c r="D20" s="231"/>
-      <c r="E20" s="227"/>
+      <c r="B20" s="225"/>
+      <c r="C20" s="230"/>
+      <c r="D20" s="230"/>
+      <c r="E20" s="226"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="228"/>
-      <c r="C21" s="231"/>
-      <c r="D21" s="231"/>
-      <c r="E21" s="227"/>
+      <c r="B21" s="227"/>
+      <c r="C21" s="230"/>
+      <c r="D21" s="230"/>
+      <c r="E21" s="226"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="228"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="231"/>
-      <c r="E22" s="227"/>
+      <c r="B22" s="227"/>
+      <c r="C22" s="230"/>
+      <c r="D22" s="230"/>
+      <c r="E22" s="226"/>
       <c r="F22"/>
     </row>
     <row r="23" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="228"/>
-      <c r="C23" s="231"/>
-      <c r="D23" s="231"/>
-      <c r="E23" s="227"/>
+      <c r="B23" s="227"/>
+      <c r="C23" s="230"/>
+      <c r="D23" s="230"/>
+      <c r="E23" s="226"/>
       <c r="F23"/>
     </row>
     <row r="24" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="220"/>
-      <c r="D24" s="220"/>
+      <c r="B24" s="219"/>
+      <c r="D24" s="219"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -16395,8 +15924,8 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16435,18 +15964,18 @@
         <v>117</v>
       </c>
       <c r="B14" s="96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C14" s="96">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D14" s="96">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E14" s="96">
-        <v>0</v>
-      </c>
-      <c r="F14" s="280">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F14" s="37">
         <v>10000</v>
       </c>
     </row>
@@ -16455,18 +15984,18 @@
         <v>118</v>
       </c>
       <c r="B15" s="96">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="C15" s="96">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="D15" s="96">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="E15" s="96">
-        <v>0</v>
-      </c>
-      <c r="F15" s="280">
+        <v>4.8</v>
+      </c>
+      <c r="F15" s="37">
         <v>12000</v>
       </c>
     </row>
@@ -16475,18 +16004,18 @@
         <v>119</v>
       </c>
       <c r="B16" s="96">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="C16" s="96">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="D16" s="96">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E16" s="96">
-        <v>0</v>
-      </c>
-      <c r="F16" s="280">
+        <v>5.4</v>
+      </c>
+      <c r="F16" s="37">
         <v>14000</v>
       </c>
     </row>
@@ -16509,119 +16038,54 @@
       <c r="F17" s="37"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="281" t="s">
-        <v>320</v>
-      </c>
+      <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="93"/>
-      <c r="B20" s="284" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="284" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="284" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="284" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="95" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="282" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="286">
-        <v>0</v>
-      </c>
-      <c r="C21" s="287">
-        <v>0</v>
-      </c>
-      <c r="D21" s="287">
-        <v>0</v>
-      </c>
-      <c r="E21" s="288">
-        <v>10000</v>
-      </c>
-      <c r="F21" s="283">
-        <f>SUM(B21:E21)</f>
-        <v>10000</v>
-      </c>
+    <row r="20" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="282" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="289">
-        <v>0</v>
-      </c>
-      <c r="C22" s="96">
-        <v>1000</v>
-      </c>
-      <c r="D22" s="96">
-        <v>6000</v>
-      </c>
-      <c r="E22" s="290">
-        <v>5000</v>
-      </c>
-      <c r="F22" s="283">
-        <f t="shared" ref="F22:F23" si="0">SUM(B22:E22)</f>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="282" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" s="291">
-        <v>9000</v>
-      </c>
-      <c r="C23" s="292">
-        <v>5000</v>
-      </c>
-      <c r="D23" s="292">
-        <v>0</v>
-      </c>
-      <c r="E23" s="293">
-        <v>0</v>
-      </c>
-      <c r="F23" s="283">
-        <f t="shared" si="0"/>
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="B24" s="285">
-        <f>SUM(B21:B23)</f>
-        <v>9000</v>
-      </c>
-      <c r="C24" s="285">
-        <f t="shared" ref="C24:E24" si="1">SUM(C21:C23)</f>
-        <v>6000</v>
-      </c>
-      <c r="D24" s="285">
-        <f t="shared" si="1"/>
-        <v>6000</v>
-      </c>
-      <c r="E24" s="285">
-        <f t="shared" si="1"/>
-        <v>15000</v>
-      </c>
-      <c r="F24" s="37"/>
-    </row>
-    <row r="25" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -16629,20 +16093,15 @@
       <c r="E25"/>
       <c r="F25"/>
     </row>
-    <row r="26" spans="1:6" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="294" t="s">
-        <v>323</v>
-      </c>
-      <c r="B26" s="295">
-        <f>SUMPRODUCT(B14:E16,B21:E23)</f>
-        <v>0</v>
-      </c>
+    <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26"/>
+      <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -16667,7 +16126,7 @@
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16688,13 +16147,13 @@
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="2:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="256" t="s">
+      <c r="B3" s="255" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="257"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="257"/>
       <c r="H3" s="35"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
@@ -16806,93 +16265,51 @@
       <c r="I9"/>
     </row>
     <row r="10" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="256" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="257"/>
-      <c r="D10" s="257"/>
-      <c r="E10" s="257"/>
-      <c r="F10" s="258"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
     </row>
     <row r="11" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="98" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>125</v>
-      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
     </row>
     <row r="12" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="14">
-        <v>10</v>
-      </c>
-      <c r="D12" s="14">
-        <v>10</v>
-      </c>
-      <c r="E12" s="14">
-        <v>10</v>
-      </c>
-      <c r="F12" s="14">
-        <v>10</v>
-      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="14">
-        <v>10</v>
-      </c>
-      <c r="D13" s="14">
-        <v>10</v>
-      </c>
-      <c r="E13" s="14">
-        <v>10</v>
-      </c>
-      <c r="F13" s="14">
-        <v>10</v>
-      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
     </row>
     <row r="14" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="99" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="14">
-        <v>10</v>
-      </c>
-      <c r="D14" s="14">
-        <v>10</v>
-      </c>
-      <c r="E14" s="14">
-        <v>10</v>
-      </c>
-      <c r="F14" s="14">
-        <v>10</v>
-      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -16938,9 +16355,8 @@
       <c r="I18"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Sadrzaj!A1" display="Povratak na sadržaj" xr:uid="{00000000-0004-0000-0600-000000000000}"/>

--- a/3.1 Optimizacija (N).xlsx
+++ b/3.1 Optimizacija (N).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF433CC0-00F1-4FA1-9A53-7BC5BB4A37B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F381DB78-3602-42CB-B5A9-6E0854838C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="807" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4232,6 +4232,54 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="31" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4324,54 +4372,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="31" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -8896,13 +8896,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="248" t="s">
+      <c r="A1" s="264" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
       <c r="F1" s="179"/>
     </row>
     <row r="2" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9961,7 +9961,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10022,7 +10022,7 @@
       <c r="E10" s="48">
         <v>20000</v>
       </c>
-      <c r="F10" s="285">
+      <c r="F10" s="254">
         <v>45.1</v>
       </c>
       <c r="G10"/>
@@ -10042,7 +10042,7 @@
       <c r="E11" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="285">
+      <c r="F11" s="254">
         <v>32.4</v>
       </c>
       <c r="G11"/>
@@ -10085,7 +10085,7 @@
       <c r="D14" s="25">
         <v>5</v>
       </c>
-      <c r="E14" s="286">
+      <c r="E14" s="255">
         <v>30000</v>
       </c>
       <c r="F14" s="27"/>
@@ -10101,7 +10101,7 @@
       <c r="D15" s="25">
         <v>9</v>
       </c>
-      <c r="E15" s="286">
+      <c r="E15" s="255">
         <v>70000</v>
       </c>
       <c r="F15" s="27"/>
@@ -10116,7 +10116,7 @@
     </row>
     <row r="17" spans="1:8" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="24"/>
-      <c r="B17" s="287" t="s">
+      <c r="B17" s="256" t="s">
         <v>249</v>
       </c>
       <c r="C17" s="242" t="s">
@@ -10131,54 +10131,54 @@
       <c r="H17"/>
     </row>
     <row r="18" spans="1:8" ht="22.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="288" t="s">
+      <c r="B18" s="257" t="s">
         <v>323</v>
       </c>
-      <c r="C18" s="289">
-        <v>1000</v>
-      </c>
-      <c r="D18" s="290">
-        <v>1000</v>
+      <c r="C18" s="258">
+        <v>1</v>
+      </c>
+      <c r="D18" s="259">
+        <v>1</v>
       </c>
       <c r="E18"/>
-      <c r="F18" s="289" t="s">
+      <c r="F18" s="258" t="s">
         <v>327</v>
       </c>
-      <c r="G18" s="290" t="s">
+      <c r="G18" s="259" t="s">
         <v>330</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19" spans="1:8" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="288" t="s">
+      <c r="B19" s="257" t="s">
         <v>324</v>
       </c>
-      <c r="C19" s="291">
-        <v>1000</v>
-      </c>
-      <c r="D19" s="292">
-        <v>1000</v>
+      <c r="C19" s="260">
+        <v>1</v>
+      </c>
+      <c r="D19" s="261">
+        <v>1</v>
       </c>
       <c r="E19"/>
-      <c r="F19" s="291" t="s">
+      <c r="F19" s="260" t="s">
         <v>328</v>
       </c>
-      <c r="G19" s="292" t="s">
+      <c r="G19" s="261" t="s">
         <v>329</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20" spans="1:8" ht="22.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="287" t="s">
+      <c r="B20" s="256" t="s">
         <v>331</v>
       </c>
       <c r="C20" s="242">
         <f>SUM(C18:C19)</f>
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="D20" s="242">
         <f>SUM(D18:D19)</f>
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -10207,9 +10207,9 @@
       <c r="B23" t="s">
         <v>270</v>
       </c>
-      <c r="C23" s="293">
+      <c r="C23" s="262">
         <f>((C18+C19)*F10+(D18+D19)*F11)</f>
-        <v>155000</v>
+        <v>155</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -10240,12 +10240,12 @@
       </c>
       <c r="C26" s="84">
         <f>C20</f>
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="D26" s="84" t="s">
         <v>261</v>
       </c>
-      <c r="E26" s="294">
+      <c r="E26" s="263">
         <v>20000</v>
       </c>
     </row>
@@ -10255,12 +10255,12 @@
       </c>
       <c r="C27" s="84">
         <f>C18+D18</f>
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="D27" s="84" t="s">
         <v>261</v>
       </c>
-      <c r="E27" s="294">
+      <c r="E27" s="263">
         <v>30000</v>
       </c>
     </row>
@@ -10270,12 +10270,12 @@
       </c>
       <c r="C28" s="84">
         <f>D18+D19</f>
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="D28" s="84" t="s">
         <v>261</v>
       </c>
-      <c r="E28" s="294">
+      <c r="E28" s="263">
         <v>70000</v>
       </c>
     </row>
@@ -10284,47 +10284,59 @@
         <v>336</v>
       </c>
       <c r="C29" s="84">
-        <f>(C18*C14)+(C19*C15)/C18+C19</f>
-        <v>105094</v>
+        <f>2*C18-8*C19</f>
+        <v>-6</v>
       </c>
       <c r="D29" s="84" t="s">
         <v>337</v>
       </c>
       <c r="E29" s="84">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="22" t="s">
         <v>338</v>
       </c>
+      <c r="C30" s="84">
+        <f>8*D18-2*D19</f>
+        <v>6</v>
+      </c>
       <c r="D30" s="84" t="s">
         <v>337</v>
       </c>
       <c r="E30" s="84">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="22" t="s">
         <v>339</v>
       </c>
+      <c r="C31" s="84">
+        <f>C18+3*C19</f>
+        <v>4</v>
+      </c>
       <c r="D31" s="84" t="s">
         <v>261</v>
       </c>
       <c r="E31" s="84">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="22" t="s">
         <v>340</v>
       </c>
+      <c r="C32" s="84">
+        <f>-3*D18+D19</f>
+        <v>-2</v>
+      </c>
       <c r="D32" s="84" t="s">
         <v>261</v>
       </c>
       <c r="E32" s="84">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10375,24 +10387,24 @@
       <c r="B2" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="264" t="s">
+      <c r="C2" s="280" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="264"/>
-      <c r="E2" s="265" t="s">
+      <c r="D2" s="280"/>
+      <c r="E2" s="281" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="265"/>
-      <c r="G2" s="266" t="s">
+      <c r="F2" s="281"/>
+      <c r="G2" s="282" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="267"/>
-      <c r="I2" s="268"/>
-      <c r="J2" s="265" t="s">
+      <c r="H2" s="283"/>
+      <c r="I2" s="284"/>
+      <c r="J2" s="281" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="265"/>
-      <c r="L2" s="265"/>
+      <c r="K2" s="281"/>
+      <c r="L2" s="281"/>
       <c r="M2" s="56"/>
     </row>
     <row r="3" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10579,17 +10591,17 @@
       <c r="B8" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="258"/>
-      <c r="D8" s="259"/>
-      <c r="E8" s="260">
+      <c r="C8" s="274"/>
+      <c r="D8" s="275"/>
+      <c r="E8" s="276">
         <v>120</v>
       </c>
-      <c r="F8" s="261"/>
-      <c r="G8" s="258">
+      <c r="F8" s="277"/>
+      <c r="G8" s="274">
         <v>120</v>
       </c>
-      <c r="H8" s="262"/>
-      <c r="I8" s="259"/>
+      <c r="H8" s="278"/>
+      <c r="I8" s="275"/>
       <c r="J8" s="119"/>
       <c r="K8" s="119"/>
       <c r="L8" s="119"/>
@@ -10599,24 +10611,24 @@
       <c r="B9" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="258">
+      <c r="C9" s="274">
         <v>15</v>
       </c>
-      <c r="D9" s="259"/>
-      <c r="E9" s="260">
+      <c r="D9" s="275"/>
+      <c r="E9" s="276">
         <v>25</v>
       </c>
-      <c r="F9" s="261"/>
-      <c r="G9" s="258">
+      <c r="F9" s="277"/>
+      <c r="G9" s="274">
         <v>35</v>
       </c>
-      <c r="H9" s="262"/>
-      <c r="I9" s="259"/>
-      <c r="J9" s="260">
+      <c r="H9" s="278"/>
+      <c r="I9" s="275"/>
+      <c r="J9" s="276">
         <v>20</v>
       </c>
-      <c r="K9" s="263"/>
-      <c r="L9" s="261"/>
+      <c r="K9" s="279"/>
+      <c r="L9" s="277"/>
       <c r="M9" s="56"/>
     </row>
     <row r="10" spans="2:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -11409,14 +11421,14 @@
     </row>
     <row r="2" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="269" t="s">
+      <c r="B2" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="270"/>
+      <c r="C2" s="285"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="286"/>
     </row>
     <row r="3" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -12450,7 +12462,7 @@
       <c r="D2" s="139" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="279" t="s">
+      <c r="E2" s="248" t="s">
         <v>320</v>
       </c>
     </row>
@@ -12467,7 +12479,7 @@
       <c r="D3" s="9">
         <v>3</v>
       </c>
-      <c r="E3" s="280">
+      <c r="E3" s="249">
         <v>0</v>
       </c>
       <c r="G3" s="8">
@@ -12488,7 +12500,7 @@
       <c r="D4" s="38">
         <v>7</v>
       </c>
-      <c r="E4" s="281">
+      <c r="E4" s="250">
         <v>0</v>
       </c>
     </row>
@@ -12505,7 +12517,7 @@
       <c r="D5" s="38">
         <v>6</v>
       </c>
-      <c r="E5" s="281">
+      <c r="E5" s="250">
         <v>0</v>
       </c>
     </row>
@@ -12522,7 +12534,7 @@
       <c r="D6" s="38">
         <v>2</v>
       </c>
-      <c r="E6" s="281">
+      <c r="E6" s="250">
         <v>0</v>
       </c>
     </row>
@@ -12539,7 +12551,7 @@
       <c r="D7" s="38">
         <v>35</v>
       </c>
-      <c r="E7" s="281">
+      <c r="E7" s="250">
         <v>1</v>
       </c>
     </row>
@@ -12556,7 +12568,7 @@
       <c r="D8" s="38">
         <v>6</v>
       </c>
-      <c r="E8" s="281">
+      <c r="E8" s="250">
         <v>1</v>
       </c>
     </row>
@@ -12573,7 +12585,7 @@
       <c r="D9" s="38">
         <v>4</v>
       </c>
-      <c r="E9" s="281">
+      <c r="E9" s="250">
         <v>0</v>
       </c>
     </row>
@@ -12590,7 +12602,7 @@
       <c r="D10" s="38">
         <v>3</v>
       </c>
-      <c r="E10" s="281">
+      <c r="E10" s="250">
         <v>0</v>
       </c>
     </row>
@@ -12607,7 +12619,7 @@
       <c r="D11" s="140">
         <v>3</v>
       </c>
-      <c r="E11" s="282">
+      <c r="E11" s="251">
         <v>1</v>
       </c>
     </row>
@@ -12627,7 +12639,7 @@
       <c r="G12" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="H12" s="284">
+      <c r="H12" s="253">
         <f>SUMPRODUCT(B3:B11,E3:E11)</f>
         <v>64</v>
       </c>
@@ -12639,7 +12651,7 @@
       <c r="C13" s="242">
         <v>50</v>
       </c>
-      <c r="D13" s="283">
+      <c r="D13" s="252">
         <v>20</v>
       </c>
       <c r="E13"/>
@@ -12679,7 +12691,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13050,14 +13062,14 @@
     </row>
     <row r="2" spans="2:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
-      <c r="C2" s="271" t="s">
+      <c r="C2" s="287" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="273"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288"/>
+      <c r="H2" s="289"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -13719,10 +13731,10 @@
       <c r="A1" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="249" t="s">
+      <c r="B1" s="265" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="249"/>
+      <c r="C1" s="265"/>
       <c r="F1" s="194">
         <v>640</v>
       </c>
@@ -14059,10 +14071,10 @@
       <c r="E11" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="274" t="s">
+      <c r="F11" s="290" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="275"/>
+      <c r="G11" s="291"/>
     </row>
     <row r="12" spans="2:8" ht="16.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="155" t="s">
@@ -14177,13 +14189,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="165"/>
-      <c r="B2" s="276" t="s">
+      <c r="B2" s="292" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="278" t="s">
+      <c r="C2" s="292"/>
+      <c r="D2" s="292"/>
+      <c r="E2" s="293"/>
+      <c r="F2" s="294" t="s">
         <v>40</v>
       </c>
     </row>
@@ -14203,7 +14215,7 @@
       <c r="E3" s="168" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="278"/>
+      <c r="F3" s="294"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="169" t="s">
@@ -14761,11 +14773,11 @@
       <c r="C6" s="188">
         <v>40.000000000000007</v>
       </c>
-      <c r="E6" s="249" t="s">
+      <c r="E6" s="265" t="s">
         <v>260</v>
       </c>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
+      <c r="F6" s="265"/>
+      <c r="G6" s="265"/>
     </row>
     <row r="7" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -14876,7 +14888,7 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14913,26 +14925,26 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="250" t="s">
+      <c r="A2" s="266" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="268" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="252"/>
-      <c r="D2" s="253" t="s">
+      <c r="C2" s="268"/>
+      <c r="D2" s="269" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="251"/>
+      <c r="A3" s="267"/>
       <c r="B3" s="82" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="254"/>
+      <c r="D3" s="270"/>
     </row>
     <row r="4" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
@@ -15056,17 +15068,17 @@
       <c r="E15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="250"/>
-      <c r="B16" s="252"/>
-      <c r="C16" s="252"/>
-      <c r="D16" s="253"/>
+      <c r="A16" s="266"/>
+      <c r="B16" s="268"/>
+      <c r="C16" s="268"/>
+      <c r="D16" s="269"/>
       <c r="E16"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="251"/>
+      <c r="A17" s="267"/>
       <c r="B17" s="186"/>
       <c r="C17" s="186"/>
-      <c r="D17" s="254"/>
+      <c r="D17" s="270"/>
       <c r="E17"/>
     </row>
     <row r="18" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
@@ -16147,13 +16159,13 @@
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="2:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="271" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="257"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="272"/>
+      <c r="F3" s="273"/>
       <c r="H3" s="35"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
